--- a/data/hotels_by_city/Denver/Denver_shard_204.xlsx
+++ b/data/hotels_by_city/Denver/Denver_shard_204.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="360">
   <si>
     <t>STR#</t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g33694-d240162-Reviews-Motel_6_Denver_West_Wheat_Ridge_North-Wheat_Ridge_Colorado.html</t>
   </si>
   <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Denver-Hotels-Motel-6-Denver-West-Wheat-Ridge-North.h996132.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,972 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/04/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d240162-r504472236-Motel_6_Denver_West_Wheat_Ridge_North-Wheat_Ridge_Colorado.html</t>
+  </si>
+  <si>
+    <t>33694</t>
+  </si>
+  <si>
+    <t>240162</t>
+  </si>
+  <si>
+    <t>504472236</t>
+  </si>
+  <si>
+    <t>07/22/2017</t>
+  </si>
+  <si>
+    <t>basic  no more no less</t>
+  </si>
+  <si>
+    <t>Person  checking in was basic nice  and competent. The room was small the queen sized bed was more a full sized bed. Nothing there no shampoo  no  coffee maker just soap. Was clean  just basic A Dennys was next door and easy off and on I 70 No reason to stay or not to stay</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d240162-r481974349-Motel_6_Denver_West_Wheat_Ridge_North-Wheat_Ridge_Colorado.html</t>
+  </si>
+  <si>
+    <t>481974349</t>
+  </si>
+  <si>
+    <t>05/05/2017</t>
+  </si>
+  <si>
+    <t>Staff is friendly; internet is a pain</t>
+  </si>
+  <si>
+    <t>Quiet, clean, price is right. The internet throws you off or slows down literally every ten minutes - I am rushing to write this review. Other than that, it's your standard remodeled Motel 6. They photocopy your driver's license, which I don't like at all. I've stayed in many motels across America and that's NEVER protocol. I wouldn't stay here again. The staff is very accommodating but a LOT of Motel 6's have lousy internet and I'm starting to think it just isn't worth it.</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d240162-r475414621-Motel_6_Denver_West_Wheat_Ridge_North-Wheat_Ridge_Colorado.html</t>
+  </si>
+  <si>
+    <t>475414621</t>
+  </si>
+  <si>
+    <t>04/13/2017</t>
+  </si>
+  <si>
+    <t>not again</t>
+  </si>
+  <si>
+    <t>well this was a first for me here. it was clean and bed was nice. now for the 1st: no drawers, no pen and paper, no coffee pot,  no bible, wifi was extra, it took the heater over 2 hrs to heat up the room, the shower head was so low i had to lean down to wash my hair and im only 5' 7",</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d240162-r459374233-Motel_6_Denver_West_Wheat_Ridge_North-Wheat_Ridge_Colorado.html</t>
+  </si>
+  <si>
+    <t>459374233</t>
+  </si>
+  <si>
+    <t>02/13/2017</t>
+  </si>
+  <si>
+    <t>Great Staff comfortable place.</t>
+  </si>
+  <si>
+    <t>The staff was fantastic. Very helpful and great customer service. we were there for a week and a half and had no problems whats so ever. It is easy to get ion and off I70 and plenty of shops close by.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d240162-r454969218-Motel_6_Denver_West_Wheat_Ridge_North-Wheat_Ridge_Colorado.html</t>
+  </si>
+  <si>
+    <t>454969218</t>
+  </si>
+  <si>
+    <t>01/26/2017</t>
+  </si>
+  <si>
+    <t>Fantastic</t>
+  </si>
+  <si>
+    <t>The staff ( Donna)here is fantastic, we had an extended stay while house hunting and the staff couldn't have been more accommodating. Management (JOE) went above and beyond  what we expected. The room was always clean and fresh and they worked around our schedule to clean it which was really great. If needed my family would definitely stay with Joe and his staff again, they really made us feel welcome and almost like family.</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d240162-r454779024-Motel_6_Denver_West_Wheat_Ridge_North-Wheat_Ridge_Colorado.html</t>
+  </si>
+  <si>
+    <t>454779024</t>
+  </si>
+  <si>
+    <t>01/25/2017</t>
+  </si>
+  <si>
+    <t>Recommendation  Re Donna</t>
+  </si>
+  <si>
+    <t>We are at Motel 6 while hunting for a place to live, wheat ridge colorado,  Upon entering the motel to check in we were  immediately welcomed by Donna, she was very helpful to assist in meeting all our request and went over your policy, got us checked in within minutes and made sure we knew where all other ammentities were located, would highly recommend  this motel to all friends and family. So a big thank you  to Donna and motel 6 for great service.</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d240162-r452013707-Motel_6_Denver_West_Wheat_Ridge_North-Wheat_Ridge_Colorado.html</t>
+  </si>
+  <si>
+    <t>452013707</t>
+  </si>
+  <si>
+    <t>01/14/2017</t>
+  </si>
+  <si>
+    <t>Best cheap hotel</t>
+  </si>
+  <si>
+    <t>The service is excellent. The employees are helpful and friendly. Rooms are very nice and modern. Its in a great location, right off the highway and near food and gas. Don't like how thin the walls are though. Our tv kept turing off and restarting. But this is the nicest and best priced hotel I have stayed in. Thank you to the manager Joe who has been wonderful to us!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d240162-r448728123-Motel_6_Denver_West_Wheat_Ridge_North-Wheat_Ridge_Colorado.html</t>
+  </si>
+  <si>
+    <t>448728123</t>
+  </si>
+  <si>
+    <t>01/02/2017</t>
+  </si>
+  <si>
+    <t>clean, comfy, close to hwy &amp; quite</t>
+  </si>
+  <si>
+    <t>Joe and his staff here are friendly and very accommodating. this motel 6 is safe other than others in Denver, which is one of the reasons, i choose to stay here.  my room is always! clean (smelling fresh) and ready whenever i arrive. i would just like to let the whole staff know they are appreciated, thank you.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d240162-r447635072-Motel_6_Denver_West_Wheat_Ridge_North-Wheat_Ridge_Colorado.html</t>
+  </si>
+  <si>
+    <t>447635072</t>
+  </si>
+  <si>
+    <t>12/29/2016</t>
+  </si>
+  <si>
+    <t>1984</t>
+  </si>
+  <si>
+    <t>OK--the room was adequate, However--the first shock was that they required my wife's i.d. besides mine, and made photocopies of both. Then we get The Rules. All guests must be 21 except for military, and register at the desk.  Vehicles must park head in, with permit. "Non-registered visitors" (our granddaughter?) are not permitted on the property after 8 p.m. Doors must be closed at all times. Violations of these rules will result in eviction with no refund. And the person waiting on me had nothing to say but we need this. Another apparently senior person claimed all this was required by the city, but--it was really part of a voluntary program aimed at reducing crime from long-term "guests." Total bullroar, and an unpleasant experience. Oh yeah--they wanted to charge $2.99 for Wifi...MoreShow less</t>
+  </si>
+  <si>
+    <t>OK--the room was adequate, However--the first shock was that they required my wife's i.d. besides mine, and made photocopies of both. Then we get The Rules. All guests must be 21 except for military, and register at the desk.  Vehicles must park head in, with permit. "Non-registered visitors" (our granddaughter?) are not permitted on the property after 8 p.m. Doors must be closed at all times. Violations of these rules will result in eviction with no refund. And the person waiting on me had nothing to say but we need this. Another apparently senior person claimed all this was required by the city, but--it was really part of a voluntary program aimed at reducing crime from long-term "guests." Total bullroar, and an unpleasant experience. Oh yeah--they wanted to charge $2.99 for Wifi...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d240162-r401122448-Motel_6_Denver_West_Wheat_Ridge_North-Wheat_Ridge_Colorado.html</t>
+  </si>
+  <si>
+    <t>401122448</t>
+  </si>
+  <si>
+    <t>08/03/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No Hair Driers </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Motel is cheap. You can find better for $25 more w/ advance reservation. Try Days Inn in Golden. No hair driers in room. They have ONE at the front desk but you have to ask for it and pray someone else hasn't snagged it. Also, no shampoo to use to wash your wet hair that has no hair drier to dry it with. But hey, at least you're in CO where things dry fast! </t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d240162-r397120093-Motel_6_Denver_West_Wheat_Ridge_North-Wheat_Ridge_Colorado.html</t>
+  </si>
+  <si>
+    <t>397120093</t>
+  </si>
+  <si>
+    <t>07/25/2016</t>
+  </si>
+  <si>
+    <t>Could've been worse, but not likely</t>
+  </si>
+  <si>
+    <t>I'm in wheatridge Colorado and we're staying at one of your motels and the first room we checked into had blood or some substance on the air conditioner and the comforter also had it on there as well as the wall. We asked for a second room the floors were dirty, food was everywhere on the floor. It looks like mouse droppings behind table and bed. And when we were checking in a couple checked out 5 minutes after checking in because they said of they said the room was bug infested. And I thought I would just let you guys know. I find this unacceptable. Please get in contact with me. This is the message I left the corporate office.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>I'm in wheatridge Colorado and we're staying at one of your motels and the first room we checked into had blood or some substance on the air conditioner and the comforter also had it on there as well as the wall. We asked for a second room the floors were dirty, food was everywhere on the floor. It looks like mouse droppings behind table and bed. And when we were checking in a couple checked out 5 minutes after checking in because they said of they said the room was bug infested. And I thought I would just let you guys know. I find this unacceptable. Please get in contact with me. This is the message I left the corporate office.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d240162-r379526521-Motel_6_Denver_West_Wheat_Ridge_North-Wheat_Ridge_Colorado.html</t>
+  </si>
+  <si>
+    <t>379526521</t>
+  </si>
+  <si>
+    <t>06/03/2016</t>
+  </si>
+  <si>
+    <t>Motel s@%#</t>
+  </si>
+  <si>
+    <t>This is the worst motel that I have ever stayed in. There were fleas in the bed and stains on the sheets. The sink drain was broken, and the hot water was scarce. I get pet friendly hotels, but damn! Dogs barking all hours of the night! We stayed the first night of our trip only because we could not get a refund. Checked out the next morning and went across the way to the Comfort Inn. This should have been a 29.99 per night hotel...don't wast your time!</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d240162-r368006347-Motel_6_Denver_West_Wheat_Ridge_North-Wheat_Ridge_Colorado.html</t>
+  </si>
+  <si>
+    <t>368006347</t>
+  </si>
+  <si>
+    <t>04/26/2016</t>
+  </si>
+  <si>
+    <t>Very nice inexpensive and comfortable</t>
+  </si>
+  <si>
+    <t>We were surprised to read some of the ratings because we thought it was a very nice motel.  It was clean, comfortable and quiet -- what more can you ask?  Motel 6 is an economy motel but more than that, they let you bring your pet at no extra charge.   I think it's the best value of all.</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d240162-r356790646-Motel_6_Denver_West_Wheat_Ridge_North-Wheat_Ridge_Colorado.html</t>
+  </si>
+  <si>
+    <t>356790646</t>
+  </si>
+  <si>
+    <t>03/19/2016</t>
+  </si>
+  <si>
+    <t>Good location, nice staff, great price</t>
+  </si>
+  <si>
+    <t>We could tell immediately someone had been smoking in the room; this is obviously beyond the hotel's control as it was a no smoking room but it was so overwhelming we had to buy a candle that neutralised the smell of smoke and sit with the door open whenever possible. That said the hotel was in a really good location with a big Wholefoods on the corner and plenty of food places nearby. The staff were lovely, we stayed here for three nights and the rooms had obviously been recently refurbished. Good value for money and we would stay here again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d240162-r354091302-Motel_6_Denver_West_Wheat_Ridge_North-Wheat_Ridge_Colorado.html</t>
+  </si>
+  <si>
+    <t>354091302</t>
+  </si>
+  <si>
+    <t>03/09/2016</t>
+  </si>
+  <si>
+    <t>Just fine</t>
+  </si>
+  <si>
+    <t>Room was clean and reasonably quiet.  There is a Denny's right across the parking lot, which was convenient... and a convenience store across the street from that, and also a small supermarket across the street.  There is sort of a courtyard, so you can't park right in front of some rooms.  Overall, just fine.</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d240162-r317642721-Motel_6_Denver_West_Wheat_Ridge_North-Wheat_Ridge_Colorado.html</t>
+  </si>
+  <si>
+    <t>317642721</t>
+  </si>
+  <si>
+    <t>10/10/2015</t>
+  </si>
+  <si>
+    <t>Front desk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great night!  The ladies at the front desk where very friendly and helpful. I checked into my first room and it was wonderful except for bed, it didn't appear to be made. The bathroom was clean. So I went back to the front desk and spoke with the ladies, they were very understand they moved me to another room. I walked in the room and it was wounderful. I had wounderful stay Thank you!! </t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d240162-r314524562-Motel_6_Denver_West_Wheat_Ridge_North-Wheat_Ridge_Colorado.html</t>
+  </si>
+  <si>
+    <t>314524562</t>
+  </si>
+  <si>
+    <t>09/28/2015</t>
+  </si>
+  <si>
+    <t>Hot Room Cool Location</t>
+  </si>
+  <si>
+    <t>Hot room, in that when we were there it was hot and so was the room---no air conditioning.  Cool location in that it is on the west side of Denver just off of I-70 and convenient to everything.  Beds were good.</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d240162-r307058462-Motel_6_Denver_West_Wheat_Ridge_North-Wheat_Ridge_Colorado.html</t>
+  </si>
+  <si>
+    <t>307058462</t>
+  </si>
+  <si>
+    <t>09/04/2015</t>
+  </si>
+  <si>
+    <t>Irritated</t>
+  </si>
+  <si>
+    <t>This is the 3rd time I have written this. Anyway, motel 6 May have updated rooms, but the rate us too expensive for what you get. No late check out, no continental breakfast, no cartoon network. Disappointed</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d240162-r296316273-Motel_6_Denver_West_Wheat_Ridge_North-Wheat_Ridge_Colorado.html</t>
+  </si>
+  <si>
+    <t>296316273</t>
+  </si>
+  <si>
+    <t>08/06/2015</t>
+  </si>
+  <si>
+    <t>Never again-BAD, BAD, BAD.</t>
+  </si>
+  <si>
+    <t>Had my roommate book on line. She lives in TX &amp; I in TN. I cancelled mine since she had a 10% discount- WHICH I COULD HAVE ALSO GOTTEN being a senior (I didn't  know, nor is it offered on line). Got there, they had us on a 2nd floor. I'm handicapped, they put us in a room down stairs. No smoking smelled like smoke. Used the sink &amp; it would not drain. Told the front desk &amp; asked about the refrig &amp; micro which was not there. Told micro was in the local area. The room was warm &amp; I lowered the A/C. A young kid came to fix the sink, he turned the A/C up to 65 because " it would freeze up". Told him the room was hot. He left &amp; someone else came to fix the clog, with draino. He used a cleaner on the floor which was overwhelming. I tried to open the window &amp; it would not open. I went to the frt desk &amp; got a towel to reclean the floor. They sent someone to open the window. He had to return with a crowbar to pry it open. I had to help him. Meanwhile I turned on the lights. The one by the door did not work, the 2 by the bed, one did not have a bulb. I went to leave the room when the door handle came off &amp; I...Had my roommate book on line. She lives in TX &amp; I in TN. I cancelled mine since she had a 10% discount- WHICH I COULD HAVE ALSO GOTTEN being a senior (I didn't  know, nor is it offered on line). Got there, they had us on a 2nd floor. I'm handicapped, they put us in a room down stairs. No smoking smelled like smoke. Used the sink &amp; it would not drain. Told the front desk &amp; asked about the refrig &amp; micro which was not there. Told micro was in the local area. The room was warm &amp; I lowered the A/C. A young kid came to fix the sink, he turned the A/C up to 65 because " it would freeze up". Told him the room was hot. He left &amp; someone else came to fix the clog, with draino. He used a cleaner on the floor which was overwhelming. I tried to open the window &amp; it would not open. I went to the frt desk &amp; got a towel to reclean the floor. They sent someone to open the window. He had to return with a crowbar to pry it open. I had to help him. Meanwhile I turned on the lights. The one by the door did not work, the 2 by the bed, one did not have a bulb. I went to leave the room when the door handle came off &amp; I was locked it. They finally got the door open &amp; fixed. We were to be at a meeting by 5:30. It took over 3 hours of this fiasco which made us 1 hr late! Because the room would NOT COOL we had to use our personal fans to keep the air moving to make the room tolerable. The drain was missing in the tub. I found it attached to the shower curtain. Only 2 bars of soap. Nothing else.I did call headquarters &amp; they are providing a coupon for 2 night stays in the future to my room mate, NOT ME....I PAID THAT BILL. I got NOTHING. BAD BUSINESS, BAD MOTEL. I'm going to call the manager &amp; try again!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>6Team, brand expericened team member at Motel 6 Denver West Wheat Ridge-North, responded to this reviewResponded August 7, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 7, 2015</t>
+  </si>
+  <si>
+    <t>Had my roommate book on line. She lives in TX &amp; I in TN. I cancelled mine since she had a 10% discount- WHICH I COULD HAVE ALSO GOTTEN being a senior (I didn't  know, nor is it offered on line). Got there, they had us on a 2nd floor. I'm handicapped, they put us in a room down stairs. No smoking smelled like smoke. Used the sink &amp; it would not drain. Told the front desk &amp; asked about the refrig &amp; micro which was not there. Told micro was in the local area. The room was warm &amp; I lowered the A/C. A young kid came to fix the sink, he turned the A/C up to 65 because " it would freeze up". Told him the room was hot. He left &amp; someone else came to fix the clog, with draino. He used a cleaner on the floor which was overwhelming. I tried to open the window &amp; it would not open. I went to the frt desk &amp; got a towel to reclean the floor. They sent someone to open the window. He had to return with a crowbar to pry it open. I had to help him. Meanwhile I turned on the lights. The one by the door did not work, the 2 by the bed, one did not have a bulb. I went to leave the room when the door handle came off &amp; I...Had my roommate book on line. She lives in TX &amp; I in TN. I cancelled mine since she had a 10% discount- WHICH I COULD HAVE ALSO GOTTEN being a senior (I didn't  know, nor is it offered on line). Got there, they had us on a 2nd floor. I'm handicapped, they put us in a room down stairs. No smoking smelled like smoke. Used the sink &amp; it would not drain. Told the front desk &amp; asked about the refrig &amp; micro which was not there. Told micro was in the local area. The room was warm &amp; I lowered the A/C. A young kid came to fix the sink, he turned the A/C up to 65 because " it would freeze up". Told him the room was hot. He left &amp; someone else came to fix the clog, with draino. He used a cleaner on the floor which was overwhelming. I tried to open the window &amp; it would not open. I went to the frt desk &amp; got a towel to reclean the floor. They sent someone to open the window. He had to return with a crowbar to pry it open. I had to help him. Meanwhile I turned on the lights. The one by the door did not work, the 2 by the bed, one did not have a bulb. I went to leave the room when the door handle came off &amp; I was locked it. They finally got the door open &amp; fixed. We were to be at a meeting by 5:30. It took over 3 hours of this fiasco which made us 1 hr late! Because the room would NOT COOL we had to use our personal fans to keep the air moving to make the room tolerable. The drain was missing in the tub. I found it attached to the shower curtain. Only 2 bars of soap. Nothing else.I did call headquarters &amp; they are providing a coupon for 2 night stays in the future to my room mate, NOT ME....I PAID THAT BILL. I got NOTHING. BAD BUSINESS, BAD MOTEL. I'm going to call the manager &amp; try again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d240162-r293663012-Motel_6_Denver_West_Wheat_Ridge_North-Wheat_Ridge_Colorado.html</t>
+  </si>
+  <si>
+    <t>293663012</t>
+  </si>
+  <si>
+    <t>07/29/2015</t>
+  </si>
+  <si>
+    <t>Slept in an ashtray room for $86</t>
+  </si>
+  <si>
+    <t>Reserved online and told the motel we'd be a late arrival, and got put in a small, basic smoking room that smelled so bad from smokers. Asked for another room, but all their non-smoking rooms were taken. No shampoo in the room, only a little bar soap piece, and no clock. At $50 this might have been acceptable, but at $86 this was a horrible value and I woke up with a scratchy throat and smelling like I'd been in a bar with smokers all night. And it's right along I-70. You have to pay a surcharge for Internet access, and for a second person to stay in the room. NEVER AGAIN.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team member at Motel 6 Denver West Wheat Ridge-North, responded to this reviewResponded July 30, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 30, 2015</t>
+  </si>
+  <si>
+    <t>Reserved online and told the motel we'd be a late arrival, and got put in a small, basic smoking room that smelled so bad from smokers. Asked for another room, but all their non-smoking rooms were taken. No shampoo in the room, only a little bar soap piece, and no clock. At $50 this might have been acceptable, but at $86 this was a horrible value and I woke up with a scratchy throat and smelling like I'd been in a bar with smokers all night. And it's right along I-70. You have to pay a surcharge for Internet access, and for a second person to stay in the room. NEVER AGAIN.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d240162-r290695653-Motel_6_Denver_West_Wheat_Ridge_North-Wheat_Ridge_Colorado.html</t>
+  </si>
+  <si>
+    <t>290695653</t>
+  </si>
+  <si>
+    <t>07/20/2015</t>
+  </si>
+  <si>
+    <t>Basic Accomodations</t>
+  </si>
+  <si>
+    <t>Pros:location, clean, friendly check-in, food options near-byCons: parking is inconvenient to access, no carpeting, thin walls, wi-fi is available but not free.This motel is situated right on the interstate, so a room not facing the road is quieter.  I only recommend this motel to someone seeking a place to sleep, with nothing else.  Your can pay $30 more for better rooms several miles away, but for a cheap sleep this is what you get.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d240162-r273492232-Motel_6_Denver_West_Wheat_Ridge_North-Wheat_Ridge_Colorado.html</t>
+  </si>
+  <si>
+    <t>273492232</t>
+  </si>
+  <si>
+    <t>05/20/2015</t>
+  </si>
+  <si>
+    <t>road trip 2</t>
+  </si>
+  <si>
+    <t>Room was clean with hard surface flooring instead of carpet which I liked. However many cons.... No free Wi-Fi, breakfast, hairdryer, shampoo. Also bedding was old style and gray blanket made it appear old and dirty.</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d240162-r263132792-Motel_6_Denver_West_Wheat_Ridge_North-Wheat_Ridge_Colorado.html</t>
+  </si>
+  <si>
+    <t>263132792</t>
+  </si>
+  <si>
+    <t>04/01/2015</t>
+  </si>
+  <si>
+    <t>Updated and clean</t>
+  </si>
+  <si>
+    <t>The motel has been recently renovated and is clean, comfortable and economical.  It is close to I-70, making it convenient but it is a little too close and should be better soundproofed. I would not stay in the building closest to the highway.</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d240162-r254790237-Motel_6_Denver_West_Wheat_Ridge_North-Wheat_Ridge_Colorado.html</t>
+  </si>
+  <si>
+    <t>254790237</t>
+  </si>
+  <si>
+    <t>02/17/2015</t>
+  </si>
+  <si>
+    <t>Missing things</t>
+  </si>
+  <si>
+    <t>We realized when we got to our 2nd hotel that we had left our pillows and phone charger in our room when we had checked out. We were in a rush since we needed to get to a funeral. When we realized we had forgotten stuff we called the hotel and they told us to call back the next day. The next morning we had called back and they basically told us that there was nothing that they could do. My son is special needs and 2 months later is still asking me where his airplane pillow is and keeps asking if we can go back to Colorado to find it. Breaks my heart. To some housekeeper person that may have found it yea, its a great gift to a kid. But to my son it was so much more than just another pillow. I tried to find the same one online but sadly they must not make it anymore. Not only did that put a snag in our trip but, it broke my sons heart. Once in a lifetime trip ruined by some stranger.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>We realized when we got to our 2nd hotel that we had left our pillows and phone charger in our room when we had checked out. We were in a rush since we needed to get to a funeral. When we realized we had forgotten stuff we called the hotel and they told us to call back the next day. The next morning we had called back and they basically told us that there was nothing that they could do. My son is special needs and 2 months later is still asking me where his airplane pillow is and keeps asking if we can go back to Colorado to find it. Breaks my heart. To some housekeeper person that may have found it yea, its a great gift to a kid. But to my son it was so much more than just another pillow. I tried to find the same one online but sadly they must not make it anymore. Not only did that put a snag in our trip but, it broke my sons heart. Once in a lifetime trip ruined by some stranger.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d240162-r226303533-Motel_6_Denver_West_Wheat_Ridge_North-Wheat_Ridge_Colorado.html</t>
+  </si>
+  <si>
+    <t>226303533</t>
+  </si>
+  <si>
+    <t>09/02/2014</t>
+  </si>
+  <si>
+    <t>Best Motel 6 stayed in so far</t>
+  </si>
+  <si>
+    <t>Usually when we stay at a Motel 6, the bar is set pretty low, so we weren't expecting much when we checked in. The reception was friendly, free wifi with AARP discount, well lit parking. The room, though, is what had us very pleasantly surprised. It looked newly remodeled with hardwood floors, modern design,up to date bathroom fixtures and towel racks. We couldn't believe we were at a Motel 6. Even the bed was decent. A Dennys restaurant is right across the parking lot. I-70 is an exit away, making it convenient for our trip back home in the mountains. Only minor complaints were the curtains didn't block the light well, and hot water in the wash basin took a long time to heat up. Minor issues in what was an overall positive Motel  6 experience.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>Usually when we stay at a Motel 6, the bar is set pretty low, so we weren't expecting much when we checked in. The reception was friendly, free wifi with AARP discount, well lit parking. The room, though, is what had us very pleasantly surprised. It looked newly remodeled with hardwood floors, modern design,up to date bathroom fixtures and towel racks. We couldn't believe we were at a Motel 6. Even the bed was decent. A Dennys restaurant is right across the parking lot. I-70 is an exit away, making it convenient for our trip back home in the mountains. Only minor complaints were the curtains didn't block the light well, and hot water in the wash basin took a long time to heat up. Minor issues in what was an overall positive Motel  6 experience.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d240162-r224346125-Motel_6_Denver_West_Wheat_Ridge_North-Wheat_Ridge_Colorado.html</t>
+  </si>
+  <si>
+    <t>224346125</t>
+  </si>
+  <si>
+    <t>08/25/2014</t>
+  </si>
+  <si>
+    <t>For a bare bones, but safe and clean night</t>
+  </si>
+  <si>
+    <t>Good value.  Well lit parking lot. Quick check -in. I didn't pay extra for the internet, since it was a late check-in and I was leaving early.  I love the hard wood floors!  The room smelled clean, but not like chemicals or perfume.  Great location and no interstate noise for a quick stop-over.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d240162-r219585416-Motel_6_Denver_West_Wheat_Ridge_North-Wheat_Ridge_Colorado.html</t>
+  </si>
+  <si>
+    <t>219585416</t>
+  </si>
+  <si>
+    <t>08/04/2014</t>
+  </si>
+  <si>
+    <t>Probable theft.</t>
+  </si>
+  <si>
+    <t>Pro: the air conditioning worked.Con: my girlfriend left her iPhone on the bed, as the Find my iPhone app confirmed. We had just checked out but weren't allowed by the front desk to go into the room to check. The message was either not relayed to housekeeping or ignored because within an hour, the phone had been turned off (maybe made its way to laundry or pocketed), and the multiple times I checked in and inquired throughout the day before we left town, it was like it was everyone's first time hearing about it. I love Motel 6, but will never stay at one within 100 miles of this place again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Pro: the air conditioning worked.Con: my girlfriend left her iPhone on the bed, as the Find my iPhone app confirmed. We had just checked out but weren't allowed by the front desk to go into the room to check. The message was either not relayed to housekeeping or ignored because within an hour, the phone had been turned off (maybe made its way to laundry or pocketed), and the multiple times I checked in and inquired throughout the day before we left town, it was like it was everyone's first time hearing about it. I love Motel 6, but will never stay at one within 100 miles of this place again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d240162-r219247708-Motel_6_Denver_West_Wheat_Ridge_North-Wheat_Ridge_Colorado.html</t>
+  </si>
+  <si>
+    <t>219247708</t>
+  </si>
+  <si>
+    <t>08/03/2014</t>
+  </si>
+  <si>
+    <t>Its a Motel 6... Not the lap of Luxury</t>
+  </si>
+  <si>
+    <t>It is exactly what you would expect from a motel6. me and my friends were on a road trip and we stopped there for 2 nights. probably the best review any one can give to another traveler looking to stay here is: IF YOU DONT LIKE DOGS DONT STAY HERE! there was just an insane amount of dogs....</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d240162-r218070416-Motel_6_Denver_West_Wheat_Ridge_North-Wheat_Ridge_Colorado.html</t>
+  </si>
+  <si>
+    <t>218070416</t>
+  </si>
+  <si>
+    <t>07/28/2014</t>
+  </si>
+  <si>
+    <t>Very good location, clean motel</t>
+  </si>
+  <si>
+    <t>This motel 6 is well located...denny's next door, tons of restaurants within blocks, starbucks close, etc.  Just off the freeway.  Typical motel 6 otherwise...staff seems pretty good.   Seems like it has a very high occupancy.</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d240162-r217876294-Motel_6_Denver_West_Wheat_Ridge_North-Wheat_Ridge_Colorado.html</t>
+  </si>
+  <si>
+    <t>217876294</t>
+  </si>
+  <si>
+    <t>07/27/2014</t>
+  </si>
+  <si>
+    <t>Clean, small, nice staff</t>
+  </si>
+  <si>
+    <t>The rooms are outside. The room is on the small side. Front desk was very friendly and helpful on places to eat. Good location. Lots of choices to eat close by. Clean and comfortable room. Quiet during the night and felt our car was safe outside. Great value.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d240162-r212470668-Motel_6_Denver_West_Wheat_Ridge_North-Wheat_Ridge_Colorado.html</t>
+  </si>
+  <si>
+    <t>212470668</t>
+  </si>
+  <si>
+    <t>06/28/2014</t>
+  </si>
+  <si>
+    <t>Great Price for good sleep - once we got a room.</t>
+  </si>
+  <si>
+    <t>This hotel seems to have a zero tolerance for people to get a room before 3:00 p.m.  We arrived at the hotel around 1:30 and were told to come back at 3:00 when check in arrives.  We asked if by any chance any rooms would be ready before then, as we traveled long, did not sleep well, and had a dog to entertain.  Some hotels allow early check in, this one does not.  
+When we arrived back at 2:55, we were told once again that there were no rooms ready.  I let them know that I had been there earlier and was told that a room would be ready at 3:00.  She said "Okay" and started to check us in.  
+Once we got to a room, we were quite satisfied with the way that it looked.  The pillows were a bit flat for our taste, but we were able to sleep.  The air conditioner worked great, the shower had awesome water pressure, and the rooms looked more modern than other hotel rooms that are the same price.
+The wi-fi gave me some problems signing in.  I had purchased a code, but never got a page to let me sign in.  The technical support over the phone was phenomenal, but still, it was a step I wish I did not have to take.  I'm quite computer savvy and have never had to call to get signed in anywhere.  Once I was...This hotel seems to have a zero tolerance for people to get a room before 3:00 p.m.  We arrived at the hotel around 1:30 and were told to come back at 3:00 when check in arrives.  We asked if by any chance any rooms would be ready before then, as we traveled long, did not sleep well, and had a dog to entertain.  Some hotels allow early check in, this one does not.  When we arrived back at 2:55, we were told once again that there were no rooms ready.  I let them know that I had been there earlier and was told that a room would be ready at 3:00.  She said "Okay" and started to check us in.  Once we got to a room, we were quite satisfied with the way that it looked.  The pillows were a bit flat for our taste, but we were able to sleep.  The air conditioner worked great, the shower had awesome water pressure, and the rooms looked more modern than other hotel rooms that are the same price.The wi-fi gave me some problems signing in.  I had purchased a code, but never got a page to let me sign in.  The technical support over the phone was phenomenal, but still, it was a step I wish I did not have to take.  I'm quite computer savvy and have never had to call to get signed in anywhere.  Once I was able to browse the web, the wi-fi connection was quite slow and I had a difficult time finishing some of my work that is web based.If you just want a bed to sleep in, a shower to clean up in, and a comfortable night's rest; this is the place for you.  If you need to get online and browse the web, the connection is quite slow and was not productive at times.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>This hotel seems to have a zero tolerance for people to get a room before 3:00 p.m.  We arrived at the hotel around 1:30 and were told to come back at 3:00 when check in arrives.  We asked if by any chance any rooms would be ready before then, as we traveled long, did not sleep well, and had a dog to entertain.  Some hotels allow early check in, this one does not.  
+When we arrived back at 2:55, we were told once again that there were no rooms ready.  I let them know that I had been there earlier and was told that a room would be ready at 3:00.  She said "Okay" and started to check us in.  
+Once we got to a room, we were quite satisfied with the way that it looked.  The pillows were a bit flat for our taste, but we were able to sleep.  The air conditioner worked great, the shower had awesome water pressure, and the rooms looked more modern than other hotel rooms that are the same price.
+The wi-fi gave me some problems signing in.  I had purchased a code, but never got a page to let me sign in.  The technical support over the phone was phenomenal, but still, it was a step I wish I did not have to take.  I'm quite computer savvy and have never had to call to get signed in anywhere.  Once I was...This hotel seems to have a zero tolerance for people to get a room before 3:00 p.m.  We arrived at the hotel around 1:30 and were told to come back at 3:00 when check in arrives.  We asked if by any chance any rooms would be ready before then, as we traveled long, did not sleep well, and had a dog to entertain.  Some hotels allow early check in, this one does not.  When we arrived back at 2:55, we were told once again that there were no rooms ready.  I let them know that I had been there earlier and was told that a room would be ready at 3:00.  She said "Okay" and started to check us in.  Once we got to a room, we were quite satisfied with the way that it looked.  The pillows were a bit flat for our taste, but we were able to sleep.  The air conditioner worked great, the shower had awesome water pressure, and the rooms looked more modern than other hotel rooms that are the same price.The wi-fi gave me some problems signing in.  I had purchased a code, but never got a page to let me sign in.  The technical support over the phone was phenomenal, but still, it was a step I wish I did not have to take.  I'm quite computer savvy and have never had to call to get signed in anywhere.  Once I was able to browse the web, the wi-fi connection was quite slow and I had a difficult time finishing some of my work that is web based.If you just want a bed to sleep in, a shower to clean up in, and a comfortable night's rest; this is the place for you.  If you need to get online and browse the web, the connection is quite slow and was not productive at times.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d240162-r211932316-Motel_6_Denver_West_Wheat_Ridge_North-Wheat_Ridge_Colorado.html</t>
+  </si>
+  <si>
+    <t>211932316</t>
+  </si>
+  <si>
+    <t>06/24/2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Worst visit ever! </t>
+  </si>
+  <si>
+    <t>We were to stay at this motel for 3 nights.  June 18th-21st. We arrived on the 18th checked in no problem.  On night two the 19th at 12:30 am we come back to the room to find the bathroom flooded with what looked like pee. Went to the front desk to ask about the problem.  The clerk called the room above us and found out the had flooded their bathroom.  Then asked if I would like towels to clean it.  NO I don't want towels to clean it.  It's leaking from the vent so what good will it do to clean it.  The clerk then called the manager who I have no clue her name since she didn't have on a name tag or uniform. Came down to our room and before even looking at the room told us we needed to leave.  REALLY. I told her I wasn't leaving and she told me she was calling thE police.  I told her to go ahead and call them.  The police arrived and could not believe what was going on.  Never offered to move us to a new room or anything.  Then said she would refund the 19th and 20th so went to office to get refund and was then told that the room was booked through expedia and they would have to refund Expedia and Expedia would have to refund us.  She is a liar because the room WAS NOT...We were to stay at this motel for 3 nights.  June 18th-21st. We arrived on the 18th checked in no problem.  On night two the 19th at 12:30 am we come back to the room to find the bathroom flooded with what looked like pee. Went to the front desk to ask about the problem.  The clerk called the room above us and found out the had flooded their bathroom.  Then asked if I would like towels to clean it.  NO I don't want towels to clean it.  It's leaking from the vent so what good will it do to clean it.  The clerk then called the manager who I have no clue her name since she didn't have on a name tag or uniform. Came down to our room and before even looking at the room told us we needed to leave.  REALLY. I told her I wasn't leaving and she told me she was calling thE police.  I told her to go ahead and call them.  The police arrived and could not believe what was going on.  Never offered to move us to a new room or anything.  Then said she would refund the 19th and 20th so went to office to get refund and was then told that the room was booked through expedia and they would have to refund Expedia and Expedia would have to refund us.  She is a liar because the room WAS NOT booked through Expedia it was booked using hotels.com so here it is now around 2 am and we have no money and no where to go because these people didn't want to do their jobs.  I WILL NEVER AGAIN STAY AT A MOTEL 6. MoreShow less</t>
+  </si>
+  <si>
+    <t>We were to stay at this motel for 3 nights.  June 18th-21st. We arrived on the 18th checked in no problem.  On night two the 19th at 12:30 am we come back to the room to find the bathroom flooded with what looked like pee. Went to the front desk to ask about the problem.  The clerk called the room above us and found out the had flooded their bathroom.  Then asked if I would like towels to clean it.  NO I don't want towels to clean it.  It's leaking from the vent so what good will it do to clean it.  The clerk then called the manager who I have no clue her name since she didn't have on a name tag or uniform. Came down to our room and before even looking at the room told us we needed to leave.  REALLY. I told her I wasn't leaving and she told me she was calling thE police.  I told her to go ahead and call them.  The police arrived and could not believe what was going on.  Never offered to move us to a new room or anything.  Then said she would refund the 19th and 20th so went to office to get refund and was then told that the room was booked through expedia and they would have to refund Expedia and Expedia would have to refund us.  She is a liar because the room WAS NOT...We were to stay at this motel for 3 nights.  June 18th-21st. We arrived on the 18th checked in no problem.  On night two the 19th at 12:30 am we come back to the room to find the bathroom flooded with what looked like pee. Went to the front desk to ask about the problem.  The clerk called the room above us and found out the had flooded their bathroom.  Then asked if I would like towels to clean it.  NO I don't want towels to clean it.  It's leaking from the vent so what good will it do to clean it.  The clerk then called the manager who I have no clue her name since she didn't have on a name tag or uniform. Came down to our room and before even looking at the room told us we needed to leave.  REALLY. I told her I wasn't leaving and she told me she was calling thE police.  I told her to go ahead and call them.  The police arrived and could not believe what was going on.  Never offered to move us to a new room or anything.  Then said she would refund the 19th and 20th so went to office to get refund and was then told that the room was booked through expedia and they would have to refund Expedia and Expedia would have to refund us.  She is a liar because the room WAS NOT booked through Expedia it was booked using hotels.com so here it is now around 2 am and we have no money and no where to go because these people didn't want to do their jobs.  I WILL NEVER AGAIN STAY AT A MOTEL 6. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d240162-r211265312-Motel_6_Denver_West_Wheat_Ridge_North-Wheat_Ridge_Colorado.html</t>
+  </si>
+  <si>
+    <t>211265312</t>
+  </si>
+  <si>
+    <t>06/20/2014</t>
+  </si>
+  <si>
+    <t>HORRID !!</t>
+  </si>
+  <si>
+    <t>We have been staying at Motel 6 for  a long time now at different locations across the country because of the rates and for the most part decent and the staff has always been pleasant. But this location NEEDS to have a whole new staff !! Rude, talks down to guests, acts like they're better, charges change daily instead of only on weekends. The list goes on and on OH! Don't think about getting too much ice either because they monitor EVERYTHING and are also police loving callers. The manager is pathetic along with the rest of the front desk crew, they all need a lesson in customer service and GOOD business ethics. I don't for see this location being open much longer with these people running it to the ground. Lastly if your internet doesn't work it's NOT my job as a paying guest to call tech support it's the damn managements job !!! We're on business here when we are done with our long day the last thing we want to have to deal with is fussing with tech support...DO YOUR JOB PEOPLE OR GET OUT OF THE KITCHEN !!MoreShow less</t>
+  </si>
+  <si>
+    <t>We have been staying at Motel 6 for  a long time now at different locations across the country because of the rates and for the most part decent and the staff has always been pleasant. But this location NEEDS to have a whole new staff !! Rude, talks down to guests, acts like they're better, charges change daily instead of only on weekends. The list goes on and on OH! Don't think about getting too much ice either because they monitor EVERYTHING and are also police loving callers. The manager is pathetic along with the rest of the front desk crew, they all need a lesson in customer service and GOOD business ethics. I don't for see this location being open much longer with these people running it to the ground. Lastly if your internet doesn't work it's NOT my job as a paying guest to call tech support it's the damn managements job !!! We're on business here when we are done with our long day the last thing we want to have to deal with is fussing with tech support...DO YOUR JOB PEOPLE OR GET OUT OF THE KITCHEN !!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d240162-r185613767-Motel_6_Denver_West_Wheat_Ridge_North-Wheat_Ridge_Colorado.html</t>
+  </si>
+  <si>
+    <t>185613767</t>
+  </si>
+  <si>
+    <t>11/23/2013</t>
+  </si>
+  <si>
+    <t>Stay during a storm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My last night on the road and decided to stop early due to a snow storm. Motel 6 was right off the freeway with a Denny's next door. They provided a nice small room - it fit my needs for a great price. It was quiet, had a table and chair also. The desk staff were nice, the bed was comfortable, room very clean. A good place to stay and wait out the storm. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d240162-r181941211-Motel_6_Denver_West_Wheat_Ridge_North-Wheat_Ridge_Colorado.html</t>
+  </si>
+  <si>
+    <t>181941211</t>
+  </si>
+  <si>
+    <t>10/22/2013</t>
+  </si>
+  <si>
+    <t>Such a Deal</t>
+  </si>
+  <si>
+    <t>I got more than I paid for, and I did NOT pay much. Convenient location, right at the exit off I-70. Denny's and Starbucks both adjacent, and lots of shopping nearby. Very clean, very basic room. Very pleasant and helpful desk staff. Not only would I stay here again, I would recommend it to family and friends.</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d240162-r178440852-Motel_6_Denver_West_Wheat_Ridge_North-Wheat_Ridge_Colorado.html</t>
+  </si>
+  <si>
+    <t>178440852</t>
+  </si>
+  <si>
+    <t>09/24/2013</t>
+  </si>
+  <si>
+    <t>Great value</t>
+  </si>
+  <si>
+    <t>Denver has instituted a crime stopping program that seems to be working.  We neither saw nor heard any annoying behavior.  Room was adequate size and very clean.  I appreciate their eco request, which is new sheets every three days instead of each day for long term visitors.We stayed eight days.  Used the ashtrays for pocket change and keys and telephones, but wished they were not there.  Smokers outside rooms under non-smoker A/C units was annoying.Everyone who worked the desk was polite and professional with us.  I think a cat had been in our room, which means the pet policy was a problem for my allergies.  Overall an excellent experience for sleeping room only for us, and certainly the best value for our moneyMoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>Denver has instituted a crime stopping program that seems to be working.  We neither saw nor heard any annoying behavior.  Room was adequate size and very clean.  I appreciate their eco request, which is new sheets every three days instead of each day for long term visitors.We stayed eight days.  Used the ashtrays for pocket change and keys and telephones, but wished they were not there.  Smokers outside rooms under non-smoker A/C units was annoying.Everyone who worked the desk was polite and professional with us.  I think a cat had been in our room, which means the pet policy was a problem for my allergies.  Overall an excellent experience for sleeping room only for us, and certainly the best value for our moneyMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d240162-r166814147-Motel_6_Denver_West_Wheat_Ridge_North-Wheat_Ridge_Colorado.html</t>
+  </si>
+  <si>
+    <t>166814147</t>
+  </si>
+  <si>
+    <t>07/08/2013</t>
+  </si>
+  <si>
+    <t>Weird but Comfortable.</t>
+  </si>
+  <si>
+    <t>I called to see if there were any rooms available 15 minutes before I got there, A lady answered the phone and said they had rooms available. When I got there the man at the front desk said they had no open rooms but if we wanted to wait 30 mins for housekeeping one would be ready. It was 7:30 at night and there were no housekeepers in sight. We waited on the grass in the "courtyard" and when we checked back 20 mins later we were checked into a room we had been sitting in front of which no housekeeper had been in and out of? Weird. And a waste of time. I ended up being very ill, the bathroom floor which I had to lay on to keep from fainting was clean as well as the bathtub, the bathroom was very tiny. The bedding was comfortable and soft with no tacky comforter. The flooring was the fake wood. Overall the room was recently updated which was nice. In the morning there was a starbucks close-by as well as an off leash dog park for our pup.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>I called to see if there were any rooms available 15 minutes before I got there, A lady answered the phone and said they had rooms available. When I got there the man at the front desk said they had no open rooms but if we wanted to wait 30 mins for housekeeping one would be ready. It was 7:30 at night and there were no housekeepers in sight. We waited on the grass in the "courtyard" and when we checked back 20 mins later we were checked into a room we had been sitting in front of which no housekeeper had been in and out of? Weird. And a waste of time. I ended up being very ill, the bathroom floor which I had to lay on to keep from fainting was clean as well as the bathtub, the bathroom was very tiny. The bedding was comfortable and soft with no tacky comforter. The flooring was the fake wood. Overall the room was recently updated which was nice. In the morning there was a starbucks close-by as well as an off leash dog park for our pup.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d240162-r165501360-Motel_6_Denver_West_Wheat_Ridge_North-Wheat_Ridge_Colorado.html</t>
+  </si>
+  <si>
+    <t>165501360</t>
+  </si>
+  <si>
+    <t>06/27/2013</t>
+  </si>
+  <si>
+    <t>would not stay here again</t>
+  </si>
+  <si>
+    <t>I was very disappointed with this hotel. We checked in late because we had just drove in. The front desk person was not very friendly and then when we got to our room it was very small and crowded. Our feet hung off the beds and we are not very tall people. When we took a shower we were in about 5 minutes and the hot water ran out. Also one of the beds had hairs on the sheets and so did the toilet and some of the towels. It was a cheap place to stay if you need to save money but I wouldn't recommend it.</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d240162-r164960763-Motel_6_Denver_West_Wheat_Ridge_North-Wheat_Ridge_Colorado.html</t>
+  </si>
+  <si>
+    <t>164960763</t>
+  </si>
+  <si>
+    <t>06/23/2013</t>
+  </si>
+  <si>
+    <t>Nothing special</t>
+  </si>
+  <si>
+    <t>The motel was clean and updated. The dog walk area was dangerous. It was an area full of weeds, broken glass and cans with sharp edges everywhere. We wouldn't stop again if we had our dog with us. The staff was friendly.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d240162-r152527593-Motel_6_Denver_West_Wheat_Ridge_North-Wheat_Ridge_Colorado.html</t>
+  </si>
+  <si>
+    <t>152527593</t>
+  </si>
+  <si>
+    <t>02/19/2013</t>
+  </si>
+  <si>
+    <t>Very nice motel and staff great value good location.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I stayed here for a week last summer. Great location. Front desk staff always friendly anderson helpful. Good food close by. Nice newer rooms. Pet friendly. Quiet. Safe. Patrolled regularly by local police. I had no problems whatsoever and will stay here again. Gladly. This is what good lodging is all about. Thank you.  </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d240162-r147872732-Motel_6_Denver_West_Wheat_Ridge_North-Wheat_Ridge_Colorado.html</t>
+  </si>
+  <si>
+    <t>147872732</t>
+  </si>
+  <si>
+    <t>12/21/2012</t>
+  </si>
+  <si>
+    <t>Great value, clean &amp; updated - but no cell phone reception.</t>
+  </si>
+  <si>
+    <t>We're traveling with our dog, and the Motel 6 chain is very dog friendly.  This location has been recently updated, and the design and use of space is wonderful.  It's very clean, but basic and no-frills.We felt very safe here, the staff was friendly &amp; accommodating, and the location was great - easy access to downtown Denver, right off of I70 for trips to the mountains, and catty-corner to a Super-Target for everything we needed. The only issue we had was the lack of cell reception in the room, that would make me think twice about staying again because we were basically unreachable and had to run outside with the phone to take calls.MoreShow less</t>
+  </si>
+  <si>
+    <t>We're traveling with our dog, and the Motel 6 chain is very dog friendly.  This location has been recently updated, and the design and use of space is wonderful.  It's very clean, but basic and no-frills.We felt very safe here, the staff was friendly &amp; accommodating, and the location was great - easy access to downtown Denver, right off of I70 for trips to the mountains, and catty-corner to a Super-Target for everything we needed. The only issue we had was the lack of cell reception in the room, that would make me think twice about staying again because we were basically unreachable and had to run outside with the phone to take calls.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d240162-r145198774-Motel_6_Denver_West_Wheat_Ridge_North-Wheat_Ridge_Colorado.html</t>
+  </si>
+  <si>
+    <t>145198774</t>
+  </si>
+  <si>
+    <t>11/11/2012</t>
+  </si>
+  <si>
+    <t>Great Remodel job!</t>
+  </si>
+  <si>
+    <t>Every room was remodeled recently, The rooms are kinda small, but everything is in great shape!  2 HBO channelsNice laundry mat!The area is a bit seedy, but not bad!Tv's are small, but newer. Hard laminate floors instead of carpet?  I guess it is easier on them.</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d240162-r137302008-Motel_6_Denver_West_Wheat_Ridge_North-Wheat_Ridge_Colorado.html</t>
+  </si>
+  <si>
+    <t>137302008</t>
+  </si>
+  <si>
+    <t>08/15/2012</t>
+  </si>
+  <si>
+    <t>Comfortable and Clean</t>
+  </si>
+  <si>
+    <t>At around $50 a night, this hotel is an excellent value. Our room was newly remodeled and for a few dollars more we had a mini fridge and microwave. This is a great hotel if you are just looking for a quiet comfortable place to stay. We were here for 3 nights and have no complaints. The staff was friendly, everything was kept clean. We chose it because of the location. It is right off of I-70, but we didn't notice any noise. Red Rocks and Golden are a short and easy drive from here. There are plenty of restaurants and gas stations nearby. If you have time, stop by Old Town Arvada. It's a great little neighborhood with good restaurants, shops, and a great small brewery. A nice place to hang out and have dinner and very easy to get to from the hotel. We will definitely stay here again on our next trip. This hotel had exactly what we needed and the price was great. Keep in mind you get what you pay for. There is no "continental breakfast" (which typically suck at most hotels in this price range), no alarm clock , no shampoo, no pool, wifi  is an additional charge and pets are additional.  The rooms do not come with coffee makers or hair dryers. There is free coffee in the lobby.  I may start  staying at other Motel 6's after this trip. The new remodeled...At around $50 a night, this hotel is an excellent value. Our room was newly remodeled and for a few dollars more we had a mini fridge and microwave. This is a great hotel if you are just looking for a quiet comfortable place to stay. We were here for 3 nights and have no complaints. The staff was friendly, everything was kept clean. We chose it because of the location. It is right off of I-70, but we didn't notice any noise. Red Rocks and Golden are a short and easy drive from here. There are plenty of restaurants and gas stations nearby. If you have time, stop by Old Town Arvada. It's a great little neighborhood with good restaurants, shops, and a great small brewery. A nice place to hang out and have dinner and very easy to get to from the hotel. We will definitely stay here again on our next trip. This hotel had exactly what we needed and the price was great. Keep in mind you get what you pay for. There is no "continental breakfast" (which typically suck at most hotels in this price range), no alarm clock , no shampoo, no pool, wifi  is an additional charge and pets are additional.  The rooms do not come with coffee makers or hair dryers. There is free coffee in the lobby.  I may start  staying at other Motel 6's after this trip. The new remodeled rooms are a huge plus and I don't need all that extra crap.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>At around $50 a night, this hotel is an excellent value. Our room was newly remodeled and for a few dollars more we had a mini fridge and microwave. This is a great hotel if you are just looking for a quiet comfortable place to stay. We were here for 3 nights and have no complaints. The staff was friendly, everything was kept clean. We chose it because of the location. It is right off of I-70, but we didn't notice any noise. Red Rocks and Golden are a short and easy drive from here. There are plenty of restaurants and gas stations nearby. If you have time, stop by Old Town Arvada. It's a great little neighborhood with good restaurants, shops, and a great small brewery. A nice place to hang out and have dinner and very easy to get to from the hotel. We will definitely stay here again on our next trip. This hotel had exactly what we needed and the price was great. Keep in mind you get what you pay for. There is no "continental breakfast" (which typically suck at most hotels in this price range), no alarm clock , no shampoo, no pool, wifi  is an additional charge and pets are additional.  The rooms do not come with coffee makers or hair dryers. There is free coffee in the lobby.  I may start  staying at other Motel 6's after this trip. The new remodeled...At around $50 a night, this hotel is an excellent value. Our room was newly remodeled and for a few dollars more we had a mini fridge and microwave. This is a great hotel if you are just looking for a quiet comfortable place to stay. We were here for 3 nights and have no complaints. The staff was friendly, everything was kept clean. We chose it because of the location. It is right off of I-70, but we didn't notice any noise. Red Rocks and Golden are a short and easy drive from here. There are plenty of restaurants and gas stations nearby. If you have time, stop by Old Town Arvada. It's a great little neighborhood with good restaurants, shops, and a great small brewery. A nice place to hang out and have dinner and very easy to get to from the hotel. We will definitely stay here again on our next trip. This hotel had exactly what we needed and the price was great. Keep in mind you get what you pay for. There is no "continental breakfast" (which typically suck at most hotels in this price range), no alarm clock , no shampoo, no pool, wifi  is an additional charge and pets are additional.  The rooms do not come with coffee makers or hair dryers. There is free coffee in the lobby.  I may start  staying at other Motel 6's after this trip. The new remodeled rooms are a huge plus and I don't need all that extra crap.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d240162-r135467429-Motel_6_Denver_West_Wheat_Ridge_North-Wheat_Ridge_Colorado.html</t>
+  </si>
+  <si>
+    <t>135467429</t>
+  </si>
+  <si>
+    <t>07/26/2012</t>
+  </si>
+  <si>
+    <t>Good 6</t>
+  </si>
+  <si>
+    <t>This Motel 6 has been remodeled, and gives a good basic room.  The new decor reminds me of a tidy dorm room, minus the required studying. The room was clean, bed new and desk clerk friendly.  Denny's is across the parking lot and was handy for dinner after a long drive.</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d240162-r134370995-Motel_6_Denver_West_Wheat_Ridge_North-Wheat_Ridge_Colorado.html</t>
+  </si>
+  <si>
+    <t>134370995</t>
+  </si>
+  <si>
+    <t>07/14/2012</t>
+  </si>
+  <si>
+    <t>Wonderful Stay..</t>
+  </si>
+  <si>
+    <t>Pulled into Motel 6 and there is a Denny's next door for supper and breakfast, convenient for travelers. Girl at counter very helpful with our stay - I had to ask for change alot do to washing clothes (had more than I thought) and she was always polite and cheerful toward me and others in the check-in area. Noticed camera at counter showing wash area and it made me feel safer knowing someone could see if I had trouble. Rooms recently remodeled and very clean. We would be glad to stay again when we go through that area.</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d240162-r85039874-Motel_6_Denver_West_Wheat_Ridge_North-Wheat_Ridge_Colorado.html</t>
+  </si>
+  <si>
+    <t>85039874</t>
+  </si>
+  <si>
+    <t>10/27/2010</t>
+  </si>
+  <si>
+    <t>Horrifying...</t>
+  </si>
+  <si>
+    <t>Me and my fiance stayed here on our way from Iowa to Vegas as a means of saving money. What a huge mistake that was! I don't even know if I should be qualified to write a report about this place because we were only here an hour. The place is disgusting. We got the last room (how this place fills up I don't know) and it was a smoking room. Of course, it smelled like smoke but it was also covered in bugs. The kind of bugs that crawl on and off of people's bodies. I showered there, unfortunately, before realizing how hellish this place was. Our room had a view of the Denny's across the street and the couple that was groping each other and getting to third base in front of the Denny's across the street, which was wonderful also. The only nice thing I can say about this hotel is getting our money back was easy. The two young (looked too young to be working at a seedy hotel) ladies working there were very nice and apologetic, which is sad, because the nature of this place probably isn't their fault. This place is so bad that in the months since, I have completely avoided other, more inviting Motel 6's, as I am completely turned off by the whole franchise.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2010</t>
+  </si>
+  <si>
+    <t>Me and my fiance stayed here on our way from Iowa to Vegas as a means of saving money. What a huge mistake that was! I don't even know if I should be qualified to write a report about this place because we were only here an hour. The place is disgusting. We got the last room (how this place fills up I don't know) and it was a smoking room. Of course, it smelled like smoke but it was also covered in bugs. The kind of bugs that crawl on and off of people's bodies. I showered there, unfortunately, before realizing how hellish this place was. Our room had a view of the Denny's across the street and the couple that was groping each other and getting to third base in front of the Denny's across the street, which was wonderful also. The only nice thing I can say about this hotel is getting our money back was easy. The two young (looked too young to be working at a seedy hotel) ladies working there were very nice and apologetic, which is sad, because the nature of this place probably isn't their fault. This place is so bad that in the months since, I have completely avoided other, more inviting Motel 6's, as I am completely turned off by the whole franchise.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d240162-r83186590-Motel_6_Denver_West_Wheat_Ridge_North-Wheat_Ridge_Colorado.html</t>
+  </si>
+  <si>
+    <t>83186590</t>
+  </si>
+  <si>
+    <t>10/12/2010</t>
+  </si>
+  <si>
+    <t>DIRTIEST MOTEL IVE EVER STAYED IN!</t>
+  </si>
+  <si>
+    <t>This motel was horrible!!! Our NO SMOKING room ranked of smoke!! It smelled like a dirty gym sock! There was dirt between the bed and night stand! the beds were hard as a rock! I guess you get what you pay for!  We forgot something in our room. Took them 2 days to call us back! Will NEVER stay there again!</t>
+  </si>
+  <si>
+    <t>October 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d240162-r20358254-Motel_6_Denver_West_Wheat_Ridge_North-Wheat_Ridge_Colorado.html</t>
+  </si>
+  <si>
+    <t>20358254</t>
+  </si>
+  <si>
+    <t>09/24/2008</t>
+  </si>
+  <si>
+    <t>Worst night of our vacation.</t>
+  </si>
+  <si>
+    <t>This is an awful motel. We found a used hypodermic needle in our room and the desk clerk wasn't concerned. People were living in the motel and going from room to room all night long and banging on the walls at 2,3,4:00 in the morning. Calling the office didn't help. Some motel 6's are still nice, but this isn't one of them.</t>
+  </si>
+  <si>
+    <t>September 2008</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d240162-r4415811-Motel_6_Denver_West_Wheat_Ridge_North-Wheat_Ridge_Colorado.html</t>
+  </si>
+  <si>
+    <t>4415811</t>
+  </si>
+  <si>
+    <t>02/04/2006</t>
+  </si>
+  <si>
+    <t>Good Value; Convenient Location</t>
+  </si>
+  <si>
+    <t>If  price is a primary concern, then this Motel 6 might be a good choice.     I had a room with two comfortable double beds.    Each was pressed up against a wall, and there was a nightstand between them.    The room also had a long piece of furniture which was tv stand/desk/dresser.    It had shelves rather than drawers.    The furniture in the room was attractive and well matched.
+The bathroom was a reasonable size and had a small tub.    Water pressure was just OK in the shower (probably to save money), but the water temperature was consistent.  Everything in the room worked fine.  The staff at the front desk was nice and helpful.      
+The location is convenient, right off I70.    There’s a new Super Target directly across the street and there are some inexpensive restaurants close-by (Denny’s, Qudoba, Einstein Brothers).    New China Restaurant delivers for free (orders of $10 or more) to the motel.    The food arrived hot and was very good.
+The soundproofing at the Motel 6 isn’t the best.   I could sometimes hear the TV in the room next to mine.   But, there was no traffic noise.
+One thing to be aware of – there are two Motel 6’s in Wheat Ridge, and they’re both right off Kipling.     Motel 6 calls this location “Wheat Ridge NORTH,” and it’s on W. 49th Ave.     I’ve stayed at the other Motel 6, and there’s a world of difference between them.   In my...If  price is a primary concern, then this Motel 6 might be a good choice.     I had a room with two comfortable double beds.    Each was pressed up against a wall, and there was a nightstand between them.    The room also had a long piece of furniture which was tv stand/desk/dresser.    It had shelves rather than drawers.    The furniture in the room was attractive and well matched.The bathroom was a reasonable size and had a small tub.    Water pressure was just OK in the shower (probably to save money), but the water temperature was consistent.  Everything in the room worked fine.  The staff at the front desk was nice and helpful.      The location is convenient, right off I70.    There’s a new Super Target directly across the street and there are some inexpensive restaurants close-by (Denny’s, Qudoba, Einstein Brothers).    New China Restaurant delivers for free (orders of $10 or more) to the motel.    The food arrived hot and was very good.The soundproofing at the Motel 6 isn’t the best.   I could sometimes hear the TV in the room next to mine.   But, there was no traffic noise.One thing to be aware of – there are two Motel 6’s in Wheat Ridge, and they’re both right off Kipling.     Motel 6 calls this location “Wheat Ridge NORTH,” and it’s on W. 49th Ave.     I’ve stayed at the other Motel 6, and there’s a world of difference between them.   In my experience, the Wheat Ridge North Motel 6 is MUCH better than the south one.MoreShow less</t>
+  </si>
+  <si>
+    <t>If  price is a primary concern, then this Motel 6 might be a good choice.     I had a room with two comfortable double beds.    Each was pressed up against a wall, and there was a nightstand between them.    The room also had a long piece of furniture which was tv stand/desk/dresser.    It had shelves rather than drawers.    The furniture in the room was attractive and well matched.
+The bathroom was a reasonable size and had a small tub.    Water pressure was just OK in the shower (probably to save money), but the water temperature was consistent.  Everything in the room worked fine.  The staff at the front desk was nice and helpful.      
+The location is convenient, right off I70.    There’s a new Super Target directly across the street and there are some inexpensive restaurants close-by (Denny’s, Qudoba, Einstein Brothers).    New China Restaurant delivers for free (orders of $10 or more) to the motel.    The food arrived hot and was very good.
+The soundproofing at the Motel 6 isn’t the best.   I could sometimes hear the TV in the room next to mine.   But, there was no traffic noise.
+One thing to be aware of – there are two Motel 6’s in Wheat Ridge, and they’re both right off Kipling.     Motel 6 calls this location “Wheat Ridge NORTH,” and it’s on W. 49th Ave.     I’ve stayed at the other Motel 6, and there’s a world of difference between them.   In my...If  price is a primary concern, then this Motel 6 might be a good choice.     I had a room with two comfortable double beds.    Each was pressed up against a wall, and there was a nightstand between them.    The room also had a long piece of furniture which was tv stand/desk/dresser.    It had shelves rather than drawers.    The furniture in the room was attractive and well matched.The bathroom was a reasonable size and had a small tub.    Water pressure was just OK in the shower (probably to save money), but the water temperature was consistent.  Everything in the room worked fine.  The staff at the front desk was nice and helpful.      The location is convenient, right off I70.    There’s a new Super Target directly across the street and there are some inexpensive restaurants close-by (Denny’s, Qudoba, Einstein Brothers).    New China Restaurant delivers for free (orders of $10 or more) to the motel.    The food arrived hot and was very good.The soundproofing at the Motel 6 isn’t the best.   I could sometimes hear the TV in the room next to mine.   But, there was no traffic noise.One thing to be aware of – there are two Motel 6’s in Wheat Ridge, and they’re both right off Kipling.     Motel 6 calls this location “Wheat Ridge NORTH,” and it’s on W. 49th Ave.     I’ve stayed at the other Motel 6, and there’s a world of difference between them.   In my experience, the Wheat Ridge North Motel 6 is MUCH better than the south one.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d240162-r3517410-Motel_6_Denver_West_Wheat_Ridge_North-Wheat_Ridge_Colorado.html</t>
+  </si>
+  <si>
+    <t>3517410</t>
+  </si>
+  <si>
+    <t>05/31/2005</t>
+  </si>
+  <si>
+    <t>Awful Experience!</t>
+  </si>
+  <si>
+    <t>I don't expect much of a Motel 6!     But, this Motel was AWFUL!      The air conditioning didn't work.   The front desk claimed that I just needed to "give it time."    But, it NEVER worked.   I had friends staying in several other rooms, and their air conditioning didn't work either.     This is one LOUD place, especially when you have to open the windows - traffic noise &amp; people noise.    (If it had just been me, I would have moved to another hotel for the 2'nd night!)
+The rooms were never cleaned.    Trash cans were not emptied.   The beds in most rooms were not made.    In one room, the beds weren't made because someone had brought their own pillow.   (There was a printed note on the bed which stated that the bed can't be made with personal belongings on it.)   In another room, my friend's eyeglass case had been placed on her bed and the note put there!   She's certain she left the case on the nightstand and that the maid moved it to the bed so she'd have an excuse for not making it.     
+The shower was incredibly smaller - significantly smaller than the showers on cruise ships.     That's not a complaint, just an observation.    The keys to all rooms were deactivated on the 2'nd day, and we all had to wait in line at the front desk to have them reactivated.      Motel staff never apologized for the messy rooms, air...I don't expect much of a Motel 6!     But, this Motel was AWFUL!      The air conditioning didn't work.   The front desk claimed that I just needed to "give it time."    But, it NEVER worked.   I had friends staying in several other rooms, and their air conditioning didn't work either.     This is one LOUD place, especially when you have to open the windows - traffic noise &amp; people noise.    (If it had just been me, I would have moved to another hotel for the 2'nd night!)The rooms were never cleaned.    Trash cans were not emptied.   The beds in most rooms were not made.    In one room, the beds weren't made because someone had brought their own pillow.   (There was a printed note on the bed which stated that the bed can't be made with personal belongings on it.)   In another room, my friend's eyeglass case had been placed on her bed and the note put there!   She's certain she left the case on the nightstand and that the maid moved it to the bed so she'd have an excuse for not making it.     The shower was incredibly smaller - significantly smaller than the showers on cruise ships.     That's not a complaint, just an observation.    The keys to all rooms were deactivated on the 2'nd day, and we all had to wait in line at the front desk to have them reactivated.      Motel staff never apologized for the messy rooms, air conditioning, or room key deactivation.     I'm returning to Wheat Ridge this weekend, and won't be staying at this Motel 6 again!MoreShow less</t>
+  </si>
+  <si>
+    <t>I don't expect much of a Motel 6!     But, this Motel was AWFUL!      The air conditioning didn't work.   The front desk claimed that I just needed to "give it time."    But, it NEVER worked.   I had friends staying in several other rooms, and their air conditioning didn't work either.     This is one LOUD place, especially when you have to open the windows - traffic noise &amp; people noise.    (If it had just been me, I would have moved to another hotel for the 2'nd night!)
+The rooms were never cleaned.    Trash cans were not emptied.   The beds in most rooms were not made.    In one room, the beds weren't made because someone had brought their own pillow.   (There was a printed note on the bed which stated that the bed can't be made with personal belongings on it.)   In another room, my friend's eyeglass case had been placed on her bed and the note put there!   She's certain she left the case on the nightstand and that the maid moved it to the bed so she'd have an excuse for not making it.     
+The shower was incredibly smaller - significantly smaller than the showers on cruise ships.     That's not a complaint, just an observation.    The keys to all rooms were deactivated on the 2'nd day, and we all had to wait in line at the front desk to have them reactivated.      Motel staff never apologized for the messy rooms, air...I don't expect much of a Motel 6!     But, this Motel was AWFUL!      The air conditioning didn't work.   The front desk claimed that I just needed to "give it time."    But, it NEVER worked.   I had friends staying in several other rooms, and their air conditioning didn't work either.     This is one LOUD place, especially when you have to open the windows - traffic noise &amp; people noise.    (If it had just been me, I would have moved to another hotel for the 2'nd night!)The rooms were never cleaned.    Trash cans were not emptied.   The beds in most rooms were not made.    In one room, the beds weren't made because someone had brought their own pillow.   (There was a printed note on the bed which stated that the bed can't be made with personal belongings on it.)   In another room, my friend's eyeglass case had been placed on her bed and the note put there!   She's certain she left the case on the nightstand and that the maid moved it to the bed so she'd have an excuse for not making it.     The shower was incredibly smaller - significantly smaller than the showers on cruise ships.     That's not a complaint, just an observation.    The keys to all rooms were deactivated on the 2'nd day, and we all had to wait in line at the front desk to have them reactivated.      Motel staff never apologized for the messy rooms, air conditioning, or room key deactivation.     I'm returning to Wheat Ridge this weekend, and won't be staying at this Motel 6 again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d240162-r3396396-Motel_6_Denver_West_Wheat_Ridge_North-Wheat_Ridge_Colorado.html</t>
+  </si>
+  <si>
+    <t>3396396</t>
+  </si>
+  <si>
+    <t>04/20/2005</t>
+  </si>
+  <si>
+    <t>Good value for the price</t>
+  </si>
+  <si>
+    <t>We stayed here for three nights.  The room was clean and the people were helpful. The bath has just a shower. The bed was in good shape. The TV was fine. All in all it was a good vale for the price.</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1507,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1539,3236 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>11169</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="n">
+        <v>3</v>
+      </c>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>3</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>11169</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="n">
+        <v>4</v>
+      </c>
+      <c r="S3" t="n">
+        <v>5</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>3</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>11169</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N4" t="s">
+        <v>65</v>
+      </c>
+      <c r="O4" t="s">
+        <v>66</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="n">
+        <v>4</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>3</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>11169</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L5" t="s">
+        <v>71</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s"/>
+      <c r="O5" t="s"/>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>11169</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" t="s">
+        <v>74</v>
+      </c>
+      <c r="K6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L6" t="s">
+        <v>76</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>77</v>
+      </c>
+      <c r="O6" t="s">
+        <v>78</v>
+      </c>
+      <c r="P6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>11169</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>80</v>
+      </c>
+      <c r="J7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>84</v>
+      </c>
+      <c r="O7" t="s">
+        <v>78</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>11169</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>85</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>86</v>
+      </c>
+      <c r="J8" t="s">
+        <v>87</v>
+      </c>
+      <c r="K8" t="s">
+        <v>88</v>
+      </c>
+      <c r="L8" t="s">
+        <v>89</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>84</v>
+      </c>
+      <c r="O8" t="s">
+        <v>66</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>11169</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>90</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>91</v>
+      </c>
+      <c r="J9" t="s">
+        <v>92</v>
+      </c>
+      <c r="K9" t="s">
+        <v>93</v>
+      </c>
+      <c r="L9" t="s">
+        <v>94</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>77</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="n">
+        <v>5</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>11169</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>95</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>96</v>
+      </c>
+      <c r="J10" t="s">
+        <v>97</v>
+      </c>
+      <c r="K10" t="s">
+        <v>98</v>
+      </c>
+      <c r="L10" t="s">
+        <v>99</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>77</v>
+      </c>
+      <c r="O10" t="s">
+        <v>66</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="n">
+        <v>3</v>
+      </c>
+      <c r="R10" t="s"/>
+      <c r="S10" t="n">
+        <v>3</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>1</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>11169</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>101</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>102</v>
+      </c>
+      <c r="J11" t="s">
+        <v>103</v>
+      </c>
+      <c r="K11" t="s">
+        <v>104</v>
+      </c>
+      <c r="L11" t="s">
+        <v>105</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2</v>
+      </c>
+      <c r="N11" t="s">
+        <v>106</v>
+      </c>
+      <c r="O11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11169</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>107</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>108</v>
+      </c>
+      <c r="J12" t="s">
+        <v>109</v>
+      </c>
+      <c r="K12" t="s">
+        <v>110</v>
+      </c>
+      <c r="L12" t="s">
+        <v>111</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>112</v>
+      </c>
+      <c r="O12" t="s">
+        <v>78</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>11169</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>114</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>115</v>
+      </c>
+      <c r="J13" t="s">
+        <v>116</v>
+      </c>
+      <c r="K13" t="s">
+        <v>117</v>
+      </c>
+      <c r="L13" t="s">
+        <v>118</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>119</v>
+      </c>
+      <c r="O13" t="s">
+        <v>78</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>11169</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>120</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>121</v>
+      </c>
+      <c r="J14" t="s">
+        <v>122</v>
+      </c>
+      <c r="K14" t="s">
+        <v>123</v>
+      </c>
+      <c r="L14" t="s">
+        <v>124</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>125</v>
+      </c>
+      <c r="O14" t="s">
+        <v>66</v>
+      </c>
+      <c r="P14" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>4</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>11169</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>126</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>127</v>
+      </c>
+      <c r="J15" t="s">
+        <v>128</v>
+      </c>
+      <c r="K15" t="s">
+        <v>129</v>
+      </c>
+      <c r="L15" t="s">
+        <v>130</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>125</v>
+      </c>
+      <c r="O15" t="s">
+        <v>66</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="n">
+        <v>4</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>4</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>11169</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>131</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>132</v>
+      </c>
+      <c r="J16" t="s">
+        <v>133</v>
+      </c>
+      <c r="K16" t="s">
+        <v>134</v>
+      </c>
+      <c r="L16" t="s">
+        <v>135</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>136</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="n">
+        <v>4</v>
+      </c>
+      <c r="R16" t="n">
+        <v>3</v>
+      </c>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>4</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>11169</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>137</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>138</v>
+      </c>
+      <c r="J17" t="s">
+        <v>139</v>
+      </c>
+      <c r="K17" t="s">
+        <v>140</v>
+      </c>
+      <c r="L17" t="s">
+        <v>141</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>142</v>
+      </c>
+      <c r="O17" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>11169</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>143</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>144</v>
+      </c>
+      <c r="J18" t="s">
+        <v>145</v>
+      </c>
+      <c r="K18" t="s">
+        <v>146</v>
+      </c>
+      <c r="L18" t="s">
+        <v>147</v>
+      </c>
+      <c r="M18" t="n">
+        <v>3</v>
+      </c>
+      <c r="N18" t="s">
+        <v>148</v>
+      </c>
+      <c r="O18" t="s">
+        <v>66</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="n">
+        <v>4</v>
+      </c>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>4</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>11169</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>149</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>150</v>
+      </c>
+      <c r="J19" t="s">
+        <v>151</v>
+      </c>
+      <c r="K19" t="s">
+        <v>152</v>
+      </c>
+      <c r="L19" t="s">
+        <v>153</v>
+      </c>
+      <c r="M19" t="n">
+        <v>3</v>
+      </c>
+      <c r="N19" t="s">
+        <v>148</v>
+      </c>
+      <c r="O19" t="s">
+        <v>66</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>11169</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>154</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>155</v>
+      </c>
+      <c r="J20" t="s">
+        <v>156</v>
+      </c>
+      <c r="K20" t="s">
+        <v>157</v>
+      </c>
+      <c r="L20" t="s">
+        <v>158</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" t="s">
+        <v>159</v>
+      </c>
+      <c r="O20" t="s">
+        <v>160</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="n">
+        <v>3</v>
+      </c>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>3</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>161</v>
+      </c>
+      <c r="X20" t="s">
+        <v>162</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>11169</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>164</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>165</v>
+      </c>
+      <c r="J21" t="s">
+        <v>166</v>
+      </c>
+      <c r="K21" t="s">
+        <v>167</v>
+      </c>
+      <c r="L21" t="s">
+        <v>168</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" t="s">
+        <v>169</v>
+      </c>
+      <c r="O21" t="s">
+        <v>66</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>1</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>170</v>
+      </c>
+      <c r="X21" t="s">
+        <v>171</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>11169</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>173</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>174</v>
+      </c>
+      <c r="J22" t="s">
+        <v>175</v>
+      </c>
+      <c r="K22" t="s">
+        <v>176</v>
+      </c>
+      <c r="L22" t="s">
+        <v>177</v>
+      </c>
+      <c r="M22" t="n">
+        <v>3</v>
+      </c>
+      <c r="N22" t="s">
+        <v>169</v>
+      </c>
+      <c r="O22" t="s">
+        <v>78</v>
+      </c>
+      <c r="P22" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="n">
+        <v>4</v>
+      </c>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>3</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>11169</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>178</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>179</v>
+      </c>
+      <c r="J23" t="s">
+        <v>180</v>
+      </c>
+      <c r="K23" t="s">
+        <v>181</v>
+      </c>
+      <c r="L23" t="s">
+        <v>182</v>
+      </c>
+      <c r="M23" t="n">
+        <v>3</v>
+      </c>
+      <c r="N23" t="s">
+        <v>183</v>
+      </c>
+      <c r="O23" t="s">
+        <v>66</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>11169</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>184</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>185</v>
+      </c>
+      <c r="J24" t="s">
+        <v>186</v>
+      </c>
+      <c r="K24" t="s">
+        <v>187</v>
+      </c>
+      <c r="L24" t="s">
+        <v>188</v>
+      </c>
+      <c r="M24" t="n">
+        <v>3</v>
+      </c>
+      <c r="N24" t="s">
+        <v>189</v>
+      </c>
+      <c r="O24" t="s">
+        <v>78</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>11169</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>190</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>191</v>
+      </c>
+      <c r="J25" t="s">
+        <v>192</v>
+      </c>
+      <c r="K25" t="s">
+        <v>193</v>
+      </c>
+      <c r="L25" t="s">
+        <v>194</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+      <c r="N25" t="s">
+        <v>195</v>
+      </c>
+      <c r="O25" t="s">
+        <v>78</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="n">
+        <v>3</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>1</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>11169</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>197</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>198</v>
+      </c>
+      <c r="J26" t="s">
+        <v>199</v>
+      </c>
+      <c r="K26" t="s">
+        <v>200</v>
+      </c>
+      <c r="L26" t="s">
+        <v>201</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>202</v>
+      </c>
+      <c r="O26" t="s">
+        <v>160</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>4</v>
+      </c>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>11169</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>204</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>205</v>
+      </c>
+      <c r="J27" t="s">
+        <v>206</v>
+      </c>
+      <c r="K27" t="s">
+        <v>207</v>
+      </c>
+      <c r="L27" t="s">
+        <v>208</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>202</v>
+      </c>
+      <c r="O27" t="s">
+        <v>78</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="n">
+        <v>4</v>
+      </c>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>4</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>11169</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>209</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>210</v>
+      </c>
+      <c r="J28" t="s">
+        <v>211</v>
+      </c>
+      <c r="K28" t="s">
+        <v>212</v>
+      </c>
+      <c r="L28" t="s">
+        <v>213</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1</v>
+      </c>
+      <c r="N28" t="s"/>
+      <c r="O28" t="s"/>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>11169</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>215</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>216</v>
+      </c>
+      <c r="J29" t="s">
+        <v>217</v>
+      </c>
+      <c r="K29" t="s">
+        <v>218</v>
+      </c>
+      <c r="L29" t="s">
+        <v>219</v>
+      </c>
+      <c r="M29" t="n">
+        <v>2</v>
+      </c>
+      <c r="N29" t="s">
+        <v>220</v>
+      </c>
+      <c r="O29" t="s">
+        <v>221</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="n">
+        <v>3</v>
+      </c>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>2</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>11169</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>222</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>223</v>
+      </c>
+      <c r="J30" t="s">
+        <v>224</v>
+      </c>
+      <c r="K30" t="s">
+        <v>225</v>
+      </c>
+      <c r="L30" t="s">
+        <v>226</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>227</v>
+      </c>
+      <c r="O30" t="s">
+        <v>53</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="n">
+        <v>5</v>
+      </c>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>4</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>11169</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>228</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>229</v>
+      </c>
+      <c r="J31" t="s">
+        <v>230</v>
+      </c>
+      <c r="K31" t="s">
+        <v>231</v>
+      </c>
+      <c r="L31" t="s">
+        <v>232</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s"/>
+      <c r="O31" t="s"/>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>11169</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>233</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>234</v>
+      </c>
+      <c r="J32" t="s">
+        <v>235</v>
+      </c>
+      <c r="K32" t="s">
+        <v>236</v>
+      </c>
+      <c r="L32" t="s">
+        <v>237</v>
+      </c>
+      <c r="M32" t="n">
+        <v>3</v>
+      </c>
+      <c r="N32" t="s">
+        <v>238</v>
+      </c>
+      <c r="O32" t="s">
+        <v>66</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>4</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" t="n">
+        <v>4</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>2</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>11169</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>240</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>241</v>
+      </c>
+      <c r="J33" t="s">
+        <v>242</v>
+      </c>
+      <c r="K33" t="s">
+        <v>243</v>
+      </c>
+      <c r="L33" t="s">
+        <v>244</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1</v>
+      </c>
+      <c r="N33" t="s">
+        <v>238</v>
+      </c>
+      <c r="O33" t="s">
+        <v>221</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>11169</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>246</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>247</v>
+      </c>
+      <c r="J34" t="s">
+        <v>248</v>
+      </c>
+      <c r="K34" t="s">
+        <v>249</v>
+      </c>
+      <c r="L34" t="s">
+        <v>250</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1</v>
+      </c>
+      <c r="N34" t="s">
+        <v>238</v>
+      </c>
+      <c r="O34" t="s">
+        <v>160</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="s"/>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>11169</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>252</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>253</v>
+      </c>
+      <c r="J35" t="s">
+        <v>254</v>
+      </c>
+      <c r="K35" t="s">
+        <v>255</v>
+      </c>
+      <c r="L35" t="s">
+        <v>256</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s"/>
+      <c r="O35" t="s"/>
+      <c r="P35" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>11169</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>257</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>258</v>
+      </c>
+      <c r="J36" t="s">
+        <v>259</v>
+      </c>
+      <c r="K36" t="s">
+        <v>260</v>
+      </c>
+      <c r="L36" t="s">
+        <v>261</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4</v>
+      </c>
+      <c r="N36" t="s">
+        <v>262</v>
+      </c>
+      <c r="O36" t="s">
+        <v>78</v>
+      </c>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>3</v>
+      </c>
+      <c r="R36" t="n">
+        <v>4</v>
+      </c>
+      <c r="S36" t="n">
+        <v>4</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>4</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>11169</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>263</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>264</v>
+      </c>
+      <c r="J37" t="s">
+        <v>265</v>
+      </c>
+      <c r="K37" t="s">
+        <v>266</v>
+      </c>
+      <c r="L37" t="s">
+        <v>267</v>
+      </c>
+      <c r="M37" t="n">
+        <v>4</v>
+      </c>
+      <c r="N37" t="s">
+        <v>268</v>
+      </c>
+      <c r="O37" t="s">
+        <v>66</v>
+      </c>
+      <c r="P37" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>4</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="n">
+        <v>4</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>11169</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>270</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>271</v>
+      </c>
+      <c r="J38" t="s">
+        <v>272</v>
+      </c>
+      <c r="K38" t="s">
+        <v>273</v>
+      </c>
+      <c r="L38" t="s">
+        <v>274</v>
+      </c>
+      <c r="M38" t="n">
+        <v>3</v>
+      </c>
+      <c r="N38" t="s">
+        <v>275</v>
+      </c>
+      <c r="O38" t="s">
+        <v>66</v>
+      </c>
+      <c r="P38" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>4</v>
+      </c>
+      <c r="R38" t="n">
+        <v>3</v>
+      </c>
+      <c r="S38" t="n">
+        <v>4</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>2</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>11169</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>277</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>278</v>
+      </c>
+      <c r="J39" t="s">
+        <v>279</v>
+      </c>
+      <c r="K39" t="s">
+        <v>280</v>
+      </c>
+      <c r="L39" t="s">
+        <v>281</v>
+      </c>
+      <c r="M39" t="n">
+        <v>2</v>
+      </c>
+      <c r="N39" t="s">
+        <v>282</v>
+      </c>
+      <c r="O39" t="s">
+        <v>66</v>
+      </c>
+      <c r="P39" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>1</v>
+      </c>
+      <c r="R39" t="n">
+        <v>1</v>
+      </c>
+      <c r="S39" t="n">
+        <v>1</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>2</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>11169</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>283</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>284</v>
+      </c>
+      <c r="J40" t="s">
+        <v>285</v>
+      </c>
+      <c r="K40" t="s">
+        <v>286</v>
+      </c>
+      <c r="L40" t="s">
+        <v>287</v>
+      </c>
+      <c r="M40" t="n">
+        <v>3</v>
+      </c>
+      <c r="N40" t="s">
+        <v>282</v>
+      </c>
+      <c r="O40" t="s">
+        <v>78</v>
+      </c>
+      <c r="P40" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>4</v>
+      </c>
+      <c r="R40" t="n">
+        <v>2</v>
+      </c>
+      <c r="S40" t="n">
+        <v>4</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>3</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>11169</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>288</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>289</v>
+      </c>
+      <c r="J41" t="s">
+        <v>290</v>
+      </c>
+      <c r="K41" t="s">
+        <v>291</v>
+      </c>
+      <c r="L41" t="s">
+        <v>292</v>
+      </c>
+      <c r="M41" t="n">
+        <v>4</v>
+      </c>
+      <c r="N41" t="s"/>
+      <c r="O41" t="s"/>
+      <c r="P41" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>4</v>
+      </c>
+      <c r="R41" t="n">
+        <v>4</v>
+      </c>
+      <c r="S41" t="n">
+        <v>4</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>4</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>11169</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>293</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>294</v>
+      </c>
+      <c r="J42" t="s">
+        <v>295</v>
+      </c>
+      <c r="K42" t="s">
+        <v>296</v>
+      </c>
+      <c r="L42" t="s">
+        <v>297</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s"/>
+      <c r="O42" t="s"/>
+      <c r="P42" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>5</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5</v>
+      </c>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>4</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>11169</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>299</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>300</v>
+      </c>
+      <c r="J43" t="s">
+        <v>301</v>
+      </c>
+      <c r="K43" t="s">
+        <v>302</v>
+      </c>
+      <c r="L43" t="s">
+        <v>303</v>
+      </c>
+      <c r="M43" t="n">
+        <v>4</v>
+      </c>
+      <c r="N43" t="s">
+        <v>304</v>
+      </c>
+      <c r="O43" t="s">
+        <v>160</v>
+      </c>
+      <c r="P43" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>3</v>
+      </c>
+      <c r="R43" t="n">
+        <v>3</v>
+      </c>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>11169</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>305</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>306</v>
+      </c>
+      <c r="J44" t="s">
+        <v>307</v>
+      </c>
+      <c r="K44" t="s">
+        <v>308</v>
+      </c>
+      <c r="L44" t="s">
+        <v>309</v>
+      </c>
+      <c r="M44" t="n">
+        <v>4</v>
+      </c>
+      <c r="N44" t="s">
+        <v>310</v>
+      </c>
+      <c r="O44" t="s">
+        <v>66</v>
+      </c>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>4</v>
+      </c>
+      <c r="R44" t="n">
+        <v>4</v>
+      </c>
+      <c r="S44" t="n">
+        <v>4</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>4</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>11169</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>312</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>313</v>
+      </c>
+      <c r="J45" t="s">
+        <v>314</v>
+      </c>
+      <c r="K45" t="s">
+        <v>315</v>
+      </c>
+      <c r="L45" t="s">
+        <v>316</v>
+      </c>
+      <c r="M45" t="n">
+        <v>4</v>
+      </c>
+      <c r="N45" t="s">
+        <v>317</v>
+      </c>
+      <c r="O45" t="s">
+        <v>160</v>
+      </c>
+      <c r="P45" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>4</v>
+      </c>
+      <c r="R45" t="n">
+        <v>3</v>
+      </c>
+      <c r="S45" t="n">
+        <v>4</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>11169</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>318</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>319</v>
+      </c>
+      <c r="J46" t="s">
+        <v>320</v>
+      </c>
+      <c r="K46" t="s">
+        <v>321</v>
+      </c>
+      <c r="L46" t="s">
+        <v>322</v>
+      </c>
+      <c r="M46" t="n">
+        <v>4</v>
+      </c>
+      <c r="N46" t="s">
+        <v>323</v>
+      </c>
+      <c r="O46" t="s">
+        <v>66</v>
+      </c>
+      <c r="P46" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>4</v>
+      </c>
+      <c r="R46" t="n">
+        <v>4</v>
+      </c>
+      <c r="S46" t="n">
+        <v>4</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>11169</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>324</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>325</v>
+      </c>
+      <c r="J47" t="s">
+        <v>326</v>
+      </c>
+      <c r="K47" t="s">
+        <v>327</v>
+      </c>
+      <c r="L47" t="s">
+        <v>328</v>
+      </c>
+      <c r="M47" t="n">
+        <v>1</v>
+      </c>
+      <c r="N47" t="s">
+        <v>329</v>
+      </c>
+      <c r="O47" t="s">
+        <v>66</v>
+      </c>
+      <c r="P47" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>1</v>
+      </c>
+      <c r="R47" t="n">
+        <v>2</v>
+      </c>
+      <c r="S47" t="n">
+        <v>1</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>2</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>11169</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>331</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>332</v>
+      </c>
+      <c r="J48" t="s">
+        <v>333</v>
+      </c>
+      <c r="K48" t="s">
+        <v>334</v>
+      </c>
+      <c r="L48" t="s">
+        <v>335</v>
+      </c>
+      <c r="M48" t="n">
+        <v>1</v>
+      </c>
+      <c r="N48" t="s">
+        <v>336</v>
+      </c>
+      <c r="O48" t="s">
+        <v>78</v>
+      </c>
+      <c r="P48" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>1</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="n">
+        <v>1</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>2</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>11169</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>337</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>338</v>
+      </c>
+      <c r="J49" t="s">
+        <v>339</v>
+      </c>
+      <c r="K49" t="s">
+        <v>340</v>
+      </c>
+      <c r="L49" t="s">
+        <v>341</v>
+      </c>
+      <c r="M49" t="n">
+        <v>1</v>
+      </c>
+      <c r="N49" t="s">
+        <v>342</v>
+      </c>
+      <c r="O49" t="s">
+        <v>221</v>
+      </c>
+      <c r="P49" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>2</v>
+      </c>
+      <c r="R49" t="n">
+        <v>4</v>
+      </c>
+      <c r="S49" t="n">
+        <v>1</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>1</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>11169</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>343</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>344</v>
+      </c>
+      <c r="J50" t="s">
+        <v>345</v>
+      </c>
+      <c r="K50" t="s">
+        <v>346</v>
+      </c>
+      <c r="L50" t="s">
+        <v>347</v>
+      </c>
+      <c r="M50" t="n">
+        <v>4</v>
+      </c>
+      <c r="N50" t="s"/>
+      <c r="O50" t="s"/>
+      <c r="P50" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>3</v>
+      </c>
+      <c r="R50" t="s"/>
+      <c r="S50" t="n">
+        <v>4</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>3</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>11169</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>349</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>350</v>
+      </c>
+      <c r="J51" t="s">
+        <v>351</v>
+      </c>
+      <c r="K51" t="s">
+        <v>352</v>
+      </c>
+      <c r="L51" t="s">
+        <v>353</v>
+      </c>
+      <c r="M51" t="n">
+        <v>1</v>
+      </c>
+      <c r="N51" t="s"/>
+      <c r="O51" t="s"/>
+      <c r="P51" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>3</v>
+      </c>
+      <c r="R51" t="s"/>
+      <c r="S51" t="n">
+        <v>1</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>1</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>11169</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>355</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>356</v>
+      </c>
+      <c r="J52" t="s">
+        <v>357</v>
+      </c>
+      <c r="K52" t="s">
+        <v>358</v>
+      </c>
+      <c r="L52" t="s">
+        <v>359</v>
+      </c>
+      <c r="M52" t="n">
+        <v>3</v>
+      </c>
+      <c r="N52" t="s"/>
+      <c r="O52" t="s"/>
+      <c r="P52" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>3</v>
+      </c>
+      <c r="R52" t="s"/>
+      <c r="S52" t="n">
+        <v>4</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>4</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>359</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Denver/Denver_shard_204.xlsx
+++ b/data/hotels_by_city/Denver/Denver_shard_204.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="570">
   <si>
     <t>STR#</t>
   </si>
@@ -150,18 +150,92 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/04/2018</t>
+    <t>09/05/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d240162-r612595491-Motel_6_Denver_West_Wheat_Ridge_North-Wheat_Ridge_Colorado.html</t>
+  </si>
+  <si>
+    <t>33694</t>
+  </si>
+  <si>
+    <t>240162</t>
+  </si>
+  <si>
+    <t>612595491</t>
+  </si>
+  <si>
+    <t>08/31/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Awesome front desk and communication </t>
+  </si>
+  <si>
+    <t>Arrived here early in the morning since I came into town from work early and me and my co worker needed a place to stay. We talked to the front desk lady over the phone and she assured us she could get us a room. We arrived and as promised she gave us a room, but still needed to be cleaned. We called her and she assured us that within the hour it would be clean or she can move us to another room, so we decided to go eat something meanwhile it was cleaned. Once we came back the room was clean and the stay was great. The room was very comfortable very freeway accessible and very quiet area with alot of restaurants nearby walking or by foot.  Def will stay here when I'm back in town for work.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Arrived here early in the morning since I came into town from work early and me and my co worker needed a place to stay. We talked to the front desk lady over the phone and she assured us she could get us a room. We arrived and as promised she gave us a room, but still needed to be cleaned. We called her and she assured us that within the hour it would be clean or she can move us to another room, so we decided to go eat something meanwhile it was cleaned. Once we came back the room was clean and the stay was great. The room was very comfortable very freeway accessible and very quiet area with alot of restaurants nearby walking or by foot.  Def will stay here when I'm back in town for work.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d240162-r599429445-Motel_6_Denver_West_Wheat_Ridge_North-Wheat_Ridge_Colorado.html</t>
+  </si>
+  <si>
+    <t>599429445</t>
+  </si>
+  <si>
+    <t>07/24/2018</t>
+  </si>
+  <si>
+    <t>Typical Motel 6 with very basic service</t>
+  </si>
+  <si>
+    <t>Stayed here for a night while driving from MN to UT. Just like any typical Motel 6, their service was very basic: no fridge, microwave, coffee maker, or continental breakfast (there are a bunch of restaurants nearby). I think wi-fi was there, but if it was, the reception was weak that I relied my own network. It's not a bad place if you're a minimalist and all you need is just a place to sleep for a night or two before you move to your final destination.</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d240162-r541582374-Motel_6_Denver_West_Wheat_Ridge_North-Wheat_Ridge_Colorado.html</t>
+  </si>
+  <si>
+    <t>541582374</t>
+  </si>
+  <si>
+    <t>11/17/2017</t>
+  </si>
+  <si>
+    <t>Avoid this Motel</t>
+  </si>
+  <si>
+    <t>Let me start with what they do right. They are conveniently positioned off the Kipling exit of I-70. The room I stayed in and the wing appeared new; the inside was spotlessly clean. The room door opened to the parking lot so I could go to my room from my car in less than ten feet. The room door which faced the highway was sticky hard, but that was a blessing: I could not hear much traffic noise from the interstate that was probably no more than 300 feet away. 
+Now the other stuff - the reasons I would not stay here again. They advertise one rate on their billboard and it is higher when you check-in. (Yes, they all add tax to advertised rates, but this management ups the basic room rate above the posted rate. They breezily explained the rate goes up as occupancy goes up.) 
+They will not accept or provide any of the standard discounts like AAA. AARP or Senior or Military discounts. 
+No hot breakfast, only coffee and you have to go to the front desk for it. Motel 8, their competitor on the other side of the highway, same exit, offers hot breakfast and do-it-yourself-in-room coffee service.
+This hotel does NOT have a fridge, microwave or coffee maker in the room. Motel 8, their competitor offers all three in the room. AND their rates are lower; the rooms are about the same in quality....Let me start with what they do right. They are conveniently positioned off the Kipling exit of I-70. The room I stayed in and the wing appeared new; the inside was spotlessly clean. The room door opened to the parking lot so I could go to my room from my car in less than ten feet. The room door which faced the highway was sticky hard, but that was a blessing: I could not hear much traffic noise from the interstate that was probably no more than 300 feet away. Now the other stuff - the reasons I would not stay here again. They advertise one rate on their billboard and it is higher when you check-in. (Yes, they all add tax to advertised rates, but this management ups the basic room rate above the posted rate. They breezily explained the rate goes up as occupancy goes up.) They will not accept or provide any of the standard discounts like AAA. AARP or Senior or Military discounts. No hot breakfast, only coffee and you have to go to the front desk for it. Motel 8, their competitor on the other side of the highway, same exit, offers hot breakfast and do-it-yourself-in-room coffee service.This hotel does NOT have a fridge, microwave or coffee maker in the room. Motel 8, their competitor offers all three in the room. AND their rates are lower; the rooms are about the same in quality.To heat food in the common microwave, located in their laundry room, you have to leave your room, walk to front of hotel, return with two hot dishes and while you toss one up in the air, quickly card yourself into your room, and catch the falling hot dish. Yes, I am being sarcastic. The sticky but sound proofed door needed two hands to open.It was annoying to eat cold leftovers. I did have a Styrofoam cooler and they did have free ice. Their common microwave was dirty and had no plate on the inside where you can place your food container. When I told the front desk, they did not offer to clean it then or later, and did not offer to heat up my dish for me in the clean microwave they must have had for employee use. They just blew me off.After paying for two nights, I went to the room, noticed no microwave and no fridge, went back to the front desk and asked for a different room. They said none of the rooms had these. I asked for a refund and they wanted sizable "service" fee for the same. I got the idea the management was hungry for money, and did not much care if they annoyed their guests in small and large ways. Unless all other hotels are full (there are more than six within walking distance) I recommend you do not stay here.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>Let me start with what they do right. They are conveniently positioned off the Kipling exit of I-70. The room I stayed in and the wing appeared new; the inside was spotlessly clean. The room door opened to the parking lot so I could go to my room from my car in less than ten feet. The room door which faced the highway was sticky hard, but that was a blessing: I could not hear much traffic noise from the interstate that was probably no more than 300 feet away. 
+Now the other stuff - the reasons I would not stay here again. They advertise one rate on their billboard and it is higher when you check-in. (Yes, they all add tax to advertised rates, but this management ups the basic room rate above the posted rate. They breezily explained the rate goes up as occupancy goes up.) 
+They will not accept or provide any of the standard discounts like AAA. AARP or Senior or Military discounts. 
+No hot breakfast, only coffee and you have to go to the front desk for it. Motel 8, their competitor on the other side of the highway, same exit, offers hot breakfast and do-it-yourself-in-room coffee service.
+This hotel does NOT have a fridge, microwave or coffee maker in the room. Motel 8, their competitor offers all three in the room. AND their rates are lower; the rooms are about the same in quality....Let me start with what they do right. They are conveniently positioned off the Kipling exit of I-70. The room I stayed in and the wing appeared new; the inside was spotlessly clean. The room door opened to the parking lot so I could go to my room from my car in less than ten feet. The room door which faced the highway was sticky hard, but that was a blessing: I could not hear much traffic noise from the interstate that was probably no more than 300 feet away. Now the other stuff - the reasons I would not stay here again. They advertise one rate on their billboard and it is higher when you check-in. (Yes, they all add tax to advertised rates, but this management ups the basic room rate above the posted rate. They breezily explained the rate goes up as occupancy goes up.) They will not accept or provide any of the standard discounts like AAA. AARP or Senior or Military discounts. No hot breakfast, only coffee and you have to go to the front desk for it. Motel 8, their competitor on the other side of the highway, same exit, offers hot breakfast and do-it-yourself-in-room coffee service.This hotel does NOT have a fridge, microwave or coffee maker in the room. Motel 8, their competitor offers all three in the room. AND their rates are lower; the rooms are about the same in quality.To heat food in the common microwave, located in their laundry room, you have to leave your room, walk to front of hotel, return with two hot dishes and while you toss one up in the air, quickly card yourself into your room, and catch the falling hot dish. Yes, I am being sarcastic. The sticky but sound proofed door needed two hands to open.It was annoying to eat cold leftovers. I did have a Styrofoam cooler and they did have free ice. Their common microwave was dirty and had no plate on the inside where you can place your food container. When I told the front desk, they did not offer to clean it then or later, and did not offer to heat up my dish for me in the clean microwave they must have had for employee use. They just blew me off.After paying for two nights, I went to the room, noticed no microwave and no fridge, went back to the front desk and asked for a different room. They said none of the rooms had these. I asked for a refund and they wanted sizable "service" fee for the same. I got the idea the management was hungry for money, and did not much care if they annoyed their guests in small and large ways. Unless all other hotels are full (there are more than six within walking distance) I recommend you do not stay here.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d240162-r504472236-Motel_6_Denver_West_Wheat_Ridge_North-Wheat_Ridge_Colorado.html</t>
   </si>
   <si>
-    <t>33694</t>
-  </si>
-  <si>
-    <t>240162</t>
-  </si>
-  <si>
     <t>504472236</t>
   </si>
   <si>
@@ -177,9 +251,6 @@
     <t>July 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d240162-r481974349-Motel_6_Denver_West_Wheat_Ridge_North-Wheat_Ridge_Colorado.html</t>
   </si>
   <si>
@@ -219,6 +290,45 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d240162-r467539323-Motel_6_Denver_West_Wheat_Ridge_North-Wheat_Ridge_Colorado.html</t>
+  </si>
+  <si>
+    <t>467539323</t>
+  </si>
+  <si>
+    <t>03/15/2017</t>
+  </si>
+  <si>
+    <t>Great Experience</t>
+  </si>
+  <si>
+    <t>Stayed here a few years ago for a skiing trip and was an OK experience.  Stayed again in Feb. 2017 for another skiing trip and was pleased to see the rooms have been upgraded with a modern look and new comfortable beds and wood floors versus carpet.  Would recommend to anyone looking for a reasonably priced placed to stay.  Nice access to the interstate and convenient to have a Denny's right next door and the gas station on the corner.</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d240162-r465188488-Motel_6_Denver_West_Wheat_Ridge_North-Wheat_Ridge_Colorado.html</t>
+  </si>
+  <si>
+    <t>465188488</t>
+  </si>
+  <si>
+    <t>03/06/2017</t>
+  </si>
+  <si>
+    <t>reasonable rates</t>
+  </si>
+  <si>
+    <t>On short notice, in the middle of a snowstorm, I had to find a place to stay before my early scheduled surgery.The staff (Donna and Ian) were very kind, understanding, and helpful when it turned into a post-operative stay, as well. The room was clean and comfortable- even after surgery! thank you so much, Motel 6!</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d240162-r459374233-Motel_6_Denver_West_Wheat_Ridge_North-Wheat_Ridge_Colorado.html</t>
   </si>
   <si>
@@ -252,9 +362,6 @@
     <t>December 2016</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d240162-r454779024-Motel_6_Denver_West_Wheat_Ridge_North-Wheat_Ridge_Colorado.html</t>
   </si>
   <si>
@@ -270,7 +377,37 @@
     <t>We are at Motel 6 while hunting for a place to live, wheat ridge colorado,  Upon entering the motel to check in we were  immediately welcomed by Donna, she was very helpful to assist in meeting all our request and went over your policy, got us checked in within minutes and made sure we knew where all other ammentities were located, would highly recommend  this motel to all friends and family. So a big thank you  to Donna and motel 6 for great service.</t>
   </si>
   <si>
-    <t>January 2017</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d240162-r452752013-Motel_6_Denver_West_Wheat_Ridge_North-Wheat_Ridge_Colorado.html</t>
+  </si>
+  <si>
+    <t>452752013</t>
+  </si>
+  <si>
+    <t>01/17/2017</t>
+  </si>
+  <si>
+    <t>Great Service!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I checked in to this motel thinking it was gonna be a run down dump like most motels. I was thoroughly relieved walking into what most would consider a 4 star hotel room. It didn't smell of smoke, everything was well cleaned and the beds were more comfortable than most hotels in the area! Joe, the manager on duty, was an extremely welcoming person when I had checked in. He was also prompt and helpful with any accommodations I needed during my stay. Definitely will be returning again soon! Thanks Joe and Staff! </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d240162-r452364032-Motel_6_Denver_West_Wheat_Ridge_North-Wheat_Ridge_Colorado.html</t>
+  </si>
+  <si>
+    <t>452364032</t>
+  </si>
+  <si>
+    <t>01/16/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amazing! </t>
+  </si>
+  <si>
+    <t>Staff was extremely friendly and extremely LGBT friendly, my partner and I loved the room it was actually clean, we aren't used to staying at lower end motels but we definitely would stay here again!!</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d240162-r452013707-Motel_6_Denver_West_Wheat_Ridge_North-Wheat_Ridge_Colorado.html</t>
@@ -321,6 +458,39 @@
     <t>OK--the room was adequate, However--the first shock was that they required my wife's i.d. besides mine, and made photocopies of both. Then we get The Rules. All guests must be 21 except for military, and register at the desk.  Vehicles must park head in, with permit. "Non-registered visitors" (our granddaughter?) are not permitted on the property after 8 p.m. Doors must be closed at all times. Violations of these rules will result in eviction with no refund. And the person waiting on me had nothing to say but we need this. Another apparently senior person claimed all this was required by the city, but--it was really part of a voluntary program aimed at reducing crime from long-term "guests." Total bullroar, and an unpleasant experience. Oh yeah--they wanted to charge $2.99 for Wifi...More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d240162-r446005387-Motel_6_Denver_West_Wheat_Ridge_North-Wheat_Ridge_Colorado.html</t>
+  </si>
+  <si>
+    <t>446005387</t>
+  </si>
+  <si>
+    <t>12/21/2016</t>
+  </si>
+  <si>
+    <t>Nice place</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I just needed an affordable one night stay in Denver while on my way home and this was a great choice. The room (#114) was remodeled and it looked sharp. It was nice and clean and smelled good so I was very pleased with my choice. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d240162-r443813840-Motel_6_Denver_West_Wheat_Ridge_North-Wheat_Ridge_Colorado.html</t>
+  </si>
+  <si>
+    <t>443813840</t>
+  </si>
+  <si>
+    <t>12/12/2016</t>
+  </si>
+  <si>
+    <t>Great Visit, Great Location, friendly Staff!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Made a great choice choosing this motel! The staff was very tentative from the moment we walked into the office. The rooms were very clean and well kept.The location was fantastic. There's a target right across the street, along with a Starbucks, and multiple restaurants to choose from!  I'd recommend this motel to anyone, especially if you're on a budget! </t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d240162-r401122448-Motel_6_Denver_West_Wheat_Ridge_North-Wheat_Ridge_Colorado.html</t>
   </si>
   <si>
@@ -378,6 +548,53 @@
     <t>June 2016</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d240162-r376299171-Motel_6_Denver_West_Wheat_Ridge_North-Wheat_Ridge_Colorado.html</t>
+  </si>
+  <si>
+    <t>376299171</t>
+  </si>
+  <si>
+    <t>05/24/2016</t>
+  </si>
+  <si>
+    <t>Scary</t>
+  </si>
+  <si>
+    <t>I am staying here for the night with my sister. There are cops out there right now and homeless people living here. I asked the cops if I should be worried about staying here tonight and he just laughed. I definitely don't feel safe. I paid $72 for a room with 2 full size beds, so it's definitely overpriced.</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d240162-r369046348-Motel_6_Denver_West_Wheat_Ridge_North-Wheat_Ridge_Colorado.html</t>
+  </si>
+  <si>
+    <t>369046348</t>
+  </si>
+  <si>
+    <t>04/30/2016</t>
+  </si>
+  <si>
+    <t>Needed an affordable place to stay for the night</t>
+  </si>
+  <si>
+    <t>I needed an affordable night's stay and read some good reviews about this Motel 6. The location is very convenient, the Kipling St exit off I-70, and is located near many businesses for travelers: Denny's, gas stations, etc.
+The building(s) is definitely an old-school layout of two rectangle buildings parallel to each other about 25 feet apart, creating a quasi-courtyard. The front-desk staff was very helpful and phoned about 10 minutes after checking in to make sure I was pleased with my room, which I was. Zach was training that night and performed very well.
+The room was one queen bed non-smoking and I was the only guest. The dimensions of the room footprint was about 10x15 feet, so a fairly small 150sf room, but just right for the cost, which was $59 w/o taxes for one night.
+The room (#112) has been remodeled and is similar to the other Motel6 remodeled rooms at other locations. Besides the bed, there was a small table and chair in one corner of the room, along one wall was a built-in desk/table/dresser including a chair, lamp, phone and the TV (newer tv, flatscreen, great viewing). There's also a small clothes rack to hang your things. Finally, the bathroom and sink complete the room.
+The bathroom was very nice, new fixtures, clean floor (simulated bamboo print, pretty neat) fun towel holder with backlit feature near the sink. The shower curtain is one of those...I needed an affordable night's stay and read some good reviews about this Motel 6. The location is very convenient, the Kipling St exit off I-70, and is located near many businesses for travelers: Denny's, gas stations, etc.The building(s) is definitely an old-school layout of two rectangle buildings parallel to each other about 25 feet apart, creating a quasi-courtyard. The front-desk staff was very helpful and phoned about 10 minutes after checking in to make sure I was pleased with my room, which I was. Zach was training that night and performed very well.The room was one queen bed non-smoking and I was the only guest. The dimensions of the room footprint was about 10x15 feet, so a fairly small 150sf room, but just right for the cost, which was $59 w/o taxes for one night.The room (#112) has been remodeled and is similar to the other Motel6 remodeled rooms at other locations. Besides the bed, there was a small table and chair in one corner of the room, along one wall was a built-in desk/table/dresser including a chair, lamp, phone and the TV (newer tv, flatscreen, great viewing). There's also a small clothes rack to hang your things. Finally, the bathroom and sink complete the room.The bathroom was very nice, new fixtures, clean floor (simulated bamboo print, pretty neat) fun towel holder with backlit feature near the sink. The shower curtain is one of those curved shower-bar types that keeps the curtain away from your body.There were two bars of soap, one at the sink and the other in the shower, but no shampoo or other personal care accessories. There were plenty of towels (all sizes), drinking cups and ice bucket, but no coffee maker or refrigerator.There is an ice machine, vending (soda and snacks) and a washer/dryer in a separate room behind the office where you check in, near room #100 or so.Overall a nice stay and I'd visit again. I gave the location four stars for the generous pleasantness of the staff, nice/clean room, and great location. Other rooms may be larger, as I mentioned, this is a smaller room and two people would work fine, but works best as a solo room.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>I needed an affordable night's stay and read some good reviews about this Motel 6. The location is very convenient, the Kipling St exit off I-70, and is located near many businesses for travelers: Denny's, gas stations, etc.
+The building(s) is definitely an old-school layout of two rectangle buildings parallel to each other about 25 feet apart, creating a quasi-courtyard. The front-desk staff was very helpful and phoned about 10 minutes after checking in to make sure I was pleased with my room, which I was. Zach was training that night and performed very well.
+The room was one queen bed non-smoking and I was the only guest. The dimensions of the room footprint was about 10x15 feet, so a fairly small 150sf room, but just right for the cost, which was $59 w/o taxes for one night.
+The room (#112) has been remodeled and is similar to the other Motel6 remodeled rooms at other locations. Besides the bed, there was a small table and chair in one corner of the room, along one wall was a built-in desk/table/dresser including a chair, lamp, phone and the TV (newer tv, flatscreen, great viewing). There's also a small clothes rack to hang your things. Finally, the bathroom and sink complete the room.
+The bathroom was very nice, new fixtures, clean floor (simulated bamboo print, pretty neat) fun towel holder with backlit feature near the sink. The shower curtain is one of those...I needed an affordable night's stay and read some good reviews about this Motel 6. The location is very convenient, the Kipling St exit off I-70, and is located near many businesses for travelers: Denny's, gas stations, etc.The building(s) is definitely an old-school layout of two rectangle buildings parallel to each other about 25 feet apart, creating a quasi-courtyard. The front-desk staff was very helpful and phoned about 10 minutes after checking in to make sure I was pleased with my room, which I was. Zach was training that night and performed very well.The room was one queen bed non-smoking and I was the only guest. The dimensions of the room footprint was about 10x15 feet, so a fairly small 150sf room, but just right for the cost, which was $59 w/o taxes for one night.The room (#112) has been remodeled and is similar to the other Motel6 remodeled rooms at other locations. Besides the bed, there was a small table and chair in one corner of the room, along one wall was a built-in desk/table/dresser including a chair, lamp, phone and the TV (newer tv, flatscreen, great viewing). There's also a small clothes rack to hang your things. Finally, the bathroom and sink complete the room.The bathroom was very nice, new fixtures, clean floor (simulated bamboo print, pretty neat) fun towel holder with backlit feature near the sink. The shower curtain is one of those curved shower-bar types that keeps the curtain away from your body.There were two bars of soap, one at the sink and the other in the shower, but no shampoo or other personal care accessories. There were plenty of towels (all sizes), drinking cups and ice bucket, but no coffee maker or refrigerator.There is an ice machine, vending (soda and snacks) and a washer/dryer in a separate room behind the office where you check in, near room #100 or so.Overall a nice stay and I'd visit again. I gave the location four stars for the generous pleasantness of the staff, nice/clean room, and great location. Other rooms may be larger, as I mentioned, this is a smaller room and two people would work fine, but works best as a solo room.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d240162-r368006347-Motel_6_Denver_West_Wheat_Ridge_North-Wheat_Ridge_Colorado.html</t>
   </si>
   <si>
@@ -429,6 +646,54 @@
     <t>March 2016</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d240162-r344368085-Motel_6_Denver_West_Wheat_Ridge_North-Wheat_Ridge_Colorado.html</t>
+  </si>
+  <si>
+    <t>344368085</t>
+  </si>
+  <si>
+    <t>02/01/2016</t>
+  </si>
+  <si>
+    <t>Not fancy but clean and comfortable</t>
+  </si>
+  <si>
+    <t>I had no issues with this establishment. The rooms were clean, beds weren't that comfy to my liking but it's a matter of preference. No carpets in our room, which I prefer-Carpets are nasty in my opinion. We had a double, the room was quite small but worked for one night. The staff was very friendly and helpful. I like the fact they are pet friendly, they even had doggie treats at the front desk, and we were told they don't charge a pet fee (nor do they charge a "incidentals" fee)- we will definitely keep this in mind while traveling with our four legged babies:) The only one thing that I can see being a problem to some is that there seemed to be a few customers who looked as though they were living there and or on drugs. While you can't judge a book by it's cover this might be a put off to some. I did encounter said individuals and they were very friendly, I didn't feel threatened at all.  There was a bit of noise at night which did keep me up but nothing too bad. I would stay at this location again no problem.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>I had no issues with this establishment. The rooms were clean, beds weren't that comfy to my liking but it's a matter of preference. No carpets in our room, which I prefer-Carpets are nasty in my opinion. We had a double, the room was quite small but worked for one night. The staff was very friendly and helpful. I like the fact they are pet friendly, they even had doggie treats at the front desk, and we were told they don't charge a pet fee (nor do they charge a "incidentals" fee)- we will definitely keep this in mind while traveling with our four legged babies:) The only one thing that I can see being a problem to some is that there seemed to be a few customers who looked as though they were living there and or on drugs. While you can't judge a book by it's cover this might be a put off to some. I did encounter said individuals and they were very friendly, I didn't feel threatened at all.  There was a bit of noise at night which did keep me up but nothing too bad. I would stay at this location again no problem.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d240162-r323426133-Motel_6_Denver_West_Wheat_Ridge_North-Wheat_Ridge_Colorado.html</t>
+  </si>
+  <si>
+    <t>323426133</t>
+  </si>
+  <si>
+    <t>10/31/2015</t>
+  </si>
+  <si>
+    <t>I came in from out of town</t>
+  </si>
+  <si>
+    <t>I will never stay at Motel 6 again, it didn't have WiFi.........customer service was not pleasant! I asked for a smoking room when I made my reservation, but second time it was not available! If I'm going to pay for a room I want to be comfortable, not standing outside when its freezing! Should of paid $10.00 more for extend a stay or the Sheridan! Its a joke to even complain to the Front Desk!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team at Motel 6 Denver West Wheat Ridge-North, responded to this reviewResponded November 3, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 3, 2015</t>
+  </si>
+  <si>
+    <t>I will never stay at Motel 6 again, it didn't have WiFi.........customer service was not pleasant! I asked for a smoking room when I made my reservation, but second time it was not available! If I'm going to pay for a room I want to be comfortable, not standing outside when its freezing! Should of paid $10.00 more for extend a stay or the Sheridan! Its a joke to even complain to the Front Desk!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d240162-r317642721-Motel_6_Denver_West_Wheat_Ridge_North-Wheat_Ridge_Colorado.html</t>
   </si>
   <si>
@@ -444,9 +709,6 @@
     <t xml:space="preserve">Great night!  The ladies at the front desk where very friendly and helpful. I checked into my first room and it was wonderful except for bed, it didn't appear to be made. The bathroom was clean. So I went back to the front desk and spoke with the ladies, they were very understand they moved me to another room. I walked in the room and it was wounderful. I had wounderful stay Thank you!! </t>
   </si>
   <si>
-    <t>October 2015</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d240162-r314524562-Motel_6_Denver_West_Wheat_Ridge_North-Wheat_Ridge_Colorado.html</t>
   </si>
   <si>
@@ -480,6 +742,39 @@
     <t>This is the 3rd time I have written this. Anyway, motel 6 May have updated rooms, but the rate us too expensive for what you get. No late check out, no continental breakfast, no cartoon network. Disappointed</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d240162-r306149259-Motel_6_Denver_West_Wheat_Ridge_North-Wheat_Ridge_Colorado.html</t>
+  </si>
+  <si>
+    <t>306149259</t>
+  </si>
+  <si>
+    <t>09/01/2015</t>
+  </si>
+  <si>
+    <t>So So Motel</t>
+  </si>
+  <si>
+    <t>We stayed here for 1 night as we were passing through. Room was decently clean. Air conditioner smelled so bad we kept it off all night and there was a rip in the bedding. Cheapest hotel in the area, but at $80 I found it overpriced..should have stayed at the KOA.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d240162-r305005285-Motel_6_Denver_West_Wheat_Ridge_North-Wheat_Ridge_Colorado.html</t>
+  </si>
+  <si>
+    <t>305005285</t>
+  </si>
+  <si>
+    <t>08/30/2015</t>
+  </si>
+  <si>
+    <t>Just a cheap motel</t>
+  </si>
+  <si>
+    <t>You get what you pay for. Average cheap motel. Stayed there for one night. They charge for Internet. Enough clean. Front desk was friendly and nice. If you need a place to crash for just one night, do it, otherwise look for something else.....</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d240162-r296316273-Motel_6_Denver_West_Wheat_Ridge_North-Wheat_Ridge_Colorado.html</t>
   </si>
   <si>
@@ -495,12 +790,6 @@
     <t>Had my roommate book on line. She lives in TX &amp; I in TN. I cancelled mine since she had a 10% discount- WHICH I COULD HAVE ALSO GOTTEN being a senior (I didn't  know, nor is it offered on line). Got there, they had us on a 2nd floor. I'm handicapped, they put us in a room down stairs. No smoking smelled like smoke. Used the sink &amp; it would not drain. Told the front desk &amp; asked about the refrig &amp; micro which was not there. Told micro was in the local area. The room was warm &amp; I lowered the A/C. A young kid came to fix the sink, he turned the A/C up to 65 because " it would freeze up". Told him the room was hot. He left &amp; someone else came to fix the clog, with draino. He used a cleaner on the floor which was overwhelming. I tried to open the window &amp; it would not open. I went to the frt desk &amp; got a towel to reclean the floor. They sent someone to open the window. He had to return with a crowbar to pry it open. I had to help him. Meanwhile I turned on the lights. The one by the door did not work, the 2 by the bed, one did not have a bulb. I went to leave the room when the door handle came off &amp; I...Had my roommate book on line. She lives in TX &amp; I in TN. I cancelled mine since she had a 10% discount- WHICH I COULD HAVE ALSO GOTTEN being a senior (I didn't  know, nor is it offered on line). Got there, they had us on a 2nd floor. I'm handicapped, they put us in a room down stairs. No smoking smelled like smoke. Used the sink &amp; it would not drain. Told the front desk &amp; asked about the refrig &amp; micro which was not there. Told micro was in the local area. The room was warm &amp; I lowered the A/C. A young kid came to fix the sink, he turned the A/C up to 65 because " it would freeze up". Told him the room was hot. He left &amp; someone else came to fix the clog, with draino. He used a cleaner on the floor which was overwhelming. I tried to open the window &amp; it would not open. I went to the frt desk &amp; got a towel to reclean the floor. They sent someone to open the window. He had to return with a crowbar to pry it open. I had to help him. Meanwhile I turned on the lights. The one by the door did not work, the 2 by the bed, one did not have a bulb. I went to leave the room when the door handle came off &amp; I was locked it. They finally got the door open &amp; fixed. We were to be at a meeting by 5:30. It took over 3 hours of this fiasco which made us 1 hr late! Because the room would NOT COOL we had to use our personal fans to keep the air moving to make the room tolerable. The drain was missing in the tub. I found it attached to the shower curtain. Only 2 bars of soap. Nothing else.I did call headquarters &amp; they are providing a coupon for 2 night stays in the future to my room mate, NOT ME....I PAID THAT BILL. I got NOTHING. BAD BUSINESS, BAD MOTEL. I'm going to call the manager &amp; try again!MoreShow less</t>
   </si>
   <si>
-    <t>August 2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>6Team, brand expericened team member at Motel 6 Denver West Wheat Ridge-North, responded to this reviewResponded August 7, 2015</t>
   </si>
   <si>
@@ -552,6 +841,39 @@
     <t>Pros:location, clean, friendly check-in, food options near-byCons: parking is inconvenient to access, no carpeting, thin walls, wi-fi is available but not free.This motel is situated right on the interstate, so a room not facing the road is quieter.  I only recommend this motel to someone seeking a place to sleep, with nothing else.  Your can pay $30 more for better rooms several miles away, but for a cheap sleep this is what you get.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d240162-r289173409-Motel_6_Denver_West_Wheat_Ridge_North-Wheat_Ridge_Colorado.html</t>
+  </si>
+  <si>
+    <t>289173409</t>
+  </si>
+  <si>
+    <t>07/15/2015</t>
+  </si>
+  <si>
+    <t>Reliable Standard</t>
+  </si>
+  <si>
+    <t>Motel 6 is a good brand. You already know what to expect from one right ? They aren't great, they aren't horrible, they are a reliable, low priced place to stay. On a scale of 1 to 10 they are a constant 5, if you want better . . . . pay more for some place else. If you want a relatively clean, safe place to sleep and shower w/ minimal frills, you have found your place.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d240162-r278118091-Motel_6_Denver_West_Wheat_Ridge_North-Wheat_Ridge_Colorado.html</t>
+  </si>
+  <si>
+    <t>278118091</t>
+  </si>
+  <si>
+    <t>06/05/2015</t>
+  </si>
+  <si>
+    <t>Very nice over all except for the clientele</t>
+  </si>
+  <si>
+    <t>Pros: Clean, comfy, tasteful decor, Dennys right next door, no carpet, proximity to Denver International airportCons: Though “non-smoking” room smelled smoke free, there was 1 cigarette burn on the comforter and astray turned upside down with a no smoking sign on it (which leads me to believe that their non-smoking rooms are not always nonsmoking), creepy clientele</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d240162-r273492232-Motel_6_Denver_West_Wheat_Ridge_North-Wheat_Ridge_Colorado.html</t>
   </si>
   <si>
@@ -567,9 +889,6 @@
     <t>Room was clean with hard surface flooring instead of carpet which I liked. However many cons.... No free Wi-Fi, breakfast, hairdryer, shampoo. Also bedding was old style and gray blanket made it appear old and dirty.</t>
   </si>
   <si>
-    <t>May 2015</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d240162-r263132792-Motel_6_Denver_West_Wheat_Ridge_North-Wheat_Ridge_Colorado.html</t>
   </si>
   <si>
@@ -609,6 +928,51 @@
     <t>We realized when we got to our 2nd hotel that we had left our pillows and phone charger in our room when we had checked out. We were in a rush since we needed to get to a funeral. When we realized we had forgotten stuff we called the hotel and they told us to call back the next day. The next morning we had called back and they basically told us that there was nothing that they could do. My son is special needs and 2 months later is still asking me where his airplane pillow is and keeps asking if we can go back to Colorado to find it. Breaks my heart. To some housekeeper person that may have found it yea, its a great gift to a kid. But to my son it was so much more than just another pillow. I tried to find the same one online but sadly they must not make it anymore. Not only did that put a snag in our trip but, it broke my sons heart. Once in a lifetime trip ruined by some stranger.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d240162-r246892819-Motel_6_Denver_West_Wheat_Ridge_North-Wheat_Ridge_Colorado.html</t>
+  </si>
+  <si>
+    <t>246892819</t>
+  </si>
+  <si>
+    <t>01/01/2015</t>
+  </si>
+  <si>
+    <t>Horrible costumer service</t>
+  </si>
+  <si>
+    <t>My mom reserved this room for 4 nights for her friend. On the 3rd night they took all the things out of the room because they had double booked the room. When we went to ask they said "well she double booked the room and nothing we can do about it" Then while they were looking at it he asked if they had all the stuff out of the room and they said "we can't talk to you right now let us figure this out." My husband and I confronted them about the customer service and they yelled at us for "laughing at them" and said "you can go somewhere else if you would like" Since it was not my reservation I was unable to go somewhere else, but will NEVER go here again. They were very rude. Both of us work in the service industry and would be fired for this behavior!  The front office smelled like smoke and I understand it is budget, but this was ridiculous!MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team member at Motel 6 Denver West Wheat Ridge-North, responded to this reviewResponded January 5, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 5, 2015</t>
+  </si>
+  <si>
+    <t>My mom reserved this room for 4 nights for her friend. On the 3rd night they took all the things out of the room because they had double booked the room. When we went to ask they said "well she double booked the room and nothing we can do about it" Then while they were looking at it he asked if they had all the stuff out of the room and they said "we can't talk to you right now let us figure this out." My husband and I confronted them about the customer service and they yelled at us for "laughing at them" and said "you can go somewhere else if you would like" Since it was not my reservation I was unable to go somewhere else, but will NEVER go here again. They were very rude. Both of us work in the service industry and would be fired for this behavior!  The front office smelled like smoke and I understand it is budget, but this was ridiculous!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d240162-r233913386-Motel_6_Denver_West_Wheat_Ridge_North-Wheat_Ridge_Colorado.html</t>
+  </si>
+  <si>
+    <t>233913386</t>
+  </si>
+  <si>
+    <t>10/12/2014</t>
+  </si>
+  <si>
+    <t>Motel 7!</t>
+  </si>
+  <si>
+    <t>So it was late, I was on the I70 and exhausted. Saw some neon signs promising a bed and a break from driving on the wrong side of the road, swung off the freeway and this was the first motel I found. Expectations were low and I hoped for ok but this place was really OK! Got a smile at check-in and a clean, comfortable and new looking room. There's a 24 Denny's across the car park so didn't have to look very far for dinner and breakfast. The only downside is it's a stones-throw from the freeway so there's a constant, if muted, buzz of traffic, but after a long day traveling it made no difference.MoreShow less</t>
+  </si>
+  <si>
+    <t>So it was late, I was on the I70 and exhausted. Saw some neon signs promising a bed and a break from driving on the wrong side of the road, swung off the freeway and this was the first motel I found. Expectations were low and I hoped for ok but this place was really OK! Got a smile at check-in and a clean, comfortable and new looking room. There's a 24 Denny's across the car park so didn't have to look very far for dinner and breakfast. The only downside is it's a stones-throw from the freeway so there's a constant, if muted, buzz of traffic, but after a long day traveling it made no difference.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d240162-r226303533-Motel_6_Denver_West_Wheat_Ridge_North-Wheat_Ridge_Colorado.html</t>
   </si>
   <si>
@@ -663,6 +1027,38 @@
     <t>Pro: the air conditioning worked.Con: my girlfriend left her iPhone on the bed, as the Find my iPhone app confirmed. We had just checked out but weren't allowed by the front desk to go into the room to check. The message was either not relayed to housekeeping or ignored because within an hour, the phone had been turned off (maybe made its way to laundry or pocketed), and the multiple times I checked in and inquired throughout the day before we left town, it was like it was everyone's first time hearing about it. I love Motel 6, but will never stay at one within 100 miles of this place again.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d240162-r219571537-Motel_6_Denver_West_Wheat_Ridge_North-Wheat_Ridge_Colorado.html</t>
+  </si>
+  <si>
+    <t>219571537</t>
+  </si>
+  <si>
+    <t>Good value in a big city</t>
+  </si>
+  <si>
+    <t>Stayed on night on my way to western Colorado. Motel is in good shape, decent neighborhood,Denny's across from the parking lot. Room was small, clean and nice. Right off of I-70 in a Denver suburb of Wheat ridge. Could not hear the Interstate traffic at night. Good value for the dollar.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d240162-r219523940-Motel_6_Denver_West_Wheat_Ridge_North-Wheat_Ridge_Colorado.html</t>
+  </si>
+  <si>
+    <t>219523940</t>
+  </si>
+  <si>
+    <t>Pleasantly surprised</t>
+  </si>
+  <si>
+    <t>Okay, don't be put off by how sketchy the place looks when you pull in. I arrived after a 10-hour drive and I wanted to turn right around and run as far away as I possibly could. I was a young solo girl traveling with a pet cat (hence the choice to stay at a Motel 6) and all I saw were creepy looking men milling about. But I decided since I was here, I'd at least take a look at the room. I'm SO glad I did! I think I was in 212, and the room was perfect. Definitely small, but since it was just me it didn't matter. There's still room enough for the bed, a table, and a desk with the TV on it. The room is updated in the modern new look that Motel 6 is doing and the whole place was absolutely spotless. Not a bug in sight, which is always nice and can be a rarity in a cheap motel. The staff was extremely polite and kind. I don't know why this place isn't rated higher -- I mean, I get it's not the most glamorous place, but I have zero complaints and it was exactly what a needed: a clean, pet-friendly place to spend a night. 
+Swing by the Starbucks drive-thru across the street in the morning. Some of the nicest, happiest people work there and they started off the next leg of...Okay, don't be put off by how sketchy the place looks when you pull in. I arrived after a 10-hour drive and I wanted to turn right around and run as far away as I possibly could. I was a young solo girl traveling with a pet cat (hence the choice to stay at a Motel 6) and all I saw were creepy looking men milling about. But I decided since I was here, I'd at least take a look at the room. I'm SO glad I did! I think I was in 212, and the room was perfect. Definitely small, but since it was just me it didn't matter. There's still room enough for the bed, a table, and a desk with the TV on it. The room is updated in the modern new look that Motel 6 is doing and the whole place was absolutely spotless. Not a bug in sight, which is always nice and can be a rarity in a cheap motel. The staff was extremely polite and kind. I don't know why this place isn't rated higher -- I mean, I get it's not the most glamorous place, but I have zero complaints and it was exactly what a needed: a clean, pet-friendly place to spend a night. Swing by the Starbucks drive-thru across the street in the morning. Some of the nicest, happiest people work there and they started off the next leg of my road trip on a great note.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>Okay, don't be put off by how sketchy the place looks when you pull in. I arrived after a 10-hour drive and I wanted to turn right around and run as far away as I possibly could. I was a young solo girl traveling with a pet cat (hence the choice to stay at a Motel 6) and all I saw were creepy looking men milling about. But I decided since I was here, I'd at least take a look at the room. I'm SO glad I did! I think I was in 212, and the room was perfect. Definitely small, but since it was just me it didn't matter. There's still room enough for the bed, a table, and a desk with the TV on it. The room is updated in the modern new look that Motel 6 is doing and the whole place was absolutely spotless. Not a bug in sight, which is always nice and can be a rarity in a cheap motel. The staff was extremely polite and kind. I don't know why this place isn't rated higher -- I mean, I get it's not the most glamorous place, but I have zero complaints and it was exactly what a needed: a clean, pet-friendly place to spend a night. 
+Swing by the Starbucks drive-thru across the street in the morning. Some of the nicest, happiest people work there and they started off the next leg of...Okay, don't be put off by how sketchy the place looks when you pull in. I arrived after a 10-hour drive and I wanted to turn right around and run as far away as I possibly could. I was a young solo girl traveling with a pet cat (hence the choice to stay at a Motel 6) and all I saw were creepy looking men milling about. But I decided since I was here, I'd at least take a look at the room. I'm SO glad I did! I think I was in 212, and the room was perfect. Definitely small, but since it was just me it didn't matter. There's still room enough for the bed, a table, and a desk with the TV on it. The room is updated in the modern new look that Motel 6 is doing and the whole place was absolutely spotless. Not a bug in sight, which is always nice and can be a rarity in a cheap motel. The staff was extremely polite and kind. I don't know why this place isn't rated higher -- I mean, I get it's not the most glamorous place, but I have zero complaints and it was exactly what a needed: a clean, pet-friendly place to spend a night. Swing by the Starbucks drive-thru across the street in the morning. Some of the nicest, happiest people work there and they started off the next leg of my road trip on a great note.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d240162-r219247708-Motel_6_Denver_West_Wheat_Ridge_North-Wheat_Ridge_Colorado.html</t>
   </si>
   <si>
@@ -681,9 +1077,6 @@
     <t>May 2014</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with friends</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d240162-r218070416-Motel_6_Denver_West_Wheat_Ridge_North-Wheat_Ridge_Colorado.html</t>
   </si>
   <si>
@@ -699,9 +1092,6 @@
     <t>This motel 6 is well located...denny's next door, tons of restaurants within blocks, starbucks close, etc.  Just off the freeway.  Typical motel 6 otherwise...staff seems pretty good.   Seems like it has a very high occupancy.</t>
   </si>
   <si>
-    <t>July 2014</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d240162-r217876294-Motel_6_Denver_West_Wheat_Ridge_North-Wheat_Ridge_Colorado.html</t>
   </si>
   <si>
@@ -715,6 +1105,42 @@
   </si>
   <si>
     <t>The rooms are outside. The room is on the small side. Front desk was very friendly and helpful on places to eat. Good location. Lots of choices to eat close by. Clean and comfortable room. Quiet during the night and felt our car was safe outside. Great value.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d240162-r216646127-Motel_6_Denver_West_Wheat_Ridge_North-Wheat_Ridge_Colorado.html</t>
+  </si>
+  <si>
+    <t>216646127</t>
+  </si>
+  <si>
+    <t>07/21/2014</t>
+  </si>
+  <si>
+    <t>Gross</t>
+  </si>
+  <si>
+    <t>This hotel was decent, but the room itself was a little... disgusting. I'm not sure how thoroughly they clean their rooms, but by the look of things, it's not often. I was about to get into my bed when I saw that my sheets were tinted yellow and my bedspread had many questionable stains all over it, (trying to keep it PG here, but those weren't ordinary stains). There were pubic hairs in the sheets and on the bathroom floor. The floor in the room was terribly dirty and there was a booger on the wall. On top of it all, the room was supposed to be non-smoking, but it reeked of smoke when we checked in. The walls are thin so you can hear everything outside your room. I totally understand that this isn't a fancy hotel by any means, but for $82 a night, I was hoping for something a little cleaner. And the lack of free Wi-Fi was a little strange to me. Even at the cheapest hotels I've stayed in, there was free Wi-Fi...MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel was decent, but the room itself was a little... disgusting. I'm not sure how thoroughly they clean their rooms, but by the look of things, it's not often. I was about to get into my bed when I saw that my sheets were tinted yellow and my bedspread had many questionable stains all over it, (trying to keep it PG here, but those weren't ordinary stains). There were pubic hairs in the sheets and on the bathroom floor. The floor in the room was terribly dirty and there was a booger on the wall. On top of it all, the room was supposed to be non-smoking, but it reeked of smoke when we checked in. The walls are thin so you can hear everything outside your room. I totally understand that this isn't a fancy hotel by any means, but for $82 a night, I was hoping for something a little cleaner. And the lack of free Wi-Fi was a little strange to me. Even at the cheapest hotels I've stayed in, there was free Wi-Fi...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d240162-r213543043-Motel_6_Denver_West_Wheat_Ridge_North-Wheat_Ridge_Colorado.html</t>
+  </si>
+  <si>
+    <t>213543043</t>
+  </si>
+  <si>
+    <t>07/03/2014</t>
+  </si>
+  <si>
+    <t>Great for the Rate</t>
+  </si>
+  <si>
+    <t>The hotel is clean, comfortable and updated. Its a Motel 6 so dont look for a palace. Compared to other Motel 6 in Denver, this one is the cleanest, safest and nicest. There is a Dennys in the parking lot and a Target a block away. The neighborhood is also safe.</t>
+  </si>
+  <si>
+    <t>June 2014</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d240162-r212470668-Motel_6_Denver_West_Wheat_Ridge_North-Wheat_Ridge_Colorado.html</t>
@@ -735,9 +1161,6 @@
 The wi-fi gave me some problems signing in.  I had purchased a code, but never got a page to let me sign in.  The technical support over the phone was phenomenal, but still, it was a step I wish I did not have to take.  I'm quite computer savvy and have never had to call to get signed in anywhere.  Once I was...This hotel seems to have a zero tolerance for people to get a room before 3:00 p.m.  We arrived at the hotel around 1:30 and were told to come back at 3:00 when check in arrives.  We asked if by any chance any rooms would be ready before then, as we traveled long, did not sleep well, and had a dog to entertain.  Some hotels allow early check in, this one does not.  When we arrived back at 2:55, we were told once again that there were no rooms ready.  I let them know that I had been there earlier and was told that a room would be ready at 3:00.  She said "Okay" and started to check us in.  Once we got to a room, we were quite satisfied with the way that it looked.  The pillows were a bit flat for our taste, but we were able to sleep.  The air conditioner worked great, the shower had awesome water pressure, and the rooms looked more modern than other hotel rooms that are the same price.The wi-fi gave me some problems signing in.  I had purchased a code, but never got a page to let me sign in.  The technical support over the phone was phenomenal, but still, it was a step I wish I did not have to take.  I'm quite computer savvy and have never had to call to get signed in anywhere.  Once I was able to browse the web, the wi-fi connection was quite slow and I had a difficult time finishing some of my work that is web based.If you just want a bed to sleep in, a shower to clean up in, and a comfortable night's rest; this is the place for you.  If you need to get online and browse the web, the connection is quite slow and was not productive at times.MoreShow less</t>
   </si>
   <si>
-    <t>June 2014</t>
-  </si>
-  <si>
     <t>This hotel seems to have a zero tolerance for people to get a room before 3:00 p.m.  We arrived at the hotel around 1:30 and were told to come back at 3:00 when check in arrives.  We asked if by any chance any rooms would be ready before then, as we traveled long, did not sleep well, and had a dog to entertain.  Some hotels allow early check in, this one does not.  
 When we arrived back at 2:55, we were told once again that there were no rooms ready.  I let them know that I had been there earlier and was told that a room would be ready at 3:00.  She said "Okay" and started to check us in.  
 Once we got to a room, we were quite satisfied with the way that it looked.  The pillows were a bit flat for our taste, but we were able to sleep.  The air conditioner worked great, the shower had awesome water pressure, and the rooms looked more modern than other hotel rooms that are the same price.
@@ -780,6 +1203,48 @@
     <t>We have been staying at Motel 6 for  a long time now at different locations across the country because of the rates and for the most part decent and the staff has always been pleasant. But this location NEEDS to have a whole new staff !! Rude, talks down to guests, acts like they're better, charges change daily instead of only on weekends. The list goes on and on OH! Don't think about getting too much ice either because they monitor EVERYTHING and are also police loving callers. The manager is pathetic along with the rest of the front desk crew, they all need a lesson in customer service and GOOD business ethics. I don't for see this location being open much longer with these people running it to the ground. Lastly if your internet doesn't work it's NOT my job as a paying guest to call tech support it's the damn managements job !!! We're on business here when we are done with our long day the last thing we want to have to deal with is fussing with tech support...DO YOUR JOB PEOPLE OR GET OUT OF THE KITCHEN !!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d240162-r196572818-Motel_6_Denver_West_Wheat_Ridge_North-Wheat_Ridge_Colorado.html</t>
+  </si>
+  <si>
+    <t>196572818</t>
+  </si>
+  <si>
+    <t>03/07/2014</t>
+  </si>
+  <si>
+    <t>Nice and dog friendly Motel 6</t>
+  </si>
+  <si>
+    <t>I switched to this Motel 6 as I have a well behaved rescued pit bull, but they are 'illegal' in Denver.  I was hesitant about it being too far from the city, but this was not a problem  (Not close but not too far either).  The clerk, a 'dog' person, was friendly, polite and helpful.  I didn't like the location of the first room and she switched me immediately without a problem.   The second floor room was cozy and quiet despite the motel being full.  The courtyard cannot be used by dogs but there is a large and long area designated for dogs on the south side that worked well for walks.The area is suburban and safe (not quite getting the other reviews saying otherwise).  There are restaurants and shops in the area.  There is Super Target up the road nearby.   A bowling alley across the street as well.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>I switched to this Motel 6 as I have a well behaved rescued pit bull, but they are 'illegal' in Denver.  I was hesitant about it being too far from the city, but this was not a problem  (Not close but not too far either).  The clerk, a 'dog' person, was friendly, polite and helpful.  I didn't like the location of the first room and she switched me immediately without a problem.   The second floor room was cozy and quiet despite the motel being full.  The courtyard cannot be used by dogs but there is a large and long area designated for dogs on the south side that worked well for walks.The area is suburban and safe (not quite getting the other reviews saying otherwise).  There are restaurants and shops in the area.  There is Super Target up the road nearby.   A bowling alley across the street as well.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d240162-r186252223-Motel_6_Denver_West_Wheat_Ridge_North-Wheat_Ridge_Colorado.html</t>
+  </si>
+  <si>
+    <t>186252223</t>
+  </si>
+  <si>
+    <t>11/29/2013</t>
+  </si>
+  <si>
+    <t>worst motel 6 in country DON'T STAY HERE!!!!!!!!</t>
+  </si>
+  <si>
+    <t>I am a truck driver and have stayed in motel 6 all over the country most of them are great but this one is extremely terrible. The desk staff are very cold and rude, if you have problem or a question you are treated like you are stupid and are bothering them. On the day that I was checking out I went to the desk and asked if I could have a little extra time to get my things out of the room. You have thought that I had ask one of the worst questions ever because I was told that there is no late check outs and then I was told that this is the managers policy and that is the way it is then I was told to get as much of my things out of the room by 12:00pm. when I voiced my opinion about this policy the desk clerk got very irritated and rude. I will never stay at this motel 6 ever again and I encourage others to do the same.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>I am a truck driver and have stayed in motel 6 all over the country most of them are great but this one is extremely terrible. The desk staff are very cold and rude, if you have problem or a question you are treated like you are stupid and are bothering them. On the day that I was checking out I went to the desk and asked if I could have a little extra time to get my things out of the room. You have thought that I had ask one of the worst questions ever because I was told that there is no late check outs and then I was told that this is the managers policy and that is the way it is then I was told to get as much of my things out of the room by 12:00pm. when I voiced my opinion about this policy the desk clerk got very irritated and rude. I will never stay at this motel 6 ever again and I encourage others to do the same.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d240162-r185613767-Motel_6_Denver_West_Wheat_Ridge_North-Wheat_Ridge_Colorado.html</t>
   </si>
   <si>
@@ -834,6 +1299,48 @@
     <t>Denver has instituted a crime stopping program that seems to be working.  We neither saw nor heard any annoying behavior.  Room was adequate size and very clean.  I appreciate their eco request, which is new sheets every three days instead of each day for long term visitors.We stayed eight days.  Used the ashtrays for pocket change and keys and telephones, but wished they were not there.  Smokers outside rooms under non-smoker A/C units was annoying.Everyone who worked the desk was polite and professional with us.  I think a cat had been in our room, which means the pet policy was a problem for my allergies.  Overall an excellent experience for sleeping room only for us, and certainly the best value for our moneyMore</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d240162-r174363264-Motel_6_Denver_West_Wheat_Ridge_North-Wheat_Ridge_Colorado.html</t>
+  </si>
+  <si>
+    <t>174363264</t>
+  </si>
+  <si>
+    <t>08/27/2013</t>
+  </si>
+  <si>
+    <t>You Get What You Pay For</t>
+  </si>
+  <si>
+    <t>New studio type with laminate floors!  Love it.  No mystery carpet. Bedding better than those nasty bedspreads and blankets at locations.  HOWEVER: our non smoking room stank of smoke.  Why is there an ashtray in there - even if to hold the "no smoking" sign? People who hate Motel 6 usually do for all the wrong reasons. We choose Motel 6 cause they are usually clean and our dog is a non issue. Hate paying $3 for wifi. Def a better property tho</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d240162-r167732613-Motel_6_Denver_West_Wheat_Ridge_North-Wheat_Ridge_Colorado.html</t>
+  </si>
+  <si>
+    <t>167732613</t>
+  </si>
+  <si>
+    <t>07/15/2013</t>
+  </si>
+  <si>
+    <t>Stay somewhere else!</t>
+  </si>
+  <si>
+    <t>The check in clerk is very rude! I made reservations weeks in advance and they did not follow through with my request. I asked for a room on the lower level because I have a geriatric dog that could not climb the stairs. The male clerk was rude and would not apply my reservation as I had made. The "non" smoking rooms smell like a smokey bar and the rooms were not very clean. There was hair on the floors and the bed had dirty sheets and covers with pee stains. It is in a very rough area and we were concerned about the safety of our selves and belongings. Just stopping through Denver for the night and I wish I had made a reservation elsewhere. MoreShow less</t>
+  </si>
+  <si>
+    <t>Motel6, Public Relations Manager at Motel 6 Denver West Wheat Ridge-North, responded to this reviewResponded July 22, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 22, 2013</t>
+  </si>
+  <si>
+    <t>The check in clerk is very rude! I made reservations weeks in advance and they did not follow through with my request. I asked for a room on the lower level because I have a geriatric dog that could not climb the stairs. The male clerk was rude and would not apply my reservation as I had made. The "non" smoking rooms smell like a smokey bar and the rooms were not very clean. There was hair on the floors and the bed had dirty sheets and covers with pee stains. It is in a very rough area and we were concerned about the safety of our selves and belongings. Just stopping through Denver for the night and I wish I had made a reservation elsewhere. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d240162-r166814147-Motel_6_Denver_West_Wheat_Ridge_North-Wheat_Ridge_Colorado.html</t>
   </si>
   <si>
@@ -888,6 +1395,44 @@
     <t>The motel was clean and updated. The dog walk area was dangerous. It was an area full of weeds, broken glass and cans with sharp edges everywhere. We wouldn't stop again if we had our dog with us. The staff was friendly.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d240162-r160809588-Motel_6_Denver_West_Wheat_Ridge_North-Wheat_Ridge_Colorado.html</t>
+  </si>
+  <si>
+    <t>160809588</t>
+  </si>
+  <si>
+    <t>05/15/2013</t>
+  </si>
+  <si>
+    <t>So Cheap and Clean</t>
+  </si>
+  <si>
+    <t>This 4 star rating is not saying this is a 4 star hotel by any means, its a motel 6.  However, its newly remodeled, clean, the staff are friendly, and the price is seriously cheap as chips...40/night.  Considering every other hotel we considered was 70 dollars we were very impressed with this place.  We were just stopping from a long drive for the night, so all we wanted was a bed and food.  There is a Denny's in the adjacent parking lot and several trucker bars and fast food joints within walking distance.  However, I don't advise walking as its on a busy highway ramp area.  But that is another good thing its right off the ramp.  There is also a bowling alley across the street, if we had been there earlier we would have walked over for sure.  At first I thought it was kind of a shady area because the night window is how you check in late, but the I looked around and realized its a big hotel there are lots of people around, especially because of the 24-hour denny's outside and it seemed pretty safe.  
+The only bummer is that you have to pay extra for wifi, but we had our own wifi on our phones so we didn't really miss out since we just showed up to sleep and shower.  Overall it was one of the nicest motel 6's I have ever stayed at and...This 4 star rating is not saying this is a 4 star hotel by any means, its a motel 6.  However, its newly remodeled, clean, the staff are friendly, and the price is seriously cheap as chips...40/night.  Considering every other hotel we considered was 70 dollars we were very impressed with this place.  We were just stopping from a long drive for the night, so all we wanted was a bed and food.  There is a Denny's in the adjacent parking lot and several trucker bars and fast food joints within walking distance.  However, I don't advise walking as its on a busy highway ramp area.  But that is another good thing its right off the ramp.  There is also a bowling alley across the street, if we had been there earlier we would have walked over for sure.  At first I thought it was kind of a shady area because the night window is how you check in late, but the I looked around and realized its a big hotel there are lots of people around, especially because of the 24-hour denny's outside and it seemed pretty safe.  The only bummer is that you have to pay extra for wifi, but we had our own wifi on our phones so we didn't really miss out since we just showed up to sleep and shower.  Overall it was one of the nicest motel 6's I have ever stayed at and we are a young couple on a budget so we stay at a lot of 6-like places.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>This 4 star rating is not saying this is a 4 star hotel by any means, its a motel 6.  However, its newly remodeled, clean, the staff are friendly, and the price is seriously cheap as chips...40/night.  Considering every other hotel we considered was 70 dollars we were very impressed with this place.  We were just stopping from a long drive for the night, so all we wanted was a bed and food.  There is a Denny's in the adjacent parking lot and several trucker bars and fast food joints within walking distance.  However, I don't advise walking as its on a busy highway ramp area.  But that is another good thing its right off the ramp.  There is also a bowling alley across the street, if we had been there earlier we would have walked over for sure.  At first I thought it was kind of a shady area because the night window is how you check in late, but the I looked around and realized its a big hotel there are lots of people around, especially because of the 24-hour denny's outside and it seemed pretty safe.  
+The only bummer is that you have to pay extra for wifi, but we had our own wifi on our phones so we didn't really miss out since we just showed up to sleep and shower.  Overall it was one of the nicest motel 6's I have ever stayed at and...This 4 star rating is not saying this is a 4 star hotel by any means, its a motel 6.  However, its newly remodeled, clean, the staff are friendly, and the price is seriously cheap as chips...40/night.  Considering every other hotel we considered was 70 dollars we were very impressed with this place.  We were just stopping from a long drive for the night, so all we wanted was a bed and food.  There is a Denny's in the adjacent parking lot and several trucker bars and fast food joints within walking distance.  However, I don't advise walking as its on a busy highway ramp area.  But that is another good thing its right off the ramp.  There is also a bowling alley across the street, if we had been there earlier we would have walked over for sure.  At first I thought it was kind of a shady area because the night window is how you check in late, but the I looked around and realized its a big hotel there are lots of people around, especially because of the 24-hour denny's outside and it seemed pretty safe.  The only bummer is that you have to pay extra for wifi, but we had our own wifi on our phones so we didn't really miss out since we just showed up to sleep and shower.  Overall it was one of the nicest motel 6's I have ever stayed at and we are a young couple on a budget so we stay at a lot of 6-like places.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d240162-r156438202-Motel_6_Denver_West_Wheat_Ridge_North-Wheat_Ridge_Colorado.html</t>
+  </si>
+  <si>
+    <t>156438202</t>
+  </si>
+  <si>
+    <t>04/02/2013</t>
+  </si>
+  <si>
+    <t>Stabbing!</t>
+  </si>
+  <si>
+    <t>Its unfortunate to know theres a real tragedy when you see crime scene investagators and ask front desk if we are in safe area. And ask if we should be worried on wgats going on around the corner from our room. Firetrycks police ambulance! I know you cant prevent everything in life or at your facility but HONESTY is best policy. Maybe the employess had a gag order I dont know. But feeding us full of crap doesnt cut it when comes to my family. God be with this man who was stabbed and pray for justice and peace</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d240162-r152527593-Motel_6_Denver_West_Wheat_Ridge_North-Wheat_Ridge_Colorado.html</t>
   </si>
   <si>
@@ -939,6 +1484,42 @@
     <t>November 2012</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d240162-r143846253-Motel_6_Denver_West_Wheat_Ridge_North-Wheat_Ridge_Colorado.html</t>
+  </si>
+  <si>
+    <t>143846253</t>
+  </si>
+  <si>
+    <t>10/27/2012</t>
+  </si>
+  <si>
+    <t>Very affordable</t>
+  </si>
+  <si>
+    <t>Room was very clean and quiet. But very basic. TV was very limited and no coffee pot or any of the usual amenities you get in others. Nice people at the desk and if you just want to crash and go on, this is the place to go.</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d240162-r140449991-Motel_6_Denver_West_Wheat_Ridge_North-Wheat_Ridge_Colorado.html</t>
+  </si>
+  <si>
+    <t>140449991</t>
+  </si>
+  <si>
+    <t>09/16/2012</t>
+  </si>
+  <si>
+    <t>yuck</t>
+  </si>
+  <si>
+    <t>We reserved a non smoking room nearly a week in advance, but when we got there, it was a smoking room, and it stunk like cigarette smoke.  The rooms have been renovated, but there there multiple stains on the bedspread.   There were foot prints from the door to the bathroom, and there was several long black hairs on the bedsheet, as well as in the towel.  It made me sick to look at it, but we had just driven nearly 14 hours and we were exhausted.  After I carefully took a shower, the bathroom door stuck shut so much that I had to pull with both hands just to get it open.  The positives are that the desk clerk was very nice, it is close to I-70, close to Denny's, Burger King, Subway and a Target.  But we would not go back to this Motel 6MoreShow less</t>
+  </si>
+  <si>
+    <t>We reserved a non smoking room nearly a week in advance, but when we got there, it was a smoking room, and it stunk like cigarette smoke.  The rooms have been renovated, but there there multiple stains on the bedspread.   There were foot prints from the door to the bathroom, and there was several long black hairs on the bedsheet, as well as in the towel.  It made me sick to look at it, but we had just driven nearly 14 hours and we were exhausted.  After I carefully took a shower, the bathroom door stuck shut so much that I had to pull with both hands just to get it open.  The positives are that the desk clerk was very nice, it is close to I-70, close to Denny's, Burger King, Subway and a Target.  But we would not go back to this Motel 6More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d240162-r137302008-Motel_6_Denver_West_Wheat_Ridge_North-Wheat_Ridge_Colorado.html</t>
   </si>
   <si>
@@ -996,6 +1577,39 @@
     <t>June 2012</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d240162-r118367006-Motel_6_Denver_West_Wheat_Ridge_North-Wheat_Ridge_Colorado.html</t>
+  </si>
+  <si>
+    <t>118367006</t>
+  </si>
+  <si>
+    <t>09/20/2011</t>
+  </si>
+  <si>
+    <t>Good for overnight sleep</t>
+  </si>
+  <si>
+    <t>Regular Motel 6 looks, reasonably priced. Rooms tend to be a bit noisy. No significant problems, I wouldn't recommend it for a long stay in Denver.</t>
+  </si>
+  <si>
+    <t>July 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d240162-r114674867-Motel_6_Denver_West_Wheat_Ridge_North-Wheat_Ridge_Colorado.html</t>
+  </si>
+  <si>
+    <t>114674867</t>
+  </si>
+  <si>
+    <t>06/23/2011</t>
+  </si>
+  <si>
+    <t>Great remodeled rooms, very clean!</t>
+  </si>
+  <si>
+    <t>My best experience at a motel 6. My family was pleasantly surprised with the fresh paint, new fixtures, and wood-like linoleum floors. Definitely going to stay there again on our return trip home. Very affordable and no pet fees. Perfect if you're on a budget.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d240162-r85039874-Motel_6_Denver_West_Wheat_Ridge_North-Wheat_Ridge_Colorado.html</t>
   </si>
   <si>
@@ -1051,6 +1665,42 @@
   </si>
   <si>
     <t>September 2008</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d240162-r13921240-Motel_6_Denver_West_Wheat_Ridge_North-Wheat_Ridge_Colorado.html</t>
+  </si>
+  <si>
+    <t>13921240</t>
+  </si>
+  <si>
+    <t>02/28/2008</t>
+  </si>
+  <si>
+    <t>Cheap as can be-Stay Away</t>
+  </si>
+  <si>
+    <t>I stayed here for one night due to its location on I-70 and price. My God how sad this hotel is, for $50/ night all you get is a lumpy bed, bad reception TV, dirty floors(I was afraid to take my shoes off), don't even ask about the 'comforter', the sheets and towels you could read thru, a tiny bar of soap, u pay vending machines for the shampoo. I will never stay at another Motel 6 if this is an indication of the chain.</t>
+  </si>
+  <si>
+    <t>February 2008</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d240162-r10909366-Motel_6_Denver_West_Wheat_Ridge_North-Wheat_Ridge_Colorado.html</t>
+  </si>
+  <si>
+    <t>10909366</t>
+  </si>
+  <si>
+    <t>11/18/2007</t>
+  </si>
+  <si>
+    <t>Well.....expect no more than to save money. No more.</t>
+  </si>
+  <si>
+    <t>Remember those great commercials a few years ago for Motel 6...i.e. "we'll leave the light on for you"? They seemed so homey and simple...and good for the price.............forget it.  Really. Sure, they are cheap. But so is everything else about these rooms.  Yeah, it looked kinda clean. But only kinda. The bedspread looked like the maid was bored and in a rush. The only chair in the room looked like it desperately needed to be swept. And the vent on the ceiling before the bathroom door was FILLED with lent. At first blush, the bathroom looked new.  But....the fan didn't work, and it took a long time for the hot water to come through. My overall impression? Motel 6 is going to the birds.  Next time, I'll pay more money to at least feel like I'm in a motel that WILL leave the light one for me, because this AIN'T IT.MoreShow less</t>
+  </si>
+  <si>
+    <t>Remember those great commercials a few years ago for Motel 6...i.e. "we'll leave the light on for you"? They seemed so homey and simple...and good for the price.............forget it.  Really. Sure, they are cheap. But so is everything else about these rooms.  Yeah, it looked kinda clean. But only kinda. The bedspread looked like the maid was bored and in a rush. The only chair in the room looked like it desperately needed to be swept. And the vent on the ceiling before the bathroom door was FILLED with lent. At first blush, the bathroom looked new.  But....the fan didn't work, and it took a long time for the hot water to come through. My overall impression? Motel 6 is going to the birds.  Next time, I'll pay more money to at least feel like I'm in a motel that WILL leave the light one for me, because this AIN'T IT.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33694-d240162-r4415811-Motel_6_Denver_West_Wheat_Ridge_North-Wheat_Ridge_Colorado.html</t>
@@ -1648,7 +2298,7 @@
         <v>51</v>
       </c>
       <c r="M2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N2" t="s">
         <v>52</v>
@@ -1657,22 +2307,18 @@
         <v>53</v>
       </c>
       <c r="P2" t="s"/>
-      <c r="Q2" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="n">
-        <v>3</v>
-      </c>
+      <c r="U2" t="s"/>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3">
@@ -1688,7 +2334,7 @@
         <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G3" t="s">
         <v>46</v>
@@ -1697,33 +2343,33 @@
         <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M3" t="n">
         <v>3</v>
       </c>
       <c r="N3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O3" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="P3" t="s"/>
-      <c r="Q3" t="s"/>
-      <c r="R3" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q3" t="n">
+        <v>3</v>
+      </c>
+      <c r="R3" t="s"/>
       <c r="S3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T3" t="s"/>
       <c r="U3" t="n">
@@ -1735,7 +2381,7 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4">
@@ -1751,7 +2397,7 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G4" t="s">
         <v>46</v>
@@ -1760,35 +2406,37 @@
         <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="L4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="s">
+        <v>67</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="n">
         <v>3</v>
       </c>
-      <c r="N4" t="s">
-        <v>65</v>
-      </c>
-      <c r="O4" t="s">
-        <v>66</v>
-      </c>
-      <c r="P4" t="s"/>
-      <c r="Q4" t="s"/>
       <c r="R4" t="s"/>
       <c r="S4" t="n">
         <v>4</v>
       </c>
       <c r="T4" t="s"/>
       <c r="U4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -1796,7 +2444,7 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5">
@@ -1812,7 +2460,7 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G5" t="s">
         <v>46</v>
@@ -1821,35 +2469,43 @@
         <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="L5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="M5" t="n">
-        <v>5</v>
-      </c>
-      <c r="N5" t="s"/>
-      <c r="O5" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
+        <v>74</v>
+      </c>
+      <c r="O5" t="s">
+        <v>61</v>
+      </c>
       <c r="P5" t="s"/>
-      <c r="Q5" t="s"/>
+      <c r="Q5" t="n">
+        <v>3</v>
+      </c>
       <c r="R5" t="s"/>
       <c r="S5" t="s"/>
       <c r="T5" t="s"/>
-      <c r="U5" t="s"/>
+      <c r="U5" t="n">
+        <v>3</v>
+      </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6">
@@ -1865,7 +2521,7 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G6" t="s">
         <v>46</v>
@@ -1874,37 +2530,37 @@
         <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J6" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="K6" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="L6" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N6" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="O6" t="s">
-        <v>78</v>
-      </c>
-      <c r="P6" t="n">
-        <v>5</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
       <c r="R6" t="n">
+        <v>4</v>
+      </c>
+      <c r="S6" t="n">
         <v>5</v>
       </c>
-      <c r="S6" t="s"/>
       <c r="T6" t="s"/>
       <c r="U6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1912,7 +2568,7 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7">
@@ -1928,7 +2584,7 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G7" t="s">
         <v>46</v>
@@ -1937,37 +2593,35 @@
         <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="M7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="O7" t="s">
-        <v>78</v>
-      </c>
-      <c r="P7" t="n">
-        <v>3</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
       <c r="R7" t="s"/>
       <c r="S7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T7" t="s"/>
       <c r="U7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1975,7 +2629,7 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8">
@@ -1991,7 +2645,7 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G8" t="s">
         <v>46</v>
@@ -2000,35 +2654,37 @@
         <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="J8" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="K8" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="L8" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M8" t="n">
         <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="O8" t="s">
-        <v>66</v>
-      </c>
-      <c r="P8" t="s"/>
+        <v>94</v>
+      </c>
+      <c r="P8" t="n">
+        <v>4</v>
+      </c>
       <c r="Q8" t="s"/>
-      <c r="R8" t="s"/>
-      <c r="S8" t="n">
-        <v>5</v>
-      </c>
+      <c r="R8" t="n">
+        <v>3</v>
+      </c>
+      <c r="S8" t="s"/>
       <c r="T8" t="s"/>
       <c r="U8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -2036,7 +2692,7 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9">
@@ -2052,7 +2708,7 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="G9" t="s">
         <v>46</v>
@@ -2061,32 +2717,32 @@
         <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="J9" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="K9" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="L9" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="M9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="O9" t="s">
         <v>53</v>
       </c>
       <c r="P9" t="s"/>
-      <c r="Q9" t="s"/>
+      <c r="Q9" t="n">
+        <v>4</v>
+      </c>
       <c r="R9" t="s"/>
-      <c r="S9" t="n">
-        <v>5</v>
-      </c>
+      <c r="S9" t="s"/>
       <c r="T9" t="s"/>
       <c r="U9" t="n">
         <v>5</v>
@@ -2097,7 +2753,7 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10">
@@ -2113,7 +2769,7 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="G10" t="s">
         <v>46</v>
@@ -2122,45 +2778,35 @@
         <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="J10" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="K10" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="L10" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="s">
-        <v>77</v>
-      </c>
-      <c r="O10" t="s">
-        <v>66</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N10" t="s"/>
+      <c r="O10" t="s"/>
       <c r="P10" t="s"/>
-      <c r="Q10" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q10" t="s"/>
       <c r="R10" t="s"/>
-      <c r="S10" t="n">
-        <v>3</v>
-      </c>
+      <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="n">
-        <v>1</v>
-      </c>
+      <c r="U10" t="s"/>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11">
@@ -2176,7 +2822,7 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="G11" t="s">
         <v>46</v>
@@ -2185,39 +2831,45 @@
         <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="J11" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="K11" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="L11" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="M11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="O11" t="s">
-        <v>53</v>
-      </c>
-      <c r="P11" t="s"/>
+        <v>94</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
       <c r="Q11" t="s"/>
-      <c r="R11" t="s"/>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
       <c r="S11" t="s"/>
       <c r="T11" t="s"/>
-      <c r="U11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12">
@@ -2233,7 +2885,7 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="G12" t="s">
         <v>46</v>
@@ -2242,39 +2894,45 @@
         <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="J12" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="K12" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="L12" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="M12" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="O12" t="s">
-        <v>78</v>
-      </c>
-      <c r="P12" t="s"/>
+        <v>94</v>
+      </c>
+      <c r="P12" t="n">
+        <v>3</v>
+      </c>
       <c r="Q12" t="s"/>
       <c r="R12" t="s"/>
-      <c r="S12" t="s"/>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
       <c r="T12" t="s"/>
-      <c r="U12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13">
@@ -2290,7 +2948,7 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="G13" t="s">
         <v>46</v>
@@ -2299,25 +2957,25 @@
         <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="J13" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K13" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="L13" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="M13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="O13" t="s">
-        <v>78</v>
+        <v>122</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -2331,7 +2989,7 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14">
@@ -2347,7 +3005,7 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="G14" t="s">
         <v>46</v>
@@ -2356,43 +3014,39 @@
         <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="J14" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="K14" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="L14" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="M14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="O14" t="s">
-        <v>66</v>
-      </c>
-      <c r="P14" t="n">
-        <v>5</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
       <c r="R14" t="s"/>
       <c r="S14" t="s"/>
       <c r="T14" t="s"/>
-      <c r="U14" t="n">
-        <v>4</v>
-      </c>
+      <c r="U14" t="s"/>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15">
@@ -2408,7 +3062,7 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G15" t="s">
         <v>46</v>
@@ -2417,35 +3071,35 @@
         <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="J15" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K15" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L15" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="M15" t="n">
         <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="O15" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
       <c r="R15" t="s"/>
       <c r="S15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T15" t="s"/>
       <c r="U15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -2453,7 +3107,7 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16">
@@ -2469,7 +3123,7 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G16" t="s">
         <v>46</v>
@@ -2478,37 +3132,35 @@
         <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="J16" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K16" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L16" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>136</v>
+        <v>111</v>
       </c>
       <c r="O16" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="P16" t="s"/>
-      <c r="Q16" t="n">
-        <v>4</v>
-      </c>
-      <c r="R16" t="n">
-        <v>3</v>
-      </c>
-      <c r="S16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
       <c r="T16" t="s"/>
       <c r="U16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -2516,7 +3168,7 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="17">
@@ -2532,7 +3184,7 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G17" t="s">
         <v>46</v>
@@ -2541,39 +3193,45 @@
         <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="J17" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K17" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L17" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M17" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>142</v>
+        <v>111</v>
       </c>
       <c r="O17" t="s">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="P17" t="s"/>
-      <c r="Q17" t="s"/>
+      <c r="Q17" t="n">
+        <v>3</v>
+      </c>
       <c r="R17" t="s"/>
-      <c r="S17" t="s"/>
+      <c r="S17" t="n">
+        <v>3</v>
+      </c>
       <c r="T17" t="s"/>
-      <c r="U17" t="s"/>
+      <c r="U17" t="n">
+        <v>1</v>
+      </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="18">
@@ -2589,7 +3247,7 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G18" t="s">
         <v>46</v>
@@ -2598,43 +3256,39 @@
         <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="J18" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K18" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L18" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>148</v>
+        <v>111</v>
       </c>
       <c r="O18" t="s">
-        <v>66</v>
+        <v>122</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
-      <c r="R18" t="n">
-        <v>4</v>
-      </c>
+      <c r="R18" t="s"/>
       <c r="S18" t="s"/>
       <c r="T18" t="s"/>
-      <c r="U18" t="n">
-        <v>4</v>
-      </c>
+      <c r="U18" t="s"/>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="19">
@@ -2671,13 +3325,13 @@
         <v>153</v>
       </c>
       <c r="M19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="O19" t="s">
-        <v>66</v>
+        <v>122</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -2707,7 +3361,7 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G20" t="s">
         <v>46</v>
@@ -2716,47 +3370,39 @@
         <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="J20" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K20" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L20" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N20" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O20" t="s">
-        <v>160</v>
+        <v>61</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
-      <c r="R20" t="n">
-        <v>3</v>
-      </c>
+      <c r="R20" t="s"/>
       <c r="S20" t="s"/>
       <c r="T20" t="s"/>
-      <c r="U20" t="n">
-        <v>3</v>
-      </c>
+      <c r="U20" t="s"/>
       <c r="V20" t="n">
         <v>0</v>
       </c>
-      <c r="W20" t="s">
-        <v>161</v>
-      </c>
-      <c r="X20" t="s">
-        <v>162</v>
-      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="21">
@@ -2772,56 +3418,48 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
+        <v>161</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>162</v>
+      </c>
+      <c r="J21" t="s">
+        <v>163</v>
+      </c>
+      <c r="K21" t="s">
         <v>164</v>
       </c>
-      <c r="G21" t="s">
-        <v>46</v>
-      </c>
-      <c r="H21" t="s">
-        <v>47</v>
-      </c>
-      <c r="I21" t="s">
+      <c r="L21" t="s">
         <v>165</v>
-      </c>
-      <c r="J21" t="s">
-        <v>166</v>
-      </c>
-      <c r="K21" t="s">
-        <v>167</v>
-      </c>
-      <c r="L21" t="s">
-        <v>168</v>
       </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
       <c r="N21" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="O21" t="s">
-        <v>66</v>
-      </c>
-      <c r="P21" t="n">
-        <v>1</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
       <c r="R21" t="s"/>
       <c r="S21" t="s"/>
       <c r="T21" t="s"/>
-      <c r="U21" t="n">
-        <v>1</v>
-      </c>
+      <c r="U21" t="s"/>
       <c r="V21" t="n">
         <v>0</v>
       </c>
-      <c r="W21" t="s">
-        <v>170</v>
-      </c>
-      <c r="X21" t="s">
-        <v>171</v>
-      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="22">
@@ -2837,54 +3475,48 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
+        <v>168</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>169</v>
+      </c>
+      <c r="J22" t="s">
+        <v>170</v>
+      </c>
+      <c r="K22" t="s">
+        <v>171</v>
+      </c>
+      <c r="L22" t="s">
+        <v>172</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+      <c r="N22" t="s">
         <v>173</v>
       </c>
-      <c r="G22" t="s">
-        <v>46</v>
-      </c>
-      <c r="H22" t="s">
-        <v>47</v>
-      </c>
-      <c r="I22" t="s">
-        <v>174</v>
-      </c>
-      <c r="J22" t="s">
-        <v>175</v>
-      </c>
-      <c r="K22" t="s">
-        <v>176</v>
-      </c>
-      <c r="L22" t="s">
-        <v>177</v>
-      </c>
-      <c r="M22" t="n">
-        <v>3</v>
-      </c>
-      <c r="N22" t="s">
-        <v>169</v>
-      </c>
       <c r="O22" t="s">
-        <v>78</v>
-      </c>
-      <c r="P22" t="n">
-        <v>3</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
-      <c r="R22" t="n">
-        <v>4</v>
-      </c>
+      <c r="R22" t="s"/>
       <c r="S22" t="s"/>
       <c r="T22" t="s"/>
-      <c r="U22" t="n">
-        <v>3</v>
-      </c>
+      <c r="U22" t="s"/>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="23">
@@ -2900,34 +3532,34 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
+        <v>174</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>175</v>
+      </c>
+      <c r="J23" t="s">
+        <v>176</v>
+      </c>
+      <c r="K23" t="s">
+        <v>177</v>
+      </c>
+      <c r="L23" t="s">
         <v>178</v>
       </c>
-      <c r="G23" t="s">
-        <v>46</v>
-      </c>
-      <c r="H23" t="s">
-        <v>47</v>
-      </c>
-      <c r="I23" t="s">
+      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+      <c r="N23" t="s">
         <v>179</v>
       </c>
-      <c r="J23" t="s">
-        <v>180</v>
-      </c>
-      <c r="K23" t="s">
-        <v>181</v>
-      </c>
-      <c r="L23" t="s">
-        <v>182</v>
-      </c>
-      <c r="M23" t="n">
-        <v>3</v>
-      </c>
-      <c r="N23" t="s">
-        <v>183</v>
-      </c>
       <c r="O23" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -2941,7 +3573,7 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="24">
@@ -2957,48 +3589,54 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
+        <v>180</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>181</v>
+      </c>
+      <c r="J24" t="s">
+        <v>182</v>
+      </c>
+      <c r="K24" t="s">
+        <v>183</v>
+      </c>
+      <c r="L24" t="s">
         <v>184</v>
       </c>
-      <c r="G24" t="s">
-        <v>46</v>
-      </c>
-      <c r="H24" t="s">
-        <v>47</v>
-      </c>
-      <c r="I24" t="s">
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="s">
         <v>185</v>
       </c>
-      <c r="J24" t="s">
-        <v>186</v>
-      </c>
-      <c r="K24" t="s">
-        <v>187</v>
-      </c>
-      <c r="L24" t="s">
-        <v>188</v>
-      </c>
-      <c r="M24" t="n">
-        <v>3</v>
-      </c>
-      <c r="N24" t="s">
-        <v>189</v>
-      </c>
       <c r="O24" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="P24" t="s"/>
-      <c r="Q24" t="s"/>
-      <c r="R24" t="s"/>
+      <c r="Q24" t="n">
+        <v>4</v>
+      </c>
+      <c r="R24" t="n">
+        <v>4</v>
+      </c>
       <c r="S24" t="s"/>
       <c r="T24" t="s"/>
-      <c r="U24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="25">
@@ -3014,44 +3652,44 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
+        <v>187</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>188</v>
+      </c>
+      <c r="J25" t="s">
+        <v>189</v>
+      </c>
+      <c r="K25" t="s">
         <v>190</v>
       </c>
-      <c r="G25" t="s">
-        <v>46</v>
-      </c>
-      <c r="H25" t="s">
-        <v>47</v>
-      </c>
-      <c r="I25" t="s">
+      <c r="L25" t="s">
         <v>191</v>
       </c>
-      <c r="J25" t="s">
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s">
         <v>192</v>
       </c>
-      <c r="K25" t="s">
-        <v>193</v>
-      </c>
-      <c r="L25" t="s">
-        <v>194</v>
-      </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="s">
-        <v>195</v>
-      </c>
       <c r="O25" t="s">
-        <v>78</v>
-      </c>
-      <c r="P25" t="s"/>
+        <v>87</v>
+      </c>
+      <c r="P25" t="n">
+        <v>5</v>
+      </c>
       <c r="Q25" t="s"/>
       <c r="R25" t="s"/>
-      <c r="S25" t="n">
-        <v>3</v>
-      </c>
+      <c r="S25" t="s"/>
       <c r="T25" t="s"/>
       <c r="U25" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -3059,7 +3697,7 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="26">
@@ -3075,46 +3713,44 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
+        <v>193</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>194</v>
+      </c>
+      <c r="J26" t="s">
+        <v>195</v>
+      </c>
+      <c r="K26" t="s">
+        <v>196</v>
+      </c>
+      <c r="L26" t="s">
         <v>197</v>
       </c>
-      <c r="G26" t="s">
-        <v>46</v>
-      </c>
-      <c r="H26" t="s">
-        <v>47</v>
-      </c>
-      <c r="I26" t="s">
-        <v>198</v>
-      </c>
-      <c r="J26" t="s">
-        <v>199</v>
-      </c>
-      <c r="K26" t="s">
-        <v>200</v>
-      </c>
-      <c r="L26" t="s">
-        <v>201</v>
-      </c>
       <c r="M26" t="n">
         <v>4</v>
       </c>
       <c r="N26" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="O26" t="s">
-        <v>160</v>
-      </c>
-      <c r="P26" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>4</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
       <c r="R26" t="s"/>
-      <c r="S26" t="s"/>
+      <c r="S26" t="n">
+        <v>4</v>
+      </c>
       <c r="T26" t="s"/>
       <c r="U26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -3122,7 +3758,7 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="27">
@@ -3138,7 +3774,7 @@
         <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G27" t="s">
         <v>46</v>
@@ -3147,31 +3783,33 @@
         <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="J27" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="K27" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="L27" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="M27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="O27" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="n">
         <v>4</v>
       </c>
-      <c r="R27" t="s"/>
+      <c r="R27" t="n">
+        <v>3</v>
+      </c>
       <c r="S27" t="s"/>
       <c r="T27" t="s"/>
       <c r="U27" t="n">
@@ -3183,7 +3821,7 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="28">
@@ -3199,44 +3837,54 @@
         <v>44</v>
       </c>
       <c r="F28" t="s">
+        <v>204</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>205</v>
+      </c>
+      <c r="J28" t="s">
+        <v>206</v>
+      </c>
+      <c r="K28" t="s">
+        <v>207</v>
+      </c>
+      <c r="L28" t="s">
+        <v>208</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
         <v>209</v>
       </c>
-      <c r="G28" t="s">
-        <v>46</v>
-      </c>
-      <c r="H28" t="s">
-        <v>47</v>
-      </c>
-      <c r="I28" t="s">
-        <v>210</v>
-      </c>
-      <c r="J28" t="s">
-        <v>211</v>
-      </c>
-      <c r="K28" t="s">
-        <v>212</v>
-      </c>
-      <c r="L28" t="s">
-        <v>213</v>
-      </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="s"/>
-      <c r="O28" t="s"/>
+      <c r="O28" t="s">
+        <v>94</v>
+      </c>
       <c r="P28" t="s"/>
-      <c r="Q28" t="s"/>
-      <c r="R28" t="s"/>
+      <c r="Q28" t="n">
+        <v>4</v>
+      </c>
+      <c r="R28" t="n">
+        <v>3</v>
+      </c>
       <c r="S28" t="s"/>
       <c r="T28" t="s"/>
-      <c r="U28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="29">
@@ -3252,50 +3900,56 @@
         <v>44</v>
       </c>
       <c r="F29" t="s">
+        <v>211</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>212</v>
+      </c>
+      <c r="J29" t="s">
+        <v>213</v>
+      </c>
+      <c r="K29" t="s">
+        <v>214</v>
+      </c>
+      <c r="L29" t="s">
         <v>215</v>
-      </c>
-      <c r="G29" t="s">
-        <v>46</v>
-      </c>
-      <c r="H29" t="s">
-        <v>47</v>
-      </c>
-      <c r="I29" t="s">
-        <v>216</v>
-      </c>
-      <c r="J29" t="s">
-        <v>217</v>
-      </c>
-      <c r="K29" t="s">
-        <v>218</v>
-      </c>
-      <c r="L29" t="s">
-        <v>219</v>
       </c>
       <c r="M29" t="n">
         <v>2</v>
       </c>
       <c r="N29" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="O29" t="s">
-        <v>221</v>
+        <v>61</v>
       </c>
       <c r="P29" t="s"/>
-      <c r="Q29" t="s"/>
+      <c r="Q29" t="n">
+        <v>1</v>
+      </c>
       <c r="R29" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S29" t="s"/>
       <c r="T29" t="s"/>
       <c r="U29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
-      <c r="W29" t="s"/>
-      <c r="X29" t="s"/>
+      <c r="W29" t="s">
+        <v>217</v>
+      </c>
+      <c r="X29" t="s">
+        <v>218</v>
+      </c>
       <c r="Y29" t="s">
         <v>219</v>
       </c>
@@ -3313,52 +3967,48 @@
         <v>44</v>
       </c>
       <c r="F30" t="s">
+        <v>220</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>221</v>
+      </c>
+      <c r="J30" t="s">
         <v>222</v>
       </c>
-      <c r="G30" t="s">
-        <v>46</v>
-      </c>
-      <c r="H30" t="s">
-        <v>47</v>
-      </c>
-      <c r="I30" t="s">
+      <c r="K30" t="s">
         <v>223</v>
       </c>
-      <c r="J30" t="s">
+      <c r="L30" t="s">
         <v>224</v>
       </c>
-      <c r="K30" t="s">
-        <v>225</v>
-      </c>
-      <c r="L30" t="s">
-        <v>226</v>
-      </c>
       <c r="M30" t="n">
         <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="O30" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
-      <c r="R30" t="n">
-        <v>5</v>
-      </c>
+      <c r="R30" t="s"/>
       <c r="S30" t="s"/>
       <c r="T30" t="s"/>
-      <c r="U30" t="n">
-        <v>4</v>
-      </c>
+      <c r="U30" t="s"/>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="31">
@@ -3374,44 +4024,52 @@
         <v>44</v>
       </c>
       <c r="F31" t="s">
+        <v>225</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>226</v>
+      </c>
+      <c r="J31" t="s">
+        <v>227</v>
+      </c>
+      <c r="K31" t="s">
         <v>228</v>
       </c>
-      <c r="G31" t="s">
-        <v>46</v>
-      </c>
-      <c r="H31" t="s">
-        <v>47</v>
-      </c>
-      <c r="I31" t="s">
+      <c r="L31" t="s">
         <v>229</v>
       </c>
-      <c r="J31" t="s">
+      <c r="M31" t="n">
+        <v>3</v>
+      </c>
+      <c r="N31" t="s">
         <v>230</v>
       </c>
-      <c r="K31" t="s">
-        <v>231</v>
-      </c>
-      <c r="L31" t="s">
-        <v>232</v>
-      </c>
-      <c r="M31" t="n">
-        <v>4</v>
-      </c>
-      <c r="N31" t="s"/>
-      <c r="O31" t="s"/>
+      <c r="O31" t="s">
+        <v>87</v>
+      </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
-      <c r="R31" t="s"/>
+      <c r="R31" t="n">
+        <v>4</v>
+      </c>
       <c r="S31" t="s"/>
       <c r="T31" t="s"/>
-      <c r="U31" t="s"/>
+      <c r="U31" t="n">
+        <v>4</v>
+      </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="32">
@@ -3427,58 +4085,48 @@
         <v>44</v>
       </c>
       <c r="F32" t="s">
+        <v>231</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>232</v>
+      </c>
+      <c r="J32" t="s">
         <v>233</v>
       </c>
-      <c r="G32" t="s">
-        <v>46</v>
-      </c>
-      <c r="H32" t="s">
-        <v>47</v>
-      </c>
-      <c r="I32" t="s">
+      <c r="K32" t="s">
         <v>234</v>
       </c>
-      <c r="J32" t="s">
+      <c r="L32" t="s">
         <v>235</v>
-      </c>
-      <c r="K32" t="s">
-        <v>236</v>
-      </c>
-      <c r="L32" t="s">
-        <v>237</v>
       </c>
       <c r="M32" t="n">
         <v>3</v>
       </c>
       <c r="N32" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="O32" t="s">
-        <v>66</v>
-      </c>
-      <c r="P32" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>4</v>
-      </c>
-      <c r="R32" t="n">
-        <v>5</v>
-      </c>
-      <c r="S32" t="n">
-        <v>4</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
       <c r="T32" t="s"/>
-      <c r="U32" t="n">
-        <v>2</v>
-      </c>
+      <c r="U32" t="s"/>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="33">
@@ -3494,35 +4142,31 @@
         <v>44</v>
       </c>
       <c r="F33" t="s">
+        <v>236</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>237</v>
+      </c>
+      <c r="J33" t="s">
+        <v>238</v>
+      </c>
+      <c r="K33" t="s">
+        <v>239</v>
+      </c>
+      <c r="L33" t="s">
         <v>240</v>
       </c>
-      <c r="G33" t="s">
-        <v>46</v>
-      </c>
-      <c r="H33" t="s">
-        <v>47</v>
-      </c>
-      <c r="I33" t="s">
-        <v>241</v>
-      </c>
-      <c r="J33" t="s">
-        <v>242</v>
-      </c>
-      <c r="K33" t="s">
-        <v>243</v>
-      </c>
-      <c r="L33" t="s">
-        <v>244</v>
-      </c>
       <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="s">
-        <v>238</v>
-      </c>
-      <c r="O33" t="s">
-        <v>221</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="N33" t="s"/>
+      <c r="O33" t="s"/>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
       <c r="R33" t="s"/>
@@ -3535,7 +4179,7 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
     </row>
     <row r="34">
@@ -3551,34 +4195,34 @@
         <v>44</v>
       </c>
       <c r="F34" t="s">
+        <v>241</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>242</v>
+      </c>
+      <c r="J34" t="s">
+        <v>243</v>
+      </c>
+      <c r="K34" t="s">
+        <v>244</v>
+      </c>
+      <c r="L34" t="s">
+        <v>245</v>
+      </c>
+      <c r="M34" t="n">
+        <v>3</v>
+      </c>
+      <c r="N34" t="s">
         <v>246</v>
       </c>
-      <c r="G34" t="s">
-        <v>46</v>
-      </c>
-      <c r="H34" t="s">
-        <v>47</v>
-      </c>
-      <c r="I34" t="s">
-        <v>247</v>
-      </c>
-      <c r="J34" t="s">
-        <v>248</v>
-      </c>
-      <c r="K34" t="s">
-        <v>249</v>
-      </c>
-      <c r="L34" t="s">
-        <v>250</v>
-      </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="s">
-        <v>238</v>
-      </c>
       <c r="O34" t="s">
-        <v>160</v>
+        <v>61</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
@@ -3592,7 +4236,7 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
     </row>
     <row r="35">
@@ -3608,7 +4252,7 @@
         <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="G35" t="s">
         <v>46</v>
@@ -3617,45 +4261,47 @@
         <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="J35" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="K35" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="L35" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="M35" t="n">
-        <v>5</v>
-      </c>
-      <c r="N35" t="s"/>
-      <c r="O35" t="s"/>
-      <c r="P35" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N35" t="s">
+        <v>246</v>
+      </c>
+      <c r="O35" t="s">
+        <v>53</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
       <c r="R35" t="n">
-        <v>5</v>
-      </c>
-      <c r="S35" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="S35" t="s"/>
       <c r="T35" t="s"/>
       <c r="U35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
-      <c r="W35" t="s"/>
-      <c r="X35" t="s"/>
+      <c r="W35" t="s">
+        <v>252</v>
+      </c>
+      <c r="X35" t="s">
+        <v>253</v>
+      </c>
       <c r="Y35" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="36">
@@ -3671,58 +4317,56 @@
         <v>44</v>
       </c>
       <c r="F36" t="s">
+        <v>255</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>256</v>
+      </c>
+      <c r="J36" t="s">
         <v>257</v>
       </c>
-      <c r="G36" t="s">
-        <v>46</v>
-      </c>
-      <c r="H36" t="s">
-        <v>47</v>
-      </c>
-      <c r="I36" t="s">
+      <c r="K36" t="s">
         <v>258</v>
       </c>
-      <c r="J36" t="s">
+      <c r="L36" t="s">
         <v>259</v>
       </c>
-      <c r="K36" t="s">
+      <c r="M36" t="n">
+        <v>1</v>
+      </c>
+      <c r="N36" t="s">
         <v>260</v>
       </c>
-      <c r="L36" t="s">
-        <v>261</v>
-      </c>
-      <c r="M36" t="n">
-        <v>4</v>
-      </c>
-      <c r="N36" t="s">
-        <v>262</v>
-      </c>
       <c r="O36" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="P36" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>3</v>
-      </c>
-      <c r="R36" t="n">
-        <v>4</v>
-      </c>
-      <c r="S36" t="n">
-        <v>4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
       <c r="T36" t="s"/>
       <c r="U36" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
-      <c r="W36" t="s"/>
-      <c r="X36" t="s"/>
+      <c r="W36" t="s">
+        <v>261</v>
+      </c>
+      <c r="X36" t="s">
+        <v>262</v>
+      </c>
       <c r="Y36" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="37">
@@ -3738,7 +4382,7 @@
         <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G37" t="s">
         <v>46</v>
@@ -3747,41 +4391,37 @@
         <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="J37" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="K37" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L37" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N37" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="O37" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="P37" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>4</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="Q37" t="s"/>
       <c r="R37" t="n">
-        <v>5</v>
-      </c>
-      <c r="S37" t="n">
-        <v>4</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="S37" t="s"/>
       <c r="T37" t="s"/>
       <c r="U37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3789,7 +4429,7 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="38">
@@ -3805,50 +4445,46 @@
         <v>44</v>
       </c>
       <c r="F38" t="s">
+        <v>269</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
         <v>270</v>
       </c>
-      <c r="G38" t="s">
-        <v>46</v>
-      </c>
-      <c r="H38" t="s">
-        <v>47</v>
-      </c>
-      <c r="I38" t="s">
+      <c r="J38" t="s">
         <v>271</v>
       </c>
-      <c r="J38" t="s">
+      <c r="K38" t="s">
         <v>272</v>
       </c>
-      <c r="K38" t="s">
+      <c r="L38" t="s">
         <v>273</v>
-      </c>
-      <c r="L38" t="s">
-        <v>274</v>
       </c>
       <c r="M38" t="n">
         <v>3</v>
       </c>
       <c r="N38" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="O38" t="s">
-        <v>66</v>
-      </c>
-      <c r="P38" t="n">
+        <v>87</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="n">
         <v>3</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>4</v>
       </c>
       <c r="R38" t="n">
         <v>3</v>
       </c>
-      <c r="S38" t="n">
-        <v>4</v>
-      </c>
+      <c r="S38" t="s"/>
       <c r="T38" t="s"/>
       <c r="U38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3856,7 +4492,7 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="39">
@@ -3872,50 +4508,44 @@
         <v>44</v>
       </c>
       <c r="F39" t="s">
+        <v>274</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>275</v>
+      </c>
+      <c r="J39" t="s">
+        <v>276</v>
+      </c>
+      <c r="K39" t="s">
         <v>277</v>
       </c>
-      <c r="G39" t="s">
-        <v>46</v>
-      </c>
-      <c r="H39" t="s">
-        <v>47</v>
-      </c>
-      <c r="I39" t="s">
+      <c r="L39" t="s">
         <v>278</v>
       </c>
-      <c r="J39" t="s">
+      <c r="M39" t="n">
+        <v>3</v>
+      </c>
+      <c r="N39" t="s">
         <v>279</v>
       </c>
-      <c r="K39" t="s">
-        <v>280</v>
-      </c>
-      <c r="L39" t="s">
-        <v>281</v>
-      </c>
-      <c r="M39" t="n">
-        <v>2</v>
-      </c>
-      <c r="N39" t="s">
-        <v>282</v>
-      </c>
       <c r="O39" t="s">
-        <v>66</v>
-      </c>
-      <c r="P39" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>1</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
       <c r="R39" t="n">
-        <v>1</v>
-      </c>
-      <c r="S39" t="n">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S39" t="s"/>
       <c r="T39" t="s"/>
       <c r="U39" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -3923,7 +4553,7 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="40">
@@ -3939,58 +4569,48 @@
         <v>44</v>
       </c>
       <c r="F40" t="s">
+        <v>280</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>281</v>
+      </c>
+      <c r="J40" t="s">
+        <v>282</v>
+      </c>
+      <c r="K40" t="s">
         <v>283</v>
       </c>
-      <c r="G40" t="s">
-        <v>46</v>
-      </c>
-      <c r="H40" t="s">
-        <v>47</v>
-      </c>
-      <c r="I40" t="s">
+      <c r="L40" t="s">
         <v>284</v>
-      </c>
-      <c r="J40" t="s">
-        <v>285</v>
-      </c>
-      <c r="K40" t="s">
-        <v>286</v>
-      </c>
-      <c r="L40" t="s">
-        <v>287</v>
       </c>
       <c r="M40" t="n">
         <v>3</v>
       </c>
       <c r="N40" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="O40" t="s">
-        <v>78</v>
-      </c>
-      <c r="P40" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>4</v>
-      </c>
-      <c r="R40" t="n">
-        <v>2</v>
-      </c>
-      <c r="S40" t="n">
-        <v>4</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
       <c r="T40" t="s"/>
-      <c r="U40" t="n">
-        <v>3</v>
-      </c>
+      <c r="U40" t="s"/>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="41">
@@ -4006,54 +4626,48 @@
         <v>44</v>
       </c>
       <c r="F41" t="s">
+        <v>285</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>286</v>
+      </c>
+      <c r="J41" t="s">
+        <v>287</v>
+      </c>
+      <c r="K41" t="s">
         <v>288</v>
       </c>
-      <c r="G41" t="s">
-        <v>46</v>
-      </c>
-      <c r="H41" t="s">
-        <v>47</v>
-      </c>
-      <c r="I41" t="s">
+      <c r="L41" t="s">
         <v>289</v>
       </c>
-      <c r="J41" t="s">
+      <c r="M41" t="n">
+        <v>3</v>
+      </c>
+      <c r="N41" t="s">
         <v>290</v>
       </c>
-      <c r="K41" t="s">
-        <v>291</v>
-      </c>
-      <c r="L41" t="s">
-        <v>292</v>
-      </c>
-      <c r="M41" t="n">
-        <v>4</v>
-      </c>
-      <c r="N41" t="s"/>
-      <c r="O41" t="s"/>
-      <c r="P41" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>4</v>
-      </c>
-      <c r="R41" t="n">
-        <v>4</v>
-      </c>
-      <c r="S41" t="n">
-        <v>4</v>
-      </c>
+      <c r="O41" t="s">
+        <v>94</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
       <c r="T41" t="s"/>
-      <c r="U41" t="n">
-        <v>4</v>
-      </c>
+      <c r="U41" t="s"/>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="42">
@@ -4069,46 +4683,44 @@
         <v>44</v>
       </c>
       <c r="F42" t="s">
+        <v>291</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>292</v>
+      </c>
+      <c r="J42" t="s">
         <v>293</v>
       </c>
-      <c r="G42" t="s">
-        <v>46</v>
-      </c>
-      <c r="H42" t="s">
-        <v>47</v>
-      </c>
-      <c r="I42" t="s">
+      <c r="K42" t="s">
         <v>294</v>
       </c>
-      <c r="J42" t="s">
+      <c r="L42" t="s">
         <v>295</v>
       </c>
-      <c r="K42" t="s">
+      <c r="M42" t="n">
+        <v>1</v>
+      </c>
+      <c r="N42" t="s">
         <v>296</v>
       </c>
-      <c r="L42" t="s">
-        <v>297</v>
-      </c>
-      <c r="M42" t="n">
-        <v>4</v>
-      </c>
-      <c r="N42" t="s"/>
-      <c r="O42" t="s"/>
-      <c r="P42" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>5</v>
-      </c>
-      <c r="R42" t="n">
-        <v>5</v>
-      </c>
+      <c r="O42" t="s">
+        <v>94</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
       <c r="S42" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T42" t="s"/>
       <c r="U42" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -4116,7 +4728,7 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="43">
@@ -4132,58 +4744,58 @@
         <v>44</v>
       </c>
       <c r="F43" t="s">
+        <v>298</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
         <v>299</v>
       </c>
-      <c r="G43" t="s">
-        <v>46</v>
-      </c>
-      <c r="H43" t="s">
-        <v>47</v>
-      </c>
-      <c r="I43" t="s">
+      <c r="J43" t="s">
         <v>300</v>
       </c>
-      <c r="J43" t="s">
+      <c r="K43" t="s">
         <v>301</v>
       </c>
-      <c r="K43" t="s">
+      <c r="L43" t="s">
         <v>302</v>
       </c>
-      <c r="L43" t="s">
+      <c r="M43" t="n">
+        <v>1</v>
+      </c>
+      <c r="N43" t="s">
         <v>303</v>
       </c>
-      <c r="M43" t="n">
-        <v>4</v>
-      </c>
-      <c r="N43" t="s">
-        <v>304</v>
-      </c>
       <c r="O43" t="s">
-        <v>160</v>
-      </c>
-      <c r="P43" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>3</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
       <c r="R43" t="n">
         <v>3</v>
       </c>
       <c r="S43" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T43" t="s"/>
       <c r="U43" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
-      <c r="W43" t="s"/>
-      <c r="X43" t="s"/>
+      <c r="W43" t="s">
+        <v>304</v>
+      </c>
+      <c r="X43" t="s">
+        <v>305</v>
+      </c>
       <c r="Y43" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
     </row>
     <row r="44">
@@ -4199,7 +4811,7 @@
         <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="G44" t="s">
         <v>46</v>
@@ -4208,49 +4820,35 @@
         <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="J44" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="K44" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="L44" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="M44" t="n">
         <v>4</v>
       </c>
-      <c r="N44" t="s">
-        <v>310</v>
-      </c>
-      <c r="O44" t="s">
-        <v>66</v>
-      </c>
-      <c r="P44" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>4</v>
-      </c>
-      <c r="R44" t="n">
-        <v>4</v>
-      </c>
-      <c r="S44" t="n">
-        <v>4</v>
-      </c>
+      <c r="N44" t="s"/>
+      <c r="O44" t="s"/>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
       <c r="T44" t="s"/>
-      <c r="U44" t="n">
-        <v>4</v>
-      </c>
+      <c r="U44" t="s"/>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="45">
@@ -4266,7 +4864,7 @@
         <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="G45" t="s">
         <v>46</v>
@@ -4275,38 +4873,34 @@
         <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="J45" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="K45" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="L45" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M45" t="n">
         <v>4</v>
       </c>
       <c r="N45" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="O45" t="s">
-        <v>160</v>
+        <v>53</v>
       </c>
       <c r="P45" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q45" t="n">
         <v>4</v>
       </c>
-      <c r="R45" t="n">
-        <v>3</v>
-      </c>
-      <c r="S45" t="n">
-        <v>4</v>
-      </c>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
       <c r="T45" t="s"/>
       <c r="U45" t="n">
         <v>5</v>
@@ -4317,7 +4911,7 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
     </row>
     <row r="46">
@@ -4333,50 +4927,44 @@
         <v>44</v>
       </c>
       <c r="F46" t="s">
+        <v>320</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>321</v>
+      </c>
+      <c r="J46" t="s">
+        <v>322</v>
+      </c>
+      <c r="K46" t="s">
+        <v>323</v>
+      </c>
+      <c r="L46" t="s">
+        <v>324</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
         <v>318</v>
       </c>
-      <c r="G46" t="s">
-        <v>46</v>
-      </c>
-      <c r="H46" t="s">
-        <v>47</v>
-      </c>
-      <c r="I46" t="s">
-        <v>319</v>
-      </c>
-      <c r="J46" t="s">
-        <v>320</v>
-      </c>
-      <c r="K46" t="s">
-        <v>321</v>
-      </c>
-      <c r="L46" t="s">
-        <v>322</v>
-      </c>
-      <c r="M46" t="n">
-        <v>4</v>
-      </c>
-      <c r="N46" t="s">
-        <v>323</v>
-      </c>
       <c r="O46" t="s">
-        <v>66</v>
-      </c>
-      <c r="P46" t="n">
-        <v>4</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="P46" t="s"/>
       <c r="Q46" t="n">
         <v>4</v>
       </c>
-      <c r="R46" t="n">
-        <v>4</v>
-      </c>
-      <c r="S46" t="n">
-        <v>4</v>
-      </c>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
       <c r="T46" t="s"/>
       <c r="U46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4384,7 +4972,7 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="47">
@@ -4400,7 +4988,7 @@
         <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="G47" t="s">
         <v>46</v>
@@ -4409,42 +4997,28 @@
         <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="J47" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="K47" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="L47" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
-      <c r="N47" t="s">
-        <v>329</v>
-      </c>
-      <c r="O47" t="s">
-        <v>66</v>
-      </c>
-      <c r="P47" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>1</v>
-      </c>
-      <c r="R47" t="n">
-        <v>2</v>
-      </c>
-      <c r="S47" t="n">
-        <v>1</v>
-      </c>
+      <c r="N47" t="s"/>
+      <c r="O47" t="s"/>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
       <c r="T47" t="s"/>
-      <c r="U47" t="n">
-        <v>2</v>
-      </c>
+      <c r="U47" t="s"/>
       <c r="V47" t="n">
         <v>0</v>
       </c>
@@ -4479,38 +5053,34 @@
         <v>332</v>
       </c>
       <c r="J48" t="s">
+        <v>327</v>
+      </c>
+      <c r="K48" t="s">
         <v>333</v>
       </c>
-      <c r="K48" t="s">
+      <c r="L48" t="s">
         <v>334</v>
       </c>
-      <c r="L48" t="s">
-        <v>335</v>
-      </c>
       <c r="M48" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N48" t="s">
-        <v>336</v>
+        <v>318</v>
       </c>
       <c r="O48" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="P48" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q48" t="n">
-        <v>1</v>
-      </c>
-      <c r="R48" t="n">
-        <v>5</v>
-      </c>
-      <c r="S48" t="n">
-        <v>1</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
       <c r="T48" t="s"/>
       <c r="U48" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V48" t="n">
         <v>0</v>
@@ -4518,7 +5088,7 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="49">
@@ -4534,50 +5104,46 @@
         <v>44</v>
       </c>
       <c r="F49" t="s">
+        <v>335</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>336</v>
+      </c>
+      <c r="J49" t="s">
+        <v>327</v>
+      </c>
+      <c r="K49" t="s">
         <v>337</v>
       </c>
-      <c r="G49" t="s">
-        <v>46</v>
-      </c>
-      <c r="H49" t="s">
-        <v>47</v>
-      </c>
-      <c r="I49" t="s">
+      <c r="L49" t="s">
         <v>338</v>
       </c>
-      <c r="J49" t="s">
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
         <v>339</v>
       </c>
-      <c r="K49" t="s">
-        <v>340</v>
-      </c>
-      <c r="L49" t="s">
-        <v>341</v>
-      </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="s">
-        <v>342</v>
-      </c>
       <c r="O49" t="s">
-        <v>221</v>
+        <v>61</v>
       </c>
       <c r="P49" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q49" t="n">
-        <v>2</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q49" t="s"/>
       <c r="R49" t="n">
-        <v>4</v>
-      </c>
-      <c r="S49" t="n">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S49" t="s"/>
       <c r="T49" t="s"/>
       <c r="U49" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V49" t="n">
         <v>0</v>
@@ -4585,7 +5151,7 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="50">
@@ -4601,44 +5167,44 @@
         <v>44</v>
       </c>
       <c r="F50" t="s">
+        <v>341</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>342</v>
+      </c>
+      <c r="J50" t="s">
         <v>343</v>
       </c>
-      <c r="G50" t="s">
-        <v>46</v>
-      </c>
-      <c r="H50" t="s">
-        <v>47</v>
-      </c>
-      <c r="I50" t="s">
+      <c r="K50" t="s">
         <v>344</v>
       </c>
-      <c r="J50" t="s">
+      <c r="L50" t="s">
         <v>345</v>
       </c>
-      <c r="K50" t="s">
+      <c r="M50" t="n">
+        <v>2</v>
+      </c>
+      <c r="N50" t="s">
         <v>346</v>
       </c>
-      <c r="L50" t="s">
-        <v>347</v>
-      </c>
-      <c r="M50" t="n">
-        <v>4</v>
-      </c>
-      <c r="N50" t="s"/>
-      <c r="O50" t="s"/>
-      <c r="P50" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q50" t="n">
+      <c r="O50" t="s">
+        <v>122</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="n">
         <v>3</v>
       </c>
-      <c r="R50" t="s"/>
-      <c r="S50" t="n">
-        <v>4</v>
-      </c>
+      <c r="S50" t="s"/>
       <c r="T50" t="s"/>
       <c r="U50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V50" t="n">
         <v>0</v>
@@ -4646,7 +5212,7 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="51">
@@ -4662,44 +5228,44 @@
         <v>44</v>
       </c>
       <c r="F51" t="s">
+        <v>347</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>348</v>
+      </c>
+      <c r="J51" t="s">
         <v>349</v>
       </c>
-      <c r="G51" t="s">
-        <v>46</v>
-      </c>
-      <c r="H51" t="s">
-        <v>47</v>
-      </c>
-      <c r="I51" t="s">
+      <c r="K51" t="s">
         <v>350</v>
       </c>
-      <c r="J51" t="s">
+      <c r="L51" t="s">
         <v>351</v>
       </c>
-      <c r="K51" t="s">
-        <v>352</v>
-      </c>
-      <c r="L51" t="s">
-        <v>353</v>
-      </c>
       <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="s"/>
-      <c r="O51" t="s"/>
-      <c r="P51" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q51" t="n">
-        <v>3</v>
-      </c>
-      <c r="R51" t="s"/>
-      <c r="S51" t="n">
-        <v>1</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N51" t="s">
+        <v>339</v>
+      </c>
+      <c r="O51" t="s">
+        <v>61</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
+      <c r="S51" t="s"/>
       <c r="T51" t="s"/>
       <c r="U51" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V51" t="n">
         <v>0</v>
@@ -4707,7 +5273,7 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="52">
@@ -4723,52 +5289,2311 @@
         <v>44</v>
       </c>
       <c r="F52" t="s">
+        <v>352</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>353</v>
+      </c>
+      <c r="J52" t="s">
+        <v>354</v>
+      </c>
+      <c r="K52" t="s">
         <v>355</v>
       </c>
-      <c r="G52" t="s">
-        <v>46</v>
-      </c>
-      <c r="H52" t="s">
-        <v>47</v>
-      </c>
-      <c r="I52" t="s">
+      <c r="L52" t="s">
         <v>356</v>
       </c>
-      <c r="J52" t="s">
-        <v>357</v>
-      </c>
-      <c r="K52" t="s">
-        <v>358</v>
-      </c>
-      <c r="L52" t="s">
-        <v>359</v>
-      </c>
       <c r="M52" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N52" t="s"/>
       <c r="O52" t="s"/>
-      <c r="P52" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q52" t="n">
-        <v>3</v>
-      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="s"/>
       <c r="R52" t="s"/>
-      <c r="S52" t="n">
-        <v>4</v>
-      </c>
+      <c r="S52" t="s"/>
       <c r="T52" t="s"/>
-      <c r="U52" t="n">
-        <v>4</v>
-      </c>
+      <c r="U52" t="s"/>
       <c r="V52" t="n">
         <v>0</v>
       </c>
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>11169</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>357</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>358</v>
+      </c>
+      <c r="J53" t="s">
         <v>359</v>
+      </c>
+      <c r="K53" t="s">
+        <v>360</v>
+      </c>
+      <c r="L53" t="s">
+        <v>361</v>
+      </c>
+      <c r="M53" t="n">
+        <v>3</v>
+      </c>
+      <c r="N53" t="s">
+        <v>339</v>
+      </c>
+      <c r="O53" t="s">
+        <v>122</v>
+      </c>
+      <c r="P53" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="n">
+        <v>4</v>
+      </c>
+      <c r="S53" t="s"/>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>3</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>11169</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>363</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>364</v>
+      </c>
+      <c r="J54" t="s">
+        <v>365</v>
+      </c>
+      <c r="K54" t="s">
+        <v>366</v>
+      </c>
+      <c r="L54" t="s">
+        <v>367</v>
+      </c>
+      <c r="M54" t="n">
+        <v>3</v>
+      </c>
+      <c r="N54" t="s">
+        <v>368</v>
+      </c>
+      <c r="O54" t="s">
+        <v>122</v>
+      </c>
+      <c r="P54" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>4</v>
+      </c>
+      <c r="R54" t="n">
+        <v>3</v>
+      </c>
+      <c r="S54" t="n">
+        <v>4</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>4</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>11169</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>369</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>370</v>
+      </c>
+      <c r="J55" t="s">
+        <v>371</v>
+      </c>
+      <c r="K55" t="s">
+        <v>372</v>
+      </c>
+      <c r="L55" t="s">
+        <v>373</v>
+      </c>
+      <c r="M55" t="n">
+        <v>3</v>
+      </c>
+      <c r="N55" t="s">
+        <v>368</v>
+      </c>
+      <c r="O55" t="s">
+        <v>87</v>
+      </c>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>4</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="n">
+        <v>4</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>2</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>11169</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>375</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>376</v>
+      </c>
+      <c r="J56" t="s">
+        <v>377</v>
+      </c>
+      <c r="K56" t="s">
+        <v>378</v>
+      </c>
+      <c r="L56" t="s">
+        <v>379</v>
+      </c>
+      <c r="M56" t="n">
+        <v>1</v>
+      </c>
+      <c r="N56" t="s">
+        <v>368</v>
+      </c>
+      <c r="O56" t="s">
+        <v>122</v>
+      </c>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="s"/>
+      <c r="S56" t="s"/>
+      <c r="T56" t="s"/>
+      <c r="U56" t="s"/>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>11169</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>381</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>382</v>
+      </c>
+      <c r="J57" t="s">
+        <v>383</v>
+      </c>
+      <c r="K57" t="s">
+        <v>384</v>
+      </c>
+      <c r="L57" t="s">
+        <v>385</v>
+      </c>
+      <c r="M57" t="n">
+        <v>1</v>
+      </c>
+      <c r="N57" t="s">
+        <v>368</v>
+      </c>
+      <c r="O57" t="s">
+        <v>53</v>
+      </c>
+      <c r="P57" t="s"/>
+      <c r="Q57" t="s"/>
+      <c r="R57" t="s"/>
+      <c r="S57" t="s"/>
+      <c r="T57" t="s"/>
+      <c r="U57" t="s"/>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>11169</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>387</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>388</v>
+      </c>
+      <c r="J58" t="s">
+        <v>389</v>
+      </c>
+      <c r="K58" t="s">
+        <v>390</v>
+      </c>
+      <c r="L58" t="s">
+        <v>391</v>
+      </c>
+      <c r="M58" t="n">
+        <v>4</v>
+      </c>
+      <c r="N58" t="s">
+        <v>392</v>
+      </c>
+      <c r="O58" t="s">
+        <v>61</v>
+      </c>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="n">
+        <v>5</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>11169</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>394</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>395</v>
+      </c>
+      <c r="J59" t="s">
+        <v>396</v>
+      </c>
+      <c r="K59" t="s">
+        <v>397</v>
+      </c>
+      <c r="L59" t="s">
+        <v>398</v>
+      </c>
+      <c r="M59" t="n">
+        <v>1</v>
+      </c>
+      <c r="N59" t="s">
+        <v>399</v>
+      </c>
+      <c r="O59" t="s">
+        <v>61</v>
+      </c>
+      <c r="P59" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>1</v>
+      </c>
+      <c r="R59" t="n">
+        <v>4</v>
+      </c>
+      <c r="S59" t="n">
+        <v>3</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>1</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>11169</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>401</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>402</v>
+      </c>
+      <c r="J60" t="s">
+        <v>403</v>
+      </c>
+      <c r="K60" t="s">
+        <v>404</v>
+      </c>
+      <c r="L60" t="s">
+        <v>405</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s"/>
+      <c r="O60" t="s"/>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>11169</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>406</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>407</v>
+      </c>
+      <c r="J61" t="s">
+        <v>408</v>
+      </c>
+      <c r="K61" t="s">
+        <v>409</v>
+      </c>
+      <c r="L61" t="s">
+        <v>410</v>
+      </c>
+      <c r="M61" t="n">
+        <v>4</v>
+      </c>
+      <c r="N61" t="s">
+        <v>411</v>
+      </c>
+      <c r="O61" t="s">
+        <v>94</v>
+      </c>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>3</v>
+      </c>
+      <c r="R61" t="n">
+        <v>4</v>
+      </c>
+      <c r="S61" t="n">
+        <v>4</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>4</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>11169</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>412</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>413</v>
+      </c>
+      <c r="J62" t="s">
+        <v>414</v>
+      </c>
+      <c r="K62" t="s">
+        <v>415</v>
+      </c>
+      <c r="L62" t="s">
+        <v>416</v>
+      </c>
+      <c r="M62" t="n">
+        <v>4</v>
+      </c>
+      <c r="N62" t="s">
+        <v>417</v>
+      </c>
+      <c r="O62" t="s">
+        <v>87</v>
+      </c>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>4</v>
+      </c>
+      <c r="R62" t="n">
+        <v>5</v>
+      </c>
+      <c r="S62" t="n">
+        <v>4</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>11169</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>419</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>420</v>
+      </c>
+      <c r="J63" t="s">
+        <v>421</v>
+      </c>
+      <c r="K63" t="s">
+        <v>422</v>
+      </c>
+      <c r="L63" t="s">
+        <v>423</v>
+      </c>
+      <c r="M63" t="n">
+        <v>3</v>
+      </c>
+      <c r="N63" t="s">
+        <v>424</v>
+      </c>
+      <c r="O63" t="s">
+        <v>94</v>
+      </c>
+      <c r="P63" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>3</v>
+      </c>
+      <c r="R63" t="n">
+        <v>3</v>
+      </c>
+      <c r="S63" t="n">
+        <v>3</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>3</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>11169</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>425</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>426</v>
+      </c>
+      <c r="J64" t="s">
+        <v>427</v>
+      </c>
+      <c r="K64" t="s">
+        <v>428</v>
+      </c>
+      <c r="L64" t="s">
+        <v>429</v>
+      </c>
+      <c r="M64" t="n">
+        <v>1</v>
+      </c>
+      <c r="N64" t="s"/>
+      <c r="O64" t="s"/>
+      <c r="P64" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>1</v>
+      </c>
+      <c r="R64" t="n">
+        <v>1</v>
+      </c>
+      <c r="S64" t="n">
+        <v>1</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>1</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>430</v>
+      </c>
+      <c r="X64" t="s">
+        <v>431</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>11169</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>433</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>434</v>
+      </c>
+      <c r="J65" t="s">
+        <v>435</v>
+      </c>
+      <c r="K65" t="s">
+        <v>436</v>
+      </c>
+      <c r="L65" t="s">
+        <v>437</v>
+      </c>
+      <c r="M65" t="n">
+        <v>3</v>
+      </c>
+      <c r="N65" t="s">
+        <v>438</v>
+      </c>
+      <c r="O65" t="s">
+        <v>87</v>
+      </c>
+      <c r="P65" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>4</v>
+      </c>
+      <c r="R65" t="n">
+        <v>3</v>
+      </c>
+      <c r="S65" t="n">
+        <v>4</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>2</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>11169</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>440</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>441</v>
+      </c>
+      <c r="J66" t="s">
+        <v>442</v>
+      </c>
+      <c r="K66" t="s">
+        <v>443</v>
+      </c>
+      <c r="L66" t="s">
+        <v>444</v>
+      </c>
+      <c r="M66" t="n">
+        <v>2</v>
+      </c>
+      <c r="N66" t="s">
+        <v>445</v>
+      </c>
+      <c r="O66" t="s">
+        <v>87</v>
+      </c>
+      <c r="P66" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>1</v>
+      </c>
+      <c r="R66" t="n">
+        <v>1</v>
+      </c>
+      <c r="S66" t="n">
+        <v>1</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>2</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>11169</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>446</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>447</v>
+      </c>
+      <c r="J67" t="s">
+        <v>448</v>
+      </c>
+      <c r="K67" t="s">
+        <v>449</v>
+      </c>
+      <c r="L67" t="s">
+        <v>450</v>
+      </c>
+      <c r="M67" t="n">
+        <v>3</v>
+      </c>
+      <c r="N67" t="s">
+        <v>445</v>
+      </c>
+      <c r="O67" t="s">
+        <v>94</v>
+      </c>
+      <c r="P67" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>4</v>
+      </c>
+      <c r="R67" t="n">
+        <v>2</v>
+      </c>
+      <c r="S67" t="n">
+        <v>4</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>3</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>11169</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>451</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>452</v>
+      </c>
+      <c r="J68" t="s">
+        <v>453</v>
+      </c>
+      <c r="K68" t="s">
+        <v>454</v>
+      </c>
+      <c r="L68" t="s">
+        <v>455</v>
+      </c>
+      <c r="M68" t="n">
+        <v>4</v>
+      </c>
+      <c r="N68" t="s">
+        <v>456</v>
+      </c>
+      <c r="O68" t="s">
+        <v>87</v>
+      </c>
+      <c r="P68" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>5</v>
+      </c>
+      <c r="R68" t="n">
+        <v>5</v>
+      </c>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>11169</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>458</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>459</v>
+      </c>
+      <c r="J69" t="s">
+        <v>460</v>
+      </c>
+      <c r="K69" t="s">
+        <v>461</v>
+      </c>
+      <c r="L69" t="s">
+        <v>462</v>
+      </c>
+      <c r="M69" t="n">
+        <v>2</v>
+      </c>
+      <c r="N69" t="s"/>
+      <c r="O69" t="s"/>
+      <c r="P69" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>4</v>
+      </c>
+      <c r="R69" t="n">
+        <v>1</v>
+      </c>
+      <c r="S69" t="n">
+        <v>4</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>3</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>11169</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>463</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>464</v>
+      </c>
+      <c r="J70" t="s">
+        <v>465</v>
+      </c>
+      <c r="K70" t="s">
+        <v>466</v>
+      </c>
+      <c r="L70" t="s">
+        <v>467</v>
+      </c>
+      <c r="M70" t="n">
+        <v>4</v>
+      </c>
+      <c r="N70" t="s"/>
+      <c r="O70" t="s"/>
+      <c r="P70" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>4</v>
+      </c>
+      <c r="R70" t="n">
+        <v>4</v>
+      </c>
+      <c r="S70" t="n">
+        <v>4</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>4</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>11169</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>468</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>469</v>
+      </c>
+      <c r="J71" t="s">
+        <v>470</v>
+      </c>
+      <c r="K71" t="s">
+        <v>471</v>
+      </c>
+      <c r="L71" t="s">
+        <v>472</v>
+      </c>
+      <c r="M71" t="n">
+        <v>4</v>
+      </c>
+      <c r="N71" t="s"/>
+      <c r="O71" t="s"/>
+      <c r="P71" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>5</v>
+      </c>
+      <c r="R71" t="n">
+        <v>5</v>
+      </c>
+      <c r="S71" t="n">
+        <v>5</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>4</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>11169</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>474</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>475</v>
+      </c>
+      <c r="J72" t="s">
+        <v>476</v>
+      </c>
+      <c r="K72" t="s">
+        <v>477</v>
+      </c>
+      <c r="L72" t="s">
+        <v>478</v>
+      </c>
+      <c r="M72" t="n">
+        <v>4</v>
+      </c>
+      <c r="N72" t="s">
+        <v>479</v>
+      </c>
+      <c r="O72" t="s">
+        <v>53</v>
+      </c>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>3</v>
+      </c>
+      <c r="R72" t="n">
+        <v>3</v>
+      </c>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>11169</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>480</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>481</v>
+      </c>
+      <c r="J73" t="s">
+        <v>482</v>
+      </c>
+      <c r="K73" t="s">
+        <v>483</v>
+      </c>
+      <c r="L73" t="s">
+        <v>484</v>
+      </c>
+      <c r="M73" t="n">
+        <v>3</v>
+      </c>
+      <c r="N73" t="s">
+        <v>485</v>
+      </c>
+      <c r="O73" t="s">
+        <v>94</v>
+      </c>
+      <c r="P73" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>5</v>
+      </c>
+      <c r="R73" t="n">
+        <v>5</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>11169</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>486</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>487</v>
+      </c>
+      <c r="J74" t="s">
+        <v>488</v>
+      </c>
+      <c r="K74" t="s">
+        <v>489</v>
+      </c>
+      <c r="L74" t="s">
+        <v>490</v>
+      </c>
+      <c r="M74" t="n">
+        <v>1</v>
+      </c>
+      <c r="N74" t="s">
+        <v>485</v>
+      </c>
+      <c r="O74" t="s">
+        <v>87</v>
+      </c>
+      <c r="P74" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>1</v>
+      </c>
+      <c r="R74" t="n">
+        <v>4</v>
+      </c>
+      <c r="S74" t="n">
+        <v>1</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>3</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>11169</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>492</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>493</v>
+      </c>
+      <c r="J75" t="s">
+        <v>494</v>
+      </c>
+      <c r="K75" t="s">
+        <v>495</v>
+      </c>
+      <c r="L75" t="s">
+        <v>496</v>
+      </c>
+      <c r="M75" t="n">
+        <v>4</v>
+      </c>
+      <c r="N75" t="s">
+        <v>497</v>
+      </c>
+      <c r="O75" t="s">
+        <v>87</v>
+      </c>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>4</v>
+      </c>
+      <c r="R75" t="n">
+        <v>4</v>
+      </c>
+      <c r="S75" t="n">
+        <v>4</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>4</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>11169</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>499</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>500</v>
+      </c>
+      <c r="J76" t="s">
+        <v>501</v>
+      </c>
+      <c r="K76" t="s">
+        <v>502</v>
+      </c>
+      <c r="L76" t="s">
+        <v>503</v>
+      </c>
+      <c r="M76" t="n">
+        <v>4</v>
+      </c>
+      <c r="N76" t="s">
+        <v>504</v>
+      </c>
+      <c r="O76" t="s">
+        <v>53</v>
+      </c>
+      <c r="P76" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>4</v>
+      </c>
+      <c r="R76" t="n">
+        <v>3</v>
+      </c>
+      <c r="S76" t="n">
+        <v>4</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>11169</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>505</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>506</v>
+      </c>
+      <c r="J77" t="s">
+        <v>507</v>
+      </c>
+      <c r="K77" t="s">
+        <v>508</v>
+      </c>
+      <c r="L77" t="s">
+        <v>509</v>
+      </c>
+      <c r="M77" t="n">
+        <v>4</v>
+      </c>
+      <c r="N77" t="s">
+        <v>510</v>
+      </c>
+      <c r="O77" t="s">
+        <v>87</v>
+      </c>
+      <c r="P77" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>4</v>
+      </c>
+      <c r="R77" t="n">
+        <v>4</v>
+      </c>
+      <c r="S77" t="n">
+        <v>4</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>11169</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>511</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>512</v>
+      </c>
+      <c r="J78" t="s">
+        <v>513</v>
+      </c>
+      <c r="K78" t="s">
+        <v>514</v>
+      </c>
+      <c r="L78" t="s">
+        <v>515</v>
+      </c>
+      <c r="M78" t="n">
+        <v>3</v>
+      </c>
+      <c r="N78" t="s">
+        <v>516</v>
+      </c>
+      <c r="O78" t="s">
+        <v>94</v>
+      </c>
+      <c r="P78" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>4</v>
+      </c>
+      <c r="R78" t="n">
+        <v>3</v>
+      </c>
+      <c r="S78" t="n">
+        <v>4</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>3</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>11169</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>517</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>518</v>
+      </c>
+      <c r="J79" t="s">
+        <v>519</v>
+      </c>
+      <c r="K79" t="s">
+        <v>520</v>
+      </c>
+      <c r="L79" t="s">
+        <v>521</v>
+      </c>
+      <c r="M79" t="n">
+        <v>4</v>
+      </c>
+      <c r="N79" t="s"/>
+      <c r="O79" t="s"/>
+      <c r="P79" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>4</v>
+      </c>
+      <c r="R79" t="n">
+        <v>5</v>
+      </c>
+      <c r="S79" t="n">
+        <v>5</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>11169</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>522</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>523</v>
+      </c>
+      <c r="J80" t="s">
+        <v>524</v>
+      </c>
+      <c r="K80" t="s">
+        <v>525</v>
+      </c>
+      <c r="L80" t="s">
+        <v>526</v>
+      </c>
+      <c r="M80" t="n">
+        <v>1</v>
+      </c>
+      <c r="N80" t="s">
+        <v>527</v>
+      </c>
+      <c r="O80" t="s">
+        <v>87</v>
+      </c>
+      <c r="P80" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>1</v>
+      </c>
+      <c r="R80" t="n">
+        <v>2</v>
+      </c>
+      <c r="S80" t="n">
+        <v>1</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>2</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>11169</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>529</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>530</v>
+      </c>
+      <c r="J81" t="s">
+        <v>531</v>
+      </c>
+      <c r="K81" t="s">
+        <v>532</v>
+      </c>
+      <c r="L81" t="s">
+        <v>533</v>
+      </c>
+      <c r="M81" t="n">
+        <v>1</v>
+      </c>
+      <c r="N81" t="s">
+        <v>534</v>
+      </c>
+      <c r="O81" t="s">
+        <v>94</v>
+      </c>
+      <c r="P81" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>1</v>
+      </c>
+      <c r="R81" t="n">
+        <v>5</v>
+      </c>
+      <c r="S81" t="n">
+        <v>1</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>2</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>11169</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>535</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>536</v>
+      </c>
+      <c r="J82" t="s">
+        <v>537</v>
+      </c>
+      <c r="K82" t="s">
+        <v>538</v>
+      </c>
+      <c r="L82" t="s">
+        <v>539</v>
+      </c>
+      <c r="M82" t="n">
+        <v>1</v>
+      </c>
+      <c r="N82" t="s">
+        <v>540</v>
+      </c>
+      <c r="O82" t="s">
+        <v>122</v>
+      </c>
+      <c r="P82" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>2</v>
+      </c>
+      <c r="R82" t="n">
+        <v>4</v>
+      </c>
+      <c r="S82" t="n">
+        <v>1</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>1</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>11169</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>541</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>542</v>
+      </c>
+      <c r="J83" t="s">
+        <v>543</v>
+      </c>
+      <c r="K83" t="s">
+        <v>544</v>
+      </c>
+      <c r="L83" t="s">
+        <v>545</v>
+      </c>
+      <c r="M83" t="n">
+        <v>2</v>
+      </c>
+      <c r="N83" t="s">
+        <v>546</v>
+      </c>
+      <c r="O83" t="s">
+        <v>53</v>
+      </c>
+      <c r="P83" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>1</v>
+      </c>
+      <c r="R83" t="n">
+        <v>3</v>
+      </c>
+      <c r="S83" t="n">
+        <v>1</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="s"/>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>11169</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>547</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>548</v>
+      </c>
+      <c r="J84" t="s">
+        <v>549</v>
+      </c>
+      <c r="K84" t="s">
+        <v>550</v>
+      </c>
+      <c r="L84" t="s">
+        <v>551</v>
+      </c>
+      <c r="M84" t="n">
+        <v>2</v>
+      </c>
+      <c r="N84" t="s"/>
+      <c r="O84" t="s"/>
+      <c r="P84" t="s"/>
+      <c r="Q84" t="s"/>
+      <c r="R84" t="s"/>
+      <c r="S84" t="s"/>
+      <c r="T84" t="s"/>
+      <c r="U84" t="s"/>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>11169</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>553</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>554</v>
+      </c>
+      <c r="J85" t="s">
+        <v>555</v>
+      </c>
+      <c r="K85" t="s">
+        <v>556</v>
+      </c>
+      <c r="L85" t="s">
+        <v>557</v>
+      </c>
+      <c r="M85" t="n">
+        <v>4</v>
+      </c>
+      <c r="N85" t="s"/>
+      <c r="O85" t="s"/>
+      <c r="P85" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>3</v>
+      </c>
+      <c r="R85" t="s"/>
+      <c r="S85" t="n">
+        <v>4</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>3</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>11169</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>559</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>560</v>
+      </c>
+      <c r="J86" t="s">
+        <v>561</v>
+      </c>
+      <c r="K86" t="s">
+        <v>562</v>
+      </c>
+      <c r="L86" t="s">
+        <v>563</v>
+      </c>
+      <c r="M86" t="n">
+        <v>1</v>
+      </c>
+      <c r="N86" t="s"/>
+      <c r="O86" t="s"/>
+      <c r="P86" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>3</v>
+      </c>
+      <c r="R86" t="s"/>
+      <c r="S86" t="n">
+        <v>1</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>1</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>11169</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>565</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>566</v>
+      </c>
+      <c r="J87" t="s">
+        <v>567</v>
+      </c>
+      <c r="K87" t="s">
+        <v>568</v>
+      </c>
+      <c r="L87" t="s">
+        <v>569</v>
+      </c>
+      <c r="M87" t="n">
+        <v>3</v>
+      </c>
+      <c r="N87" t="s"/>
+      <c r="O87" t="s"/>
+      <c r="P87" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>3</v>
+      </c>
+      <c r="R87" t="s"/>
+      <c r="S87" t="n">
+        <v>4</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>4</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>569</v>
       </c>
     </row>
   </sheetData>
